--- a/000-要件定義/003-WBS_木村優摩.xlsx
+++ b/000-要件定義/003-WBS_木村優摩.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\disstrg\業務処理\戦略本部\01_一般用\Ｊａｖａ選抜研修\新人・強化研修_2025\参加メンバー\強化要員\木村優摩\99_レビュー依頼\000_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0752745-BC32-4A5B-8AF7-1F0FCC1A524F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF42A5E-CF65-4C05-B804-DE7728E21514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-975" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="79">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -663,25 +663,18 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>完了</t>
-    <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
+    <t>指導員Rv
+100%</t>
+    <rPh sb="0" eb="3">
+      <t>シドウイン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>着手
+    <t>指導員Rv
 50%</t>
-    <rPh sb="0" eb="2">
-      <t>チャクシュ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>アRv対応
-50%</t>
-    <rPh sb="3" eb="5">
-      <t>タイオウ</t>
+    <rPh sb="0" eb="3">
+      <t>シドウイン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1724,7 +1717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1976,29 +1969,287 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2006,86 +2257,134 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2093,33 +2392,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2129,284 +2401,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3113,10 +3109,10 @@
   <dimension ref="A1:BP67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3132,94 +3128,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="10.5" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="191"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="126" t="s">
+      <c r="D1" s="113"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="111">
+      <c r="G1" s="139">
         <v>45901</v>
       </c>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="112"/>
-      <c r="AG1" s="112"/>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="112"/>
-      <c r="AJ1" s="113"/>
-      <c r="AK1" s="111">
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="140"/>
+      <c r="T1" s="140"/>
+      <c r="U1" s="140"/>
+      <c r="V1" s="140"/>
+      <c r="W1" s="140"/>
+      <c r="X1" s="140"/>
+      <c r="Y1" s="140"/>
+      <c r="Z1" s="140"/>
+      <c r="AA1" s="140"/>
+      <c r="AB1" s="140"/>
+      <c r="AC1" s="140"/>
+      <c r="AD1" s="140"/>
+      <c r="AE1" s="140"/>
+      <c r="AF1" s="140"/>
+      <c r="AG1" s="140"/>
+      <c r="AH1" s="140"/>
+      <c r="AI1" s="140"/>
+      <c r="AJ1" s="158"/>
+      <c r="AK1" s="139">
         <v>45931</v>
       </c>
-      <c r="AL1" s="112"/>
-      <c r="AM1" s="112"/>
-      <c r="AN1" s="112"/>
-      <c r="AO1" s="112"/>
-      <c r="AP1" s="112"/>
-      <c r="AQ1" s="112"/>
-      <c r="AR1" s="112"/>
-      <c r="AS1" s="112"/>
-      <c r="AT1" s="112"/>
-      <c r="AU1" s="112"/>
-      <c r="AV1" s="112"/>
-      <c r="AW1" s="112"/>
-      <c r="AX1" s="112"/>
-      <c r="AY1" s="112"/>
-      <c r="AZ1" s="112"/>
-      <c r="BA1" s="112"/>
-      <c r="BB1" s="112"/>
-      <c r="BC1" s="112"/>
-      <c r="BD1" s="112"/>
-      <c r="BE1" s="112"/>
-      <c r="BF1" s="112"/>
-      <c r="BG1" s="112"/>
-      <c r="BH1" s="112"/>
-      <c r="BI1" s="112"/>
-      <c r="BJ1" s="112"/>
-      <c r="BK1" s="112"/>
-      <c r="BL1" s="112"/>
-      <c r="BM1" s="112"/>
-      <c r="BN1" s="112"/>
+      <c r="AL1" s="140"/>
+      <c r="AM1" s="140"/>
+      <c r="AN1" s="140"/>
+      <c r="AO1" s="140"/>
+      <c r="AP1" s="140"/>
+      <c r="AQ1" s="140"/>
+      <c r="AR1" s="140"/>
+      <c r="AS1" s="140"/>
+      <c r="AT1" s="140"/>
+      <c r="AU1" s="140"/>
+      <c r="AV1" s="140"/>
+      <c r="AW1" s="140"/>
+      <c r="AX1" s="140"/>
+      <c r="AY1" s="140"/>
+      <c r="AZ1" s="140"/>
+      <c r="BA1" s="140"/>
+      <c r="BB1" s="140"/>
+      <c r="BC1" s="140"/>
+      <c r="BD1" s="140"/>
+      <c r="BE1" s="140"/>
+      <c r="BF1" s="140"/>
+      <c r="BG1" s="140"/>
+      <c r="BH1" s="140"/>
+      <c r="BI1" s="140"/>
+      <c r="BJ1" s="140"/>
+      <c r="BK1" s="140"/>
+      <c r="BL1" s="140"/>
+      <c r="BM1" s="140"/>
+      <c r="BN1" s="140"/>
       <c r="BO1" s="68"/>
       <c r="BP1" s="3"/>
     </row>
     <row r="2" spans="1:68" ht="10.5" customHeight="1">
-      <c r="A2" s="115"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="127"/>
+      <c r="A2" s="161"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="167"/>
       <c r="G2" s="49">
         <v>42156</v>
       </c>
@@ -3406,12 +3402,12 @@
       <c r="BP2" s="3"/>
     </row>
     <row r="3" spans="1:68" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A3" s="116"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="128"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="168"/>
       <c r="G3" s="51" t="s">
         <v>43</v>
       </c>
@@ -3598,21 +3594,21 @@
       <c r="BP3" s="48"/>
     </row>
     <row r="4" spans="1:68" s="3" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A4" s="87">
+      <c r="A4" s="147">
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="129" t="s">
+      <c r="C4" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="193"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="132" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="213"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="231" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="95"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -3677,17 +3673,17 @@
       <c r="BO4" s="63"/>
     </row>
     <row r="5" spans="1:68" s="3" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A5" s="88"/>
+      <c r="A5" s="148"/>
       <c r="B5" s="35"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="214"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="96"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
       <c r="J5" s="33"/>
-      <c r="K5" s="215"/>
+      <c r="K5" s="97"/>
       <c r="L5" s="26"/>
       <c r="M5" s="27"/>
       <c r="N5" s="71"/>
@@ -3746,18 +3742,18 @@
       <c r="BO5" s="64"/>
     </row>
     <row r="6" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="87">
+      <c r="A6" s="147">
         <v>2</v>
       </c>
       <c r="B6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="195"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="211" t="s">
+      <c r="D6" s="134"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="159" t="s">
         <v>78</v>
       </c>
       <c r="G6" s="40"/>
@@ -3774,7 +3770,7 @@
       <c r="R6" s="7"/>
       <c r="S6" s="16"/>
       <c r="T6" s="22"/>
-      <c r="U6" s="230"/>
+      <c r="U6" s="111"/>
       <c r="V6" s="7" t="s">
         <v>61</v>
       </c>
@@ -3825,17 +3821,17 @@
       <c r="BO6" s="65"/>
     </row>
     <row r="7" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="88"/>
+      <c r="A7" s="148"/>
       <c r="B7" s="38"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="104"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="157"/>
       <c r="G7" s="56"/>
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
       <c r="J7" s="45"/>
-      <c r="K7" s="216"/>
+      <c r="K7" s="98"/>
       <c r="L7" s="46"/>
       <c r="M7" s="47"/>
       <c r="N7" s="73"/>
@@ -3894,19 +3890,19 @@
       <c r="BO7" s="66"/>
     </row>
     <row r="8" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="87">
+      <c r="A8" s="147">
         <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="195"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="211" t="s">
-        <v>79</v>
+      <c r="D8" s="134"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="231" t="s">
+        <v>77</v>
       </c>
       <c r="G8" s="40"/>
       <c r="H8" s="7"/>
@@ -3922,7 +3918,7 @@
       <c r="R8" s="7"/>
       <c r="S8" s="16"/>
       <c r="T8" s="22"/>
-      <c r="U8" s="230"/>
+      <c r="U8" s="111"/>
       <c r="V8" s="7" t="s">
         <v>61</v>
       </c>
@@ -3973,17 +3969,17 @@
       <c r="BO8" s="65"/>
     </row>
     <row r="9" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="88"/>
+      <c r="A9" s="148"/>
       <c r="B9" s="38"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="104"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="124"/>
       <c r="G9" s="56"/>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
       <c r="J9" s="83"/>
-      <c r="K9" s="216"/>
+      <c r="K9" s="98"/>
       <c r="L9" s="46"/>
       <c r="M9" s="47"/>
       <c r="N9" s="73"/>
@@ -3993,7 +3989,7 @@
       <c r="R9" s="45"/>
       <c r="S9" s="46"/>
       <c r="T9" s="47"/>
-      <c r="U9" s="225"/>
+      <c r="U9" s="107"/>
       <c r="V9" s="45"/>
       <c r="W9" s="45"/>
       <c r="X9" s="45"/>
@@ -4042,18 +4038,20 @@
       <c r="BO9" s="66"/>
     </row>
     <row r="10" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A10" s="87">
+      <c r="A10" s="147">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="195"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="211"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="231" t="s">
+        <v>77</v>
+      </c>
       <c r="G10" s="40"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
@@ -4119,12 +4117,12 @@
       <c r="BO10" s="65"/>
     </row>
     <row r="11" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A11" s="88"/>
+      <c r="A11" s="148"/>
       <c r="B11" s="38"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="104"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="124"/>
       <c r="G11" s="56"/>
       <c r="H11" s="83"/>
       <c r="I11" s="83"/>
@@ -4188,19 +4186,19 @@
       <c r="BO11" s="66"/>
     </row>
     <row r="12" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A12" s="87">
+      <c r="A12" s="147">
         <v>5</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="195"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="132" t="s">
-        <v>76</v>
+      <c r="D12" s="134"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="231" t="s">
+        <v>77</v>
       </c>
       <c r="G12" s="40"/>
       <c r="H12" s="7"/>
@@ -4216,7 +4214,7 @@
       <c r="R12" s="7"/>
       <c r="S12" s="16"/>
       <c r="T12" s="22"/>
-      <c r="U12" s="230"/>
+      <c r="U12" s="111"/>
       <c r="V12" s="7" t="s">
         <v>61</v>
       </c>
@@ -4267,12 +4265,12 @@
       <c r="BO12" s="65"/>
     </row>
     <row r="13" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A13" s="88"/>
+      <c r="A13" s="148"/>
       <c r="B13" s="38"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="196"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="98"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="124"/>
       <c r="G13" s="56"/>
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
@@ -4283,8 +4281,8 @@
       <c r="N13" s="73"/>
       <c r="O13" s="73"/>
       <c r="P13" s="73"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
       <c r="S13" s="46"/>
       <c r="T13" s="47"/>
       <c r="U13" s="71"/>
@@ -4336,19 +4334,19 @@
       <c r="BO13" s="66"/>
     </row>
     <row r="14" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A14" s="87">
+      <c r="A14" s="147">
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="195"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="93" t="s">
-        <v>77</v>
+      <c r="D14" s="134"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="151" t="s">
+        <v>76</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="7"/>
@@ -4364,7 +4362,7 @@
       <c r="R14" s="42"/>
       <c r="S14" s="16"/>
       <c r="T14" s="22"/>
-      <c r="U14" s="230"/>
+      <c r="U14" s="111"/>
       <c r="V14" s="42"/>
       <c r="W14" s="42"/>
       <c r="X14" s="42"/>
@@ -4415,12 +4413,12 @@
       <c r="BO14" s="65"/>
     </row>
     <row r="15" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A15" s="88"/>
+      <c r="A15" s="148"/>
       <c r="B15" s="38"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="104"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="157"/>
       <c r="G15" s="56"/>
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
@@ -4484,20 +4482,20 @@
       <c r="BO15" s="66"/>
     </row>
     <row r="16" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="87">
+      <c r="A16" s="147">
         <v>7</v>
       </c>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="181" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="89" t="s">
+      <c r="C16" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="90"/>
+      <c r="D16" s="144"/>
       <c r="E16" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="93"/>
+      <c r="F16" s="151"/>
       <c r="G16" s="40"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -4563,12 +4561,12 @@
       <c r="BO16" s="65"/>
     </row>
     <row r="17" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="88"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="189"/>
-      <c r="F17" s="94"/>
+      <c r="A17" s="148"/>
+      <c r="B17" s="181"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="142"/>
       <c r="G17" s="54"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -4632,23 +4630,23 @@
       <c r="BO17" s="64"/>
     </row>
     <row r="18" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="87">
+      <c r="A18" s="147">
         <v>8</v>
       </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="89" t="s">
+      <c r="B18" s="181"/>
+      <c r="C18" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="90"/>
+      <c r="D18" s="144"/>
       <c r="E18" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="103"/>
+      <c r="F18" s="141"/>
       <c r="G18" s="53"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="212"/>
+      <c r="K18" s="94"/>
       <c r="L18" s="17"/>
       <c r="M18" s="23"/>
       <c r="N18" s="70"/>
@@ -4709,12 +4707,12 @@
       <c r="BO18" s="67"/>
     </row>
     <row r="19" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="88"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="189"/>
-      <c r="F19" s="94"/>
+      <c r="A19" s="148"/>
+      <c r="B19" s="181"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="142"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -4778,23 +4776,23 @@
       <c r="BO19" s="64"/>
     </row>
     <row r="20" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="87">
+      <c r="A20" s="147">
         <v>9</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="89" t="s">
+      <c r="B20" s="181"/>
+      <c r="C20" s="143" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="90"/>
+      <c r="D20" s="144"/>
       <c r="E20" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="103"/>
+      <c r="F20" s="141"/>
       <c r="G20" s="53"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="212"/>
+      <c r="K20" s="94"/>
       <c r="L20" s="17"/>
       <c r="M20" s="23"/>
       <c r="N20" s="70"/>
@@ -4855,12 +4853,12 @@
       <c r="BO20" s="67"/>
     </row>
     <row r="21" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="88"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="189"/>
-      <c r="F21" s="94"/>
+      <c r="A21" s="148"/>
+      <c r="B21" s="181"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="142"/>
       <c r="G21" s="54"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -4924,23 +4922,23 @@
       <c r="BO21" s="64"/>
     </row>
     <row r="22" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="87">
+      <c r="A22" s="147">
         <v>10</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="89" t="s">
+      <c r="B22" s="181"/>
+      <c r="C22" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="90"/>
+      <c r="D22" s="144"/>
       <c r="E22" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="161"/>
+      <c r="F22" s="172"/>
       <c r="G22" s="53"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
-      <c r="K22" s="212"/>
+      <c r="K22" s="94"/>
       <c r="L22" s="17"/>
       <c r="M22" s="23"/>
       <c r="N22" s="70"/>
@@ -5001,12 +4999,12 @@
       <c r="BO22" s="67"/>
     </row>
     <row r="23" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="88"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="189"/>
-      <c r="F23" s="161"/>
+      <c r="A23" s="148"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="172"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5070,23 +5068,23 @@
       <c r="BO23" s="67"/>
     </row>
     <row r="24" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="87">
+      <c r="A24" s="147">
         <v>11</v>
       </c>
-      <c r="B24" s="95"/>
-      <c r="C24" s="89" t="s">
+      <c r="B24" s="181"/>
+      <c r="C24" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="90"/>
+      <c r="D24" s="144"/>
       <c r="E24" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="103"/>
+      <c r="F24" s="141"/>
       <c r="G24" s="53"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
-      <c r="K24" s="212"/>
+      <c r="K24" s="94"/>
       <c r="L24" s="17"/>
       <c r="M24" s="23"/>
       <c r="N24" s="70"/>
@@ -5147,12 +5145,12 @@
       <c r="BO24" s="63"/>
     </row>
     <row r="25" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A25" s="88"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="189"/>
-      <c r="F25" s="94"/>
+      <c r="A25" s="148"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="142"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -5216,23 +5214,23 @@
       <c r="BO25" s="67"/>
     </row>
     <row r="26" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A26" s="87">
+      <c r="A26" s="147">
         <v>12</v>
       </c>
-      <c r="B26" s="95"/>
-      <c r="C26" s="89" t="s">
+      <c r="B26" s="181"/>
+      <c r="C26" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="90"/>
+      <c r="D26" s="144"/>
       <c r="E26" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="161"/>
+      <c r="F26" s="172"/>
       <c r="G26" s="53"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
-      <c r="K26" s="212"/>
+      <c r="K26" s="94"/>
       <c r="L26" s="17"/>
       <c r="M26" s="23"/>
       <c r="N26" s="70"/>
@@ -5293,12 +5291,12 @@
       <c r="BO26" s="63"/>
     </row>
     <row r="27" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="88"/>
-      <c r="B27" s="96"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="189"/>
-      <c r="F27" s="94"/>
+      <c r="A27" s="148"/>
+      <c r="B27" s="182"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="142"/>
       <c r="G27" s="55"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
@@ -5362,20 +5360,20 @@
       <c r="BO27" s="64"/>
     </row>
     <row r="28" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A28" s="87">
+      <c r="A28" s="147">
         <v>13</v>
       </c>
       <c r="B28" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="133" t="s">
+      <c r="C28" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="134"/>
-      <c r="E28" s="190" t="s">
+      <c r="D28" s="150"/>
+      <c r="E28" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="93"/>
+      <c r="F28" s="151"/>
       <c r="G28" s="40"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -5439,12 +5437,12 @@
       <c r="BO28" s="65"/>
     </row>
     <row r="29" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A29" s="88"/>
+      <c r="A29" s="148"/>
       <c r="B29" s="37"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="92"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="146"/>
       <c r="E29" s="84"/>
-      <c r="F29" s="94"/>
+      <c r="F29" s="142"/>
       <c r="G29" s="54"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -5508,18 +5506,18 @@
       <c r="BO29" s="67"/>
     </row>
     <row r="30" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A30" s="87">
+      <c r="A30" s="147">
         <v>14</v>
       </c>
       <c r="B30" s="37"/>
-      <c r="C30" s="89" t="s">
+      <c r="C30" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="90"/>
-      <c r="E30" s="228" t="s">
+      <c r="D30" s="144"/>
+      <c r="E30" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="103"/>
+      <c r="F30" s="141"/>
       <c r="G30" s="54"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -5583,12 +5581,12 @@
       <c r="BO30" s="67"/>
     </row>
     <row r="31" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A31" s="88"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="92"/>
+      <c r="A31" s="148"/>
+      <c r="B31" s="173"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="146"/>
       <c r="E31" s="84"/>
-      <c r="F31" s="94"/>
+      <c r="F31" s="142"/>
       <c r="G31" s="54"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -5616,7 +5614,7 @@
       <c r="AE31" s="8"/>
       <c r="AF31" s="8"/>
       <c r="AG31" s="14"/>
-      <c r="AH31" s="221"/>
+      <c r="AH31" s="103"/>
       <c r="AI31" s="8"/>
       <c r="AJ31" s="67"/>
       <c r="AK31" s="54"/>
@@ -5652,46 +5650,46 @@
       <c r="BO31" s="67"/>
     </row>
     <row r="32" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A32" s="87">
+      <c r="A32" s="147">
         <v>15</v>
       </c>
-      <c r="B32" s="105"/>
-      <c r="C32" s="89" t="s">
+      <c r="B32" s="173"/>
+      <c r="C32" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="90"/>
-      <c r="E32" s="228" t="s">
+      <c r="D32" s="144"/>
+      <c r="E32" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="103"/>
+      <c r="F32" s="141"/>
       <c r="G32" s="55"/>
       <c r="H32" s="76"/>
       <c r="I32" s="76"/>
       <c r="J32" s="76"/>
       <c r="K32" s="76"/>
-      <c r="L32" s="217"/>
-      <c r="M32" s="218"/>
-      <c r="N32" s="219"/>
-      <c r="O32" s="219"/>
-      <c r="P32" s="219"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="101"/>
+      <c r="O32" s="101"/>
+      <c r="P32" s="101"/>
       <c r="Q32" s="76"/>
       <c r="R32" s="76"/>
-      <c r="S32" s="217"/>
-      <c r="T32" s="218"/>
-      <c r="U32" s="219"/>
+      <c r="S32" s="99"/>
+      <c r="T32" s="100"/>
+      <c r="U32" s="101"/>
       <c r="V32" s="76"/>
       <c r="W32" s="76"/>
       <c r="X32" s="76"/>
       <c r="Y32" s="76"/>
-      <c r="Z32" s="217"/>
-      <c r="AA32" s="218"/>
+      <c r="Z32" s="99"/>
+      <c r="AA32" s="100"/>
       <c r="AB32" s="76"/>
-      <c r="AC32" s="219"/>
+      <c r="AC32" s="101"/>
       <c r="AD32" s="76"/>
       <c r="AE32" s="76"/>
-      <c r="AF32" s="220"/>
-      <c r="AG32" s="217"/>
-      <c r="AH32" s="218"/>
+      <c r="AF32" s="102"/>
+      <c r="AG32" s="99"/>
+      <c r="AH32" s="100"/>
       <c r="AI32" s="25"/>
       <c r="AJ32" s="64"/>
       <c r="AK32" s="55"/>
@@ -5727,12 +5725,12 @@
       <c r="BO32" s="64"/>
     </row>
     <row r="33" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A33" s="88"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="92"/>
+      <c r="A33" s="148"/>
+      <c r="B33" s="173"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="146"/>
       <c r="E33" s="84"/>
-      <c r="F33" s="94"/>
+      <c r="F33" s="142"/>
       <c r="G33" s="54"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -5796,87 +5794,87 @@
       <c r="BO33" s="67"/>
     </row>
     <row r="34" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A34" s="87">
+      <c r="A34" s="147">
         <v>16</v>
       </c>
-      <c r="B34" s="105"/>
-      <c r="C34" s="89" t="s">
+      <c r="B34" s="173"/>
+      <c r="C34" s="143" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="90"/>
-      <c r="E34" s="228" t="s">
+      <c r="D34" s="144"/>
+      <c r="E34" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="103"/>
-      <c r="G34" s="201"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="93"/>
       <c r="H34" s="76"/>
       <c r="I34" s="76"/>
       <c r="J34" s="76"/>
       <c r="K34" s="76"/>
-      <c r="L34" s="217"/>
-      <c r="M34" s="218"/>
-      <c r="N34" s="219"/>
-      <c r="O34" s="219"/>
-      <c r="P34" s="219"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="100"/>
+      <c r="N34" s="101"/>
+      <c r="O34" s="101"/>
+      <c r="P34" s="101"/>
       <c r="Q34" s="76"/>
       <c r="R34" s="76"/>
-      <c r="S34" s="217"/>
-      <c r="T34" s="218"/>
-      <c r="U34" s="219"/>
+      <c r="S34" s="99"/>
+      <c r="T34" s="100"/>
+      <c r="U34" s="101"/>
       <c r="V34" s="76"/>
       <c r="W34" s="76"/>
       <c r="X34" s="76"/>
       <c r="Y34" s="76"/>
-      <c r="Z34" s="217"/>
-      <c r="AA34" s="218"/>
+      <c r="Z34" s="99"/>
+      <c r="AA34" s="100"/>
       <c r="AB34" s="76"/>
-      <c r="AC34" s="219"/>
+      <c r="AC34" s="101"/>
       <c r="AD34" s="76"/>
       <c r="AE34" s="76"/>
       <c r="AF34" s="76"/>
-      <c r="AG34" s="217"/>
-      <c r="AH34" s="218"/>
-      <c r="AI34" s="220"/>
-      <c r="AJ34" s="222"/>
-      <c r="AK34" s="201"/>
-      <c r="AL34" s="219"/>
-      <c r="AM34" s="219"/>
-      <c r="AN34" s="217"/>
-      <c r="AO34" s="218"/>
+      <c r="AG34" s="99"/>
+      <c r="AH34" s="100"/>
+      <c r="AI34" s="102"/>
+      <c r="AJ34" s="104"/>
+      <c r="AK34" s="93"/>
+      <c r="AL34" s="101"/>
+      <c r="AM34" s="101"/>
+      <c r="AN34" s="99"/>
+      <c r="AO34" s="100"/>
       <c r="AP34" s="76"/>
       <c r="AQ34" s="76"/>
       <c r="AR34" s="76"/>
       <c r="AS34" s="76"/>
       <c r="AT34" s="76"/>
-      <c r="AU34" s="217"/>
-      <c r="AV34" s="218"/>
+      <c r="AU34" s="99"/>
+      <c r="AV34" s="100"/>
       <c r="AW34" s="76"/>
       <c r="AX34" s="76"/>
       <c r="AY34" s="76"/>
       <c r="AZ34" s="76"/>
       <c r="BA34" s="76"/>
-      <c r="BB34" s="217"/>
-      <c r="BC34" s="218"/>
+      <c r="BB34" s="99"/>
+      <c r="BC34" s="100"/>
       <c r="BD34" s="76"/>
       <c r="BE34" s="76"/>
       <c r="BF34" s="76"/>
       <c r="BG34" s="76"/>
       <c r="BH34" s="76"/>
-      <c r="BI34" s="217"/>
-      <c r="BJ34" s="218"/>
+      <c r="BI34" s="99"/>
+      <c r="BJ34" s="100"/>
       <c r="BK34" s="76"/>
       <c r="BL34" s="76"/>
       <c r="BM34" s="76"/>
       <c r="BN34" s="76"/>
-      <c r="BO34" s="222"/>
+      <c r="BO34" s="104"/>
     </row>
     <row r="35" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A35" s="88"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="229"/>
-      <c r="F35" s="94"/>
+      <c r="A35" s="148"/>
+      <c r="B35" s="173"/>
+      <c r="C35" s="145"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="142"/>
       <c r="G35" s="54"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -5940,87 +5938,87 @@
       <c r="BO35" s="67"/>
     </row>
     <row r="36" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A36" s="87">
+      <c r="A36" s="147">
         <v>17</v>
       </c>
-      <c r="B36" s="105"/>
-      <c r="C36" s="89" t="s">
+      <c r="B36" s="173"/>
+      <c r="C36" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="90"/>
+      <c r="D36" s="144"/>
       <c r="E36" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="161"/>
-      <c r="G36" s="201"/>
+      <c r="F36" s="172"/>
+      <c r="G36" s="93"/>
       <c r="H36" s="76"/>
       <c r="I36" s="76"/>
       <c r="J36" s="76"/>
       <c r="K36" s="76"/>
-      <c r="L36" s="217"/>
-      <c r="M36" s="218"/>
-      <c r="N36" s="219"/>
-      <c r="O36" s="219"/>
-      <c r="P36" s="219"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="100"/>
+      <c r="N36" s="101"/>
+      <c r="O36" s="101"/>
+      <c r="P36" s="101"/>
       <c r="Q36" s="76"/>
       <c r="R36" s="76"/>
-      <c r="S36" s="217"/>
-      <c r="T36" s="218"/>
-      <c r="U36" s="219"/>
+      <c r="S36" s="99"/>
+      <c r="T36" s="100"/>
+      <c r="U36" s="101"/>
       <c r="V36" s="76"/>
       <c r="W36" s="76"/>
       <c r="X36" s="76"/>
       <c r="Y36" s="76"/>
-      <c r="Z36" s="217"/>
-      <c r="AA36" s="218"/>
+      <c r="Z36" s="99"/>
+      <c r="AA36" s="100"/>
       <c r="AB36" s="76"/>
-      <c r="AC36" s="219"/>
+      <c r="AC36" s="101"/>
       <c r="AD36" s="76"/>
       <c r="AE36" s="76"/>
       <c r="AF36" s="76"/>
-      <c r="AG36" s="217"/>
-      <c r="AH36" s="218"/>
+      <c r="AG36" s="99"/>
+      <c r="AH36" s="100"/>
       <c r="AI36" s="76"/>
-      <c r="AJ36" s="223"/>
-      <c r="AK36" s="201"/>
-      <c r="AL36" s="219"/>
-      <c r="AM36" s="219"/>
-      <c r="AN36" s="217"/>
-      <c r="AO36" s="218"/>
+      <c r="AJ36" s="105"/>
+      <c r="AK36" s="93"/>
+      <c r="AL36" s="101"/>
+      <c r="AM36" s="101"/>
+      <c r="AN36" s="99"/>
+      <c r="AO36" s="100"/>
       <c r="AP36" s="76"/>
       <c r="AQ36" s="76"/>
       <c r="AR36" s="76"/>
       <c r="AS36" s="76"/>
       <c r="AT36" s="76"/>
-      <c r="AU36" s="217"/>
-      <c r="AV36" s="218"/>
+      <c r="AU36" s="99"/>
+      <c r="AV36" s="100"/>
       <c r="AW36" s="76"/>
       <c r="AX36" s="76"/>
       <c r="AY36" s="76"/>
       <c r="AZ36" s="76"/>
       <c r="BA36" s="76"/>
-      <c r="BB36" s="217"/>
-      <c r="BC36" s="218"/>
+      <c r="BB36" s="99"/>
+      <c r="BC36" s="100"/>
       <c r="BD36" s="76"/>
       <c r="BE36" s="76"/>
       <c r="BF36" s="76"/>
       <c r="BG36" s="76"/>
       <c r="BH36" s="76"/>
-      <c r="BI36" s="217"/>
-      <c r="BJ36" s="218"/>
+      <c r="BI36" s="99"/>
+      <c r="BJ36" s="100"/>
       <c r="BK36" s="76"/>
       <c r="BL36" s="76"/>
       <c r="BM36" s="76"/>
       <c r="BN36" s="76"/>
-      <c r="BO36" s="222"/>
+      <c r="BO36" s="104"/>
     </row>
     <row r="37" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A37" s="88"/>
-      <c r="B37" s="105"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="229"/>
-      <c r="F37" s="94"/>
+      <c r="A37" s="148"/>
+      <c r="B37" s="173"/>
+      <c r="C37" s="145"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="142"/>
       <c r="G37" s="54"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -6084,87 +6082,87 @@
       <c r="BO37" s="67"/>
     </row>
     <row r="38" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A38" s="87">
+      <c r="A38" s="147">
         <v>18</v>
       </c>
-      <c r="B38" s="105"/>
-      <c r="C38" s="89" t="s">
+      <c r="B38" s="173"/>
+      <c r="C38" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="90"/>
+      <c r="D38" s="144"/>
       <c r="E38" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="103"/>
-      <c r="G38" s="201"/>
+      <c r="F38" s="141"/>
+      <c r="G38" s="93"/>
       <c r="H38" s="76"/>
       <c r="I38" s="76"/>
       <c r="J38" s="76"/>
       <c r="K38" s="76"/>
-      <c r="L38" s="217"/>
-      <c r="M38" s="218"/>
-      <c r="N38" s="219"/>
-      <c r="O38" s="219"/>
-      <c r="P38" s="219"/>
+      <c r="L38" s="99"/>
+      <c r="M38" s="100"/>
+      <c r="N38" s="101"/>
+      <c r="O38" s="101"/>
+      <c r="P38" s="101"/>
       <c r="Q38" s="76"/>
       <c r="R38" s="76"/>
-      <c r="S38" s="217"/>
-      <c r="T38" s="218"/>
-      <c r="U38" s="219"/>
+      <c r="S38" s="99"/>
+      <c r="T38" s="100"/>
+      <c r="U38" s="101"/>
       <c r="V38" s="76"/>
       <c r="W38" s="76"/>
       <c r="X38" s="76"/>
       <c r="Y38" s="76"/>
-      <c r="Z38" s="217"/>
-      <c r="AA38" s="218"/>
+      <c r="Z38" s="99"/>
+      <c r="AA38" s="100"/>
       <c r="AB38" s="76"/>
-      <c r="AC38" s="219"/>
+      <c r="AC38" s="101"/>
       <c r="AD38" s="76"/>
       <c r="AE38" s="76"/>
       <c r="AF38" s="76"/>
-      <c r="AG38" s="217"/>
-      <c r="AH38" s="218"/>
+      <c r="AG38" s="99"/>
+      <c r="AH38" s="100"/>
       <c r="AI38" s="76"/>
-      <c r="AJ38" s="222"/>
-      <c r="AK38" s="224"/>
-      <c r="AL38" s="219"/>
-      <c r="AM38" s="219"/>
-      <c r="AN38" s="217"/>
-      <c r="AO38" s="218"/>
+      <c r="AJ38" s="104"/>
+      <c r="AK38" s="106"/>
+      <c r="AL38" s="101"/>
+      <c r="AM38" s="101"/>
+      <c r="AN38" s="99"/>
+      <c r="AO38" s="100"/>
       <c r="AP38" s="76"/>
       <c r="AQ38" s="76"/>
       <c r="AR38" s="76"/>
       <c r="AS38" s="76"/>
       <c r="AT38" s="76"/>
-      <c r="AU38" s="217"/>
-      <c r="AV38" s="218"/>
+      <c r="AU38" s="99"/>
+      <c r="AV38" s="100"/>
       <c r="AW38" s="76"/>
       <c r="AX38" s="76"/>
       <c r="AY38" s="76"/>
       <c r="AZ38" s="76"/>
       <c r="BA38" s="76"/>
-      <c r="BB38" s="217"/>
-      <c r="BC38" s="218"/>
+      <c r="BB38" s="99"/>
+      <c r="BC38" s="100"/>
       <c r="BD38" s="76"/>
       <c r="BE38" s="76"/>
       <c r="BF38" s="76"/>
       <c r="BG38" s="76"/>
       <c r="BH38" s="76"/>
-      <c r="BI38" s="217"/>
-      <c r="BJ38" s="218"/>
+      <c r="BI38" s="99"/>
+      <c r="BJ38" s="100"/>
       <c r="BK38" s="76"/>
       <c r="BL38" s="76"/>
       <c r="BM38" s="76"/>
       <c r="BN38" s="76"/>
-      <c r="BO38" s="222"/>
+      <c r="BO38" s="104"/>
     </row>
     <row r="39" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A39" s="88"/>
-      <c r="B39" s="105"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="92"/>
+      <c r="A39" s="148"/>
+      <c r="B39" s="173"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="146"/>
       <c r="E39" s="84"/>
-      <c r="F39" s="94"/>
+      <c r="F39" s="142"/>
       <c r="G39" s="54"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -6228,23 +6226,23 @@
       <c r="BO39" s="67"/>
     </row>
     <row r="40" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="87">
+      <c r="A40" s="147">
         <v>19</v>
       </c>
-      <c r="B40" s="105"/>
-      <c r="C40" s="89" t="s">
+      <c r="B40" s="173"/>
+      <c r="C40" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="90"/>
-      <c r="E40" s="228" t="s">
+      <c r="D40" s="144"/>
+      <c r="E40" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="161"/>
+      <c r="F40" s="172"/>
       <c r="G40" s="53"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
-      <c r="K40" s="212"/>
+      <c r="K40" s="94"/>
       <c r="L40" s="17"/>
       <c r="M40" s="23"/>
       <c r="N40" s="70"/>
@@ -6303,12 +6301,12 @@
       <c r="BO40" s="63"/>
     </row>
     <row r="41" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="88"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="165"/>
-      <c r="D41" s="166"/>
+      <c r="A41" s="148"/>
+      <c r="B41" s="174"/>
+      <c r="C41" s="170"/>
+      <c r="D41" s="171"/>
       <c r="E41" s="86"/>
-      <c r="F41" s="94"/>
+      <c r="F41" s="142"/>
       <c r="G41" s="54"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
@@ -6372,20 +6370,20 @@
       <c r="BO41" s="67"/>
     </row>
     <row r="42" spans="1:68" ht="12" customHeight="1">
-      <c r="A42" s="198">
+      <c r="A42" s="121">
         <v>20</v>
       </c>
-      <c r="B42" s="200" t="s">
+      <c r="B42" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="206" t="s">
+      <c r="C42" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="207"/>
+      <c r="D42" s="130"/>
       <c r="E42" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="101"/>
+      <c r="F42" s="178"/>
       <c r="G42" s="40"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -6452,12 +6450,12 @@
       <c r="BP42" s="3"/>
     </row>
     <row r="43" spans="1:68" ht="12" customHeight="1">
-      <c r="A43" s="199"/>
-      <c r="B43" s="186"/>
-      <c r="C43" s="202"/>
-      <c r="D43" s="203"/>
+      <c r="A43" s="122"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="126"/>
       <c r="E43" s="85"/>
-      <c r="F43" s="176"/>
+      <c r="F43" s="179"/>
       <c r="G43" s="54"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -6522,16 +6520,16 @@
       <c r="BP43" s="3"/>
     </row>
     <row r="44" spans="1:68" ht="12" customHeight="1">
-      <c r="A44" s="198">
+      <c r="A44" s="121">
         <v>20</v>
       </c>
-      <c r="B44" s="186"/>
-      <c r="C44" s="202"/>
-      <c r="D44" s="203"/>
-      <c r="E44" s="228" t="s">
+      <c r="B44" s="87"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="F44" s="149"/>
+      <c r="F44" s="131"/>
       <c r="G44" s="53"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -6550,7 +6548,7 @@
       <c r="V44" s="10"/>
       <c r="W44" s="10"/>
       <c r="X44" s="10"/>
-      <c r="Y44" s="226"/>
+      <c r="Y44" s="108"/>
       <c r="Z44" s="17"/>
       <c r="AA44" s="23"/>
       <c r="AB44" s="10"/>
@@ -6598,12 +6596,12 @@
       <c r="BP44" s="3"/>
     </row>
     <row r="45" spans="1:68" ht="12" customHeight="1">
-      <c r="A45" s="199"/>
-      <c r="B45" s="186"/>
-      <c r="C45" s="202"/>
-      <c r="D45" s="203"/>
+      <c r="A45" s="122"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="126"/>
       <c r="E45" s="86"/>
-      <c r="F45" s="102"/>
+      <c r="F45" s="132"/>
       <c r="G45" s="57"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -6668,18 +6666,18 @@
       <c r="BP45" s="3"/>
     </row>
     <row r="46" spans="1:68" ht="12" customHeight="1">
-      <c r="A46" s="198">
+      <c r="A46" s="121">
         <v>21</v>
       </c>
-      <c r="B46" s="186"/>
-      <c r="C46" s="206" t="s">
+      <c r="B46" s="87"/>
+      <c r="C46" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="D46" s="207"/>
+      <c r="D46" s="130"/>
       <c r="E46" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="101"/>
+      <c r="F46" s="178"/>
       <c r="G46" s="40"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -6746,12 +6744,12 @@
       <c r="BP46" s="3"/>
     </row>
     <row r="47" spans="1:68" ht="12" customHeight="1">
-      <c r="A47" s="199"/>
-      <c r="B47" s="186"/>
-      <c r="C47" s="202"/>
-      <c r="D47" s="203"/>
+      <c r="A47" s="122"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="125"/>
+      <c r="D47" s="126"/>
       <c r="E47" s="85"/>
-      <c r="F47" s="176"/>
+      <c r="F47" s="179"/>
       <c r="G47" s="54"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -6816,16 +6814,16 @@
       <c r="BP47" s="3"/>
     </row>
     <row r="48" spans="1:68" ht="12" customHeight="1">
-      <c r="A48" s="198">
+      <c r="A48" s="121">
         <v>21</v>
       </c>
-      <c r="B48" s="186"/>
-      <c r="C48" s="202"/>
-      <c r="D48" s="203"/>
-      <c r="E48" s="228" t="s">
+      <c r="B48" s="87"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="F48" s="149"/>
+      <c r="F48" s="131"/>
       <c r="G48" s="53"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
@@ -6844,7 +6842,7 @@
       <c r="V48" s="10"/>
       <c r="W48" s="10"/>
       <c r="X48" s="10"/>
-      <c r="Y48" s="226"/>
+      <c r="Y48" s="108"/>
       <c r="Z48" s="17"/>
       <c r="AA48" s="23"/>
       <c r="AB48" s="10"/>
@@ -6892,12 +6890,12 @@
       <c r="BP48" s="3"/>
     </row>
     <row r="49" spans="1:68" ht="12" customHeight="1">
-      <c r="A49" s="199"/>
-      <c r="B49" s="186"/>
-      <c r="C49" s="202"/>
-      <c r="D49" s="203"/>
+      <c r="A49" s="122"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="126"/>
       <c r="E49" s="84"/>
-      <c r="F49" s="102"/>
+      <c r="F49" s="132"/>
       <c r="G49" s="57"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -6962,18 +6960,18 @@
       <c r="BP49" s="3"/>
     </row>
     <row r="50" spans="1:68" ht="12" customHeight="1">
-      <c r="A50" s="198">
+      <c r="A50" s="121">
         <v>22</v>
       </c>
-      <c r="B50" s="186"/>
-      <c r="C50" s="206" t="s">
+      <c r="B50" s="87"/>
+      <c r="C50" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="207"/>
+      <c r="D50" s="130"/>
       <c r="E50" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="F50" s="101"/>
+      <c r="F50" s="178"/>
       <c r="G50" s="40"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -7040,12 +7038,12 @@
       <c r="BP50" s="3"/>
     </row>
     <row r="51" spans="1:68" ht="12" customHeight="1">
-      <c r="A51" s="199"/>
-      <c r="B51" s="186"/>
-      <c r="C51" s="202"/>
-      <c r="D51" s="203"/>
-      <c r="E51" s="229"/>
-      <c r="F51" s="176"/>
+      <c r="A51" s="122"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="126"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="179"/>
       <c r="G51" s="54"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -7110,16 +7108,16 @@
       <c r="BP51" s="3"/>
     </row>
     <row r="52" spans="1:68" ht="12" customHeight="1">
-      <c r="A52" s="198">
+      <c r="A52" s="121">
         <v>22</v>
       </c>
-      <c r="B52" s="186"/>
-      <c r="C52" s="202"/>
-      <c r="D52" s="203"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="125"/>
+      <c r="D52" s="126"/>
       <c r="E52" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="F52" s="149"/>
+      <c r="F52" s="131"/>
       <c r="G52" s="53"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
@@ -7138,7 +7136,7 @@
       <c r="V52" s="10"/>
       <c r="W52" s="10"/>
       <c r="X52" s="10"/>
-      <c r="Y52" s="226"/>
+      <c r="Y52" s="108"/>
       <c r="Z52" s="17"/>
       <c r="AA52" s="23"/>
       <c r="AB52" s="10"/>
@@ -7186,12 +7184,12 @@
       <c r="BP52" s="3"/>
     </row>
     <row r="53" spans="1:68" ht="12" customHeight="1">
-      <c r="A53" s="199"/>
-      <c r="B53" s="186"/>
-      <c r="C53" s="204"/>
-      <c r="D53" s="205"/>
+      <c r="A53" s="122"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="128"/>
       <c r="E53" s="86"/>
-      <c r="F53" s="102"/>
+      <c r="F53" s="132"/>
       <c r="G53" s="57"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -7256,18 +7254,18 @@
       <c r="BP53" s="3"/>
     </row>
     <row r="54" spans="1:68" ht="12" customHeight="1">
-      <c r="A54" s="198">
+      <c r="A54" s="121">
         <v>24</v>
       </c>
-      <c r="B54" s="186"/>
-      <c r="C54" s="206" t="s">
+      <c r="B54" s="87"/>
+      <c r="C54" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="207"/>
+      <c r="D54" s="130"/>
       <c r="E54" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="F54" s="97"/>
+      <c r="F54" s="177"/>
       <c r="G54" s="40"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
@@ -7334,12 +7332,12 @@
       <c r="BP54" s="3"/>
     </row>
     <row r="55" spans="1:68" ht="12" customHeight="1">
-      <c r="A55" s="199"/>
-      <c r="B55" s="186"/>
-      <c r="C55" s="202"/>
-      <c r="D55" s="203"/>
-      <c r="E55" s="229"/>
-      <c r="F55" s="149"/>
+      <c r="A55" s="122"/>
+      <c r="B55" s="87"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="126"/>
+      <c r="E55" s="110"/>
+      <c r="F55" s="131"/>
       <c r="G55" s="54"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
@@ -7404,16 +7402,16 @@
       <c r="BP55" s="3"/>
     </row>
     <row r="56" spans="1:68" ht="12" customHeight="1">
-      <c r="A56" s="198">
+      <c r="A56" s="121">
         <v>24</v>
       </c>
-      <c r="B56" s="186"/>
-      <c r="C56" s="202"/>
-      <c r="D56" s="203"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="125"/>
+      <c r="D56" s="126"/>
       <c r="E56" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="F56" s="227"/>
+      <c r="F56" s="123"/>
       <c r="G56" s="53"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
@@ -7432,7 +7430,7 @@
       <c r="V56" s="10"/>
       <c r="W56" s="10"/>
       <c r="X56" s="10"/>
-      <c r="Y56" s="226"/>
+      <c r="Y56" s="108"/>
       <c r="Z56" s="17"/>
       <c r="AA56" s="23"/>
       <c r="AB56" s="10"/>
@@ -7480,12 +7478,12 @@
       <c r="BP56" s="3"/>
     </row>
     <row r="57" spans="1:68" ht="12" customHeight="1">
-      <c r="A57" s="199"/>
-      <c r="B57" s="186"/>
-      <c r="C57" s="204"/>
-      <c r="D57" s="205"/>
+      <c r="A57" s="122"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="128"/>
       <c r="E57" s="84"/>
-      <c r="F57" s="98"/>
+      <c r="F57" s="124"/>
       <c r="G57" s="57"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
@@ -7550,18 +7548,18 @@
       <c r="BP57" s="3"/>
     </row>
     <row r="58" spans="1:68" ht="12" customHeight="1">
-      <c r="A58" s="198">
+      <c r="A58" s="121">
         <v>25</v>
       </c>
-      <c r="B58" s="186"/>
-      <c r="C58" s="202" t="s">
+      <c r="B58" s="87"/>
+      <c r="C58" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="203"/>
+      <c r="D58" s="126"/>
       <c r="E58" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="F58" s="97"/>
+      <c r="F58" s="177"/>
       <c r="G58" s="40"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -7628,12 +7626,12 @@
       <c r="BP58" s="3"/>
     </row>
     <row r="59" spans="1:68" ht="12" customHeight="1">
-      <c r="A59" s="199"/>
-      <c r="B59" s="186"/>
-      <c r="C59" s="202"/>
-      <c r="D59" s="203"/>
-      <c r="E59" s="229"/>
-      <c r="F59" s="149"/>
+      <c r="A59" s="122"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="125"/>
+      <c r="D59" s="126"/>
+      <c r="E59" s="110"/>
+      <c r="F59" s="131"/>
       <c r="G59" s="54"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -7698,16 +7696,16 @@
       <c r="BP59" s="3"/>
     </row>
     <row r="60" spans="1:68" ht="12" customHeight="1">
-      <c r="A60" s="198">
+      <c r="A60" s="121">
         <v>25</v>
       </c>
-      <c r="B60" s="186"/>
-      <c r="C60" s="202"/>
-      <c r="D60" s="203"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="126"/>
       <c r="E60" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="F60" s="227"/>
+      <c r="F60" s="123"/>
       <c r="G60" s="53"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
@@ -7726,7 +7724,7 @@
       <c r="V60" s="10"/>
       <c r="W60" s="10"/>
       <c r="X60" s="10"/>
-      <c r="Y60" s="226"/>
+      <c r="Y60" s="108"/>
       <c r="Z60" s="17"/>
       <c r="AA60" s="23"/>
       <c r="AB60" s="10"/>
@@ -7774,12 +7772,12 @@
       <c r="BP60" s="3"/>
     </row>
     <row r="61" spans="1:68" ht="12" customHeight="1">
-      <c r="A61" s="199"/>
-      <c r="B61" s="187"/>
-      <c r="C61" s="204"/>
-      <c r="D61" s="205"/>
+      <c r="A61" s="122"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="127"/>
+      <c r="D61" s="128"/>
       <c r="E61" s="84"/>
-      <c r="F61" s="98"/>
+      <c r="F61" s="124"/>
       <c r="G61" s="57"/>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
@@ -7794,7 +7792,7 @@
       <c r="R61" s="8"/>
       <c r="S61" s="14"/>
       <c r="T61" s="20"/>
-      <c r="U61" s="225"/>
+      <c r="U61" s="107"/>
       <c r="V61" s="8"/>
       <c r="W61" s="8"/>
       <c r="X61" s="8"/>
@@ -7844,16 +7842,16 @@
       <c r="BP61" s="3"/>
     </row>
     <row r="62" spans="1:68" s="3" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A62" s="197">
+      <c r="A62" s="180">
         <v>26</v>
       </c>
-      <c r="B62" s="186" t="s">
+      <c r="B62" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="107"/>
-      <c r="D62" s="195"/>
-      <c r="E62" s="108"/>
-      <c r="F62" s="93"/>
+      <c r="C62" s="133"/>
+      <c r="D62" s="134"/>
+      <c r="E62" s="135"/>
+      <c r="F62" s="151"/>
       <c r="G62" s="40"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
@@ -7914,15 +7912,15 @@
       <c r="BL62" s="42"/>
       <c r="BM62" s="42"/>
       <c r="BN62" s="42"/>
-      <c r="BO62" s="188"/>
+      <c r="BO62" s="89"/>
     </row>
     <row r="63" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A63" s="88"/>
-      <c r="B63" s="187"/>
-      <c r="C63" s="109"/>
-      <c r="D63" s="196"/>
-      <c r="E63" s="110"/>
-      <c r="F63" s="104"/>
+      <c r="A63" s="148"/>
+      <c r="B63" s="88"/>
+      <c r="C63" s="136"/>
+      <c r="D63" s="137"/>
+      <c r="E63" s="138"/>
+      <c r="F63" s="157"/>
       <c r="G63" s="56"/>
       <c r="H63" s="45"/>
       <c r="I63" s="45"/>
@@ -7937,7 +7935,7 @@
       <c r="R63" s="45"/>
       <c r="S63" s="46"/>
       <c r="T63" s="47"/>
-      <c r="U63" s="225"/>
+      <c r="U63" s="107"/>
       <c r="V63" s="45"/>
       <c r="W63" s="45"/>
       <c r="X63" s="45"/>
@@ -7986,8 +7984,8 @@
       <c r="BO63" s="66"/>
     </row>
     <row r="64" spans="1:68">
-      <c r="C64" s="99"/>
-      <c r="D64" s="100"/>
+      <c r="C64" s="175"/>
+      <c r="D64" s="176"/>
       <c r="E64" s="84"/>
       <c r="AD64" s="6"/>
       <c r="AE64" s="6"/>
@@ -8006,8 +8004,8 @@
       <c r="B65" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="100"/>
-      <c r="D65" s="100"/>
+      <c r="C65" s="176"/>
+      <c r="D65" s="176"/>
       <c r="E65" s="84"/>
     </row>
     <row r="66" spans="1:5">
@@ -8029,27 +8027,59 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="C1:E3"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="C58:D61"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="C54:D57"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="C50:D53"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="C42:D45"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="C46:D49"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B16:B27"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="AK1:BN1"/>
     <mergeCell ref="F32:F33"/>
     <mergeCell ref="C18:D19"/>
@@ -8074,62 +8104,30 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="C1:E3"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="C58:D61"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="C54:D57"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="C50:D53"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="C42:D45"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="C46:D49"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B16:B27"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -8173,63 +8171,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="10.5" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="121"/>
-      <c r="E1" s="135" t="s">
+      <c r="D1" s="114"/>
+      <c r="E1" s="228" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="111">
+      <c r="G1" s="139">
         <v>45078</v>
       </c>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="112"/>
-      <c r="AG1" s="112"/>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="112"/>
-      <c r="AJ1" s="113"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="140"/>
+      <c r="T1" s="140"/>
+      <c r="U1" s="140"/>
+      <c r="V1" s="140"/>
+      <c r="W1" s="140"/>
+      <c r="X1" s="140"/>
+      <c r="Y1" s="140"/>
+      <c r="Z1" s="140"/>
+      <c r="AA1" s="140"/>
+      <c r="AB1" s="140"/>
+      <c r="AC1" s="140"/>
+      <c r="AD1" s="140"/>
+      <c r="AE1" s="140"/>
+      <c r="AF1" s="140"/>
+      <c r="AG1" s="140"/>
+      <c r="AH1" s="140"/>
+      <c r="AI1" s="140"/>
+      <c r="AJ1" s="158"/>
       <c r="AK1" s="3"/>
     </row>
     <row r="2" spans="1:37" ht="10.5" customHeight="1">
-      <c r="A2" s="115"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="127"/>
+      <c r="A2" s="161"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="167"/>
       <c r="G2" s="49">
         <v>42156</v>
       </c>
@@ -8323,12 +8321,12 @@
       <c r="AK2" s="3"/>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="116"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="128"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="168"/>
       <c r="G3" s="51" t="s">
         <v>37</v>
       </c>
@@ -8422,20 +8420,20 @@
       <c r="AK3" s="48"/>
     </row>
     <row r="4" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="143">
+      <c r="A4" s="217">
         <v>1</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="218" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="146" t="s">
+      <c r="D4" s="219"/>
+      <c r="E4" s="220" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="148"/>
+      <c r="F4" s="222"/>
       <c r="G4" s="52"/>
       <c r="H4" s="11"/>
       <c r="I4" s="13"/>
@@ -8464,20 +8462,20 @@
       <c r="AF4" s="11"/>
       <c r="AG4" s="11"/>
       <c r="AH4" s="11"/>
-      <c r="AI4" s="138" t="s">
+      <c r="AI4" s="212" t="s">
         <v>39</v>
       </c>
-      <c r="AJ4" s="138" t="s">
+      <c r="AJ4" s="212" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A5" s="88"/>
+      <c r="A5" s="148"/>
       <c r="B5" s="35"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="149"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="131"/>
       <c r="G5" s="53"/>
       <c r="H5" s="10"/>
       <c r="I5" s="17"/>
@@ -8506,22 +8504,22 @@
       <c r="AF5" s="10"/>
       <c r="AG5" s="10"/>
       <c r="AH5" s="10"/>
-      <c r="AI5" s="139"/>
-      <c r="AJ5" s="139"/>
+      <c r="AI5" s="213"/>
+      <c r="AJ5" s="213"/>
     </row>
     <row r="6" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="87">
+      <c r="A6" s="147">
         <v>2</v>
       </c>
       <c r="B6" s="35"/>
-      <c r="C6" s="129" t="s">
+      <c r="C6" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="90"/>
-      <c r="E6" s="141" t="s">
+      <c r="D6" s="144"/>
+      <c r="E6" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="132"/>
+      <c r="F6" s="169"/>
       <c r="G6" s="54"/>
       <c r="H6" s="8"/>
       <c r="I6" s="14"/>
@@ -8550,16 +8548,16 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
-      <c r="AI6" s="139"/>
-      <c r="AJ6" s="139"/>
+      <c r="AI6" s="213"/>
+      <c r="AJ6" s="213"/>
     </row>
     <row r="7" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="88"/>
+      <c r="A7" s="148"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="98"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="124"/>
       <c r="G7" s="55"/>
       <c r="H7" s="25"/>
       <c r="I7" s="26"/>
@@ -8588,24 +8586,24 @@
       <c r="AF7" s="25"/>
       <c r="AG7" s="25"/>
       <c r="AH7" s="25"/>
-      <c r="AI7" s="139"/>
-      <c r="AJ7" s="139"/>
+      <c r="AI7" s="213"/>
+      <c r="AJ7" s="213"/>
     </row>
     <row r="8" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="150">
+      <c r="A8" s="195">
         <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="108"/>
-      <c r="E8" s="152" t="s">
+      <c r="D8" s="135"/>
+      <c r="E8" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="93"/>
+      <c r="F8" s="151"/>
       <c r="G8" s="40"/>
       <c r="H8" s="7"/>
       <c r="I8" s="16"/>
@@ -8634,16 +8632,16 @@
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
-      <c r="AI8" s="139"/>
-      <c r="AJ8" s="139"/>
+      <c r="AI8" s="213"/>
+      <c r="AJ8" s="213"/>
     </row>
     <row r="9" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="151"/>
+      <c r="A9" s="196"/>
       <c r="B9" s="38"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="104"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="157"/>
       <c r="G9" s="56"/>
       <c r="H9" s="45"/>
       <c r="I9" s="46"/>
@@ -8672,24 +8670,24 @@
       <c r="AF9" s="45"/>
       <c r="AG9" s="45"/>
       <c r="AH9" s="45"/>
-      <c r="AI9" s="139"/>
-      <c r="AJ9" s="139"/>
+      <c r="AI9" s="213"/>
+      <c r="AJ9" s="213"/>
     </row>
     <row r="10" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="154">
+      <c r="A10" s="205">
         <v>4</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="155" t="s">
+      <c r="C10" s="224" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="156"/>
-      <c r="E10" s="159" t="s">
+      <c r="D10" s="225"/>
+      <c r="E10" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="161"/>
+      <c r="F10" s="172"/>
       <c r="G10" s="53"/>
       <c r="H10" s="10"/>
       <c r="I10" s="17"/>
@@ -8718,16 +8716,16 @@
       <c r="AF10" s="10"/>
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
-      <c r="AI10" s="139"/>
-      <c r="AJ10" s="139"/>
+      <c r="AI10" s="213"/>
+      <c r="AJ10" s="213"/>
     </row>
     <row r="11" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A11" s="151"/>
+      <c r="A11" s="196"/>
       <c r="B11" s="37"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="94"/>
+      <c r="C11" s="210"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="198"/>
+      <c r="F11" s="142"/>
       <c r="G11" s="53"/>
       <c r="H11" s="10"/>
       <c r="I11" s="17"/>
@@ -8756,22 +8754,22 @@
       <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
-      <c r="AI11" s="139"/>
-      <c r="AJ11" s="139"/>
+      <c r="AI11" s="213"/>
+      <c r="AJ11" s="213"/>
     </row>
     <row r="12" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A12" s="150">
+      <c r="A12" s="195">
         <v>5</v>
       </c>
       <c r="B12" s="37"/>
-      <c r="C12" s="162" t="s">
+      <c r="C12" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="163"/>
-      <c r="E12" s="164" t="s">
+      <c r="D12" s="209"/>
+      <c r="E12" s="197" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="103"/>
+      <c r="F12" s="141"/>
       <c r="G12" s="54"/>
       <c r="H12" s="8"/>
       <c r="I12" s="14"/>
@@ -8800,16 +8798,16 @@
       <c r="AF12" s="8"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
-      <c r="AI12" s="139"/>
-      <c r="AJ12" s="139"/>
+      <c r="AI12" s="213"/>
+      <c r="AJ12" s="213"/>
     </row>
     <row r="13" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A13" s="151"/>
+      <c r="A13" s="196"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="157"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="94"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="211"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="142"/>
       <c r="G13" s="54"/>
       <c r="H13" s="8"/>
       <c r="I13" s="14"/>
@@ -8838,22 +8836,22 @@
       <c r="AF13" s="8"/>
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="139"/>
-      <c r="AJ13" s="139"/>
+      <c r="AI13" s="213"/>
+      <c r="AJ13" s="213"/>
     </row>
     <row r="14" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A14" s="150">
+      <c r="A14" s="195">
         <v>6</v>
       </c>
       <c r="B14" s="37"/>
-      <c r="C14" s="129" t="s">
+      <c r="C14" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="167" t="s">
+      <c r="D14" s="144"/>
+      <c r="E14" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="103"/>
+      <c r="F14" s="141"/>
       <c r="G14" s="54"/>
       <c r="H14" s="8"/>
       <c r="I14" s="14"/>
@@ -8882,16 +8880,16 @@
       <c r="AF14" s="8"/>
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
-      <c r="AI14" s="139"/>
-      <c r="AJ14" s="139"/>
+      <c r="AI14" s="213"/>
+      <c r="AJ14" s="213"/>
     </row>
     <row r="15" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A15" s="154"/>
+      <c r="A15" s="205"/>
       <c r="B15" s="37"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="161"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="172"/>
       <c r="G15" s="55"/>
       <c r="H15" s="25"/>
       <c r="I15" s="26"/>
@@ -8920,24 +8918,24 @@
       <c r="AF15" s="25"/>
       <c r="AG15" s="25"/>
       <c r="AH15" s="25"/>
-      <c r="AI15" s="139"/>
-      <c r="AJ15" s="139"/>
+      <c r="AI15" s="213"/>
+      <c r="AJ15" s="213"/>
     </row>
     <row r="16" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="168">
+      <c r="A16" s="203">
         <v>7</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="133" t="s">
+      <c r="C16" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="134"/>
-      <c r="E16" s="169" t="s">
+      <c r="D16" s="150"/>
+      <c r="E16" s="202" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="93"/>
+      <c r="F16" s="151"/>
       <c r="G16" s="40"/>
       <c r="H16" s="7"/>
       <c r="I16" s="16"/>
@@ -8966,16 +8964,16 @@
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
-      <c r="AI16" s="139"/>
-      <c r="AJ16" s="139"/>
+      <c r="AI16" s="213"/>
+      <c r="AJ16" s="213"/>
     </row>
     <row r="17" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="168"/>
+      <c r="A17" s="203"/>
       <c r="B17" s="37"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="94"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="142"/>
       <c r="G17" s="55"/>
       <c r="H17" s="25"/>
       <c r="I17" s="26"/>
@@ -9004,22 +9002,22 @@
       <c r="AF17" s="25"/>
       <c r="AG17" s="25"/>
       <c r="AH17" s="25"/>
-      <c r="AI17" s="139"/>
-      <c r="AJ17" s="139"/>
+      <c r="AI17" s="213"/>
+      <c r="AJ17" s="213"/>
     </row>
     <row r="18" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="168">
+      <c r="A18" s="203">
         <v>7</v>
       </c>
       <c r="B18" s="37"/>
-      <c r="C18" s="129" t="s">
+      <c r="C18" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="90"/>
-      <c r="E18" s="164" t="s">
+      <c r="D18" s="144"/>
+      <c r="E18" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="103"/>
+      <c r="F18" s="141"/>
       <c r="G18" s="54"/>
       <c r="H18" s="8"/>
       <c r="I18" s="14"/>
@@ -9048,16 +9046,16 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
-      <c r="AI18" s="139"/>
-      <c r="AJ18" s="139"/>
+      <c r="AI18" s="213"/>
+      <c r="AJ18" s="213"/>
     </row>
     <row r="19" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="168"/>
+      <c r="A19" s="203"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="94"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="142"/>
       <c r="G19" s="55"/>
       <c r="H19" s="25"/>
       <c r="I19" s="26"/>
@@ -9086,22 +9084,22 @@
       <c r="AF19" s="25"/>
       <c r="AG19" s="25"/>
       <c r="AH19" s="25"/>
-      <c r="AI19" s="139"/>
-      <c r="AJ19" s="139"/>
+      <c r="AI19" s="213"/>
+      <c r="AJ19" s="213"/>
     </row>
     <row r="20" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="168">
+      <c r="A20" s="203">
         <v>8</v>
       </c>
       <c r="B20" s="37"/>
-      <c r="C20" s="129" t="s">
+      <c r="C20" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="90"/>
-      <c r="E20" s="164" t="s">
+      <c r="D20" s="144"/>
+      <c r="E20" s="197" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="103"/>
+      <c r="F20" s="141"/>
       <c r="G20" s="55"/>
       <c r="H20" s="25"/>
       <c r="I20" s="26"/>
@@ -9130,16 +9128,16 @@
       <c r="AF20" s="25"/>
       <c r="AG20" s="25"/>
       <c r="AH20" s="25"/>
-      <c r="AI20" s="139"/>
-      <c r="AJ20" s="139"/>
+      <c r="AI20" s="213"/>
+      <c r="AJ20" s="213"/>
     </row>
     <row r="21" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="168"/>
+      <c r="A21" s="203"/>
       <c r="B21" s="38"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="104"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="204"/>
+      <c r="F21" s="157"/>
       <c r="G21" s="57"/>
       <c r="H21" s="9"/>
       <c r="I21" s="18"/>
@@ -9168,24 +9166,24 @@
       <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
       <c r="AH21" s="9"/>
-      <c r="AI21" s="139"/>
-      <c r="AJ21" s="139"/>
+      <c r="AI21" s="213"/>
+      <c r="AJ21" s="213"/>
     </row>
     <row r="22" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="150">
+      <c r="A22" s="195">
         <v>9</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="133" t="s">
+      <c r="C22" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="134"/>
-      <c r="E22" s="169" t="s">
+      <c r="D22" s="150"/>
+      <c r="E22" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="93"/>
+      <c r="F22" s="151"/>
       <c r="G22" s="40"/>
       <c r="H22" s="7"/>
       <c r="I22" s="16"/>
@@ -9214,16 +9212,16 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
-      <c r="AI22" s="139"/>
-      <c r="AJ22" s="139"/>
+      <c r="AI22" s="213"/>
+      <c r="AJ22" s="213"/>
     </row>
     <row r="23" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="151"/>
+      <c r="A23" s="196"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="94"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="142"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="14"/>
@@ -9252,22 +9250,22 @@
       <c r="AF23" s="8"/>
       <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="139"/>
-      <c r="AJ23" s="139"/>
+      <c r="AI23" s="213"/>
+      <c r="AJ23" s="213"/>
     </row>
     <row r="24" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="150">
+      <c r="A24" s="195">
         <v>10</v>
       </c>
       <c r="B24" s="37"/>
-      <c r="C24" s="89" t="s">
+      <c r="C24" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="90"/>
-      <c r="E24" s="164" t="s">
+      <c r="D24" s="144"/>
+      <c r="E24" s="197" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="103"/>
+      <c r="F24" s="141"/>
       <c r="G24" s="54"/>
       <c r="H24" s="8"/>
       <c r="I24" s="14"/>
@@ -9296,16 +9294,16 @@
       <c r="AF24" s="8"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
-      <c r="AI24" s="139"/>
-      <c r="AJ24" s="139"/>
+      <c r="AI24" s="213"/>
+      <c r="AJ24" s="213"/>
     </row>
     <row r="25" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A25" s="151"/>
+      <c r="A25" s="196"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="160"/>
-      <c r="F25" s="94"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="198"/>
+      <c r="F25" s="142"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="14"/>
@@ -9334,22 +9332,22 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
-      <c r="AI25" s="139"/>
-      <c r="AJ25" s="139"/>
+      <c r="AI25" s="213"/>
+      <c r="AJ25" s="213"/>
     </row>
     <row r="26" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A26" s="150">
+      <c r="A26" s="195">
         <v>12</v>
       </c>
       <c r="B26" s="37"/>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="90"/>
-      <c r="E26" s="164" t="s">
+      <c r="D26" s="144"/>
+      <c r="E26" s="197" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="103"/>
+      <c r="F26" s="141"/>
       <c r="G26" s="55"/>
       <c r="H26" s="25"/>
       <c r="I26" s="26"/>
@@ -9378,16 +9376,16 @@
       <c r="AF26" s="25"/>
       <c r="AG26" s="25"/>
       <c r="AH26" s="25"/>
-      <c r="AI26" s="139"/>
-      <c r="AJ26" s="139"/>
+      <c r="AI26" s="213"/>
+      <c r="AJ26" s="213"/>
     </row>
     <row r="27" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="151"/>
+      <c r="A27" s="196"/>
       <c r="B27" s="38"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="104"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="198"/>
+      <c r="F27" s="157"/>
       <c r="G27" s="57"/>
       <c r="H27" s="9"/>
       <c r="I27" s="18"/>
@@ -9416,24 +9414,24 @@
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
       <c r="AH27" s="9"/>
-      <c r="AI27" s="139"/>
-      <c r="AJ27" s="139"/>
+      <c r="AI27" s="213"/>
+      <c r="AJ27" s="213"/>
     </row>
     <row r="28" spans="1:37" ht="12" customHeight="1">
-      <c r="A28" s="87">
+      <c r="A28" s="147">
         <v>13</v>
       </c>
       <c r="B28" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="170" t="s">
+      <c r="C28" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="171"/>
-      <c r="E28" s="174" t="s">
+      <c r="D28" s="200"/>
+      <c r="E28" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="101"/>
+      <c r="F28" s="178"/>
       <c r="G28" s="40"/>
       <c r="H28" s="7"/>
       <c r="I28" s="16"/>
@@ -9462,17 +9460,17 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
-      <c r="AI28" s="139"/>
-      <c r="AJ28" s="139"/>
+      <c r="AI28" s="213"/>
+      <c r="AJ28" s="213"/>
       <c r="AK28" s="3"/>
     </row>
     <row r="29" spans="1:37" ht="12" customHeight="1">
-      <c r="A29" s="88"/>
+      <c r="A29" s="148"/>
       <c r="B29" s="35"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="176"/>
+      <c r="C29" s="183"/>
+      <c r="D29" s="184"/>
+      <c r="E29" s="187"/>
+      <c r="F29" s="179"/>
       <c r="G29" s="54"/>
       <c r="H29" s="8"/>
       <c r="I29" s="14"/>
@@ -9501,23 +9499,23 @@
       <c r="AF29" s="8"/>
       <c r="AG29" s="8"/>
       <c r="AH29" s="8"/>
-      <c r="AI29" s="139"/>
-      <c r="AJ29" s="139"/>
+      <c r="AI29" s="213"/>
+      <c r="AJ29" s="213"/>
       <c r="AK29" s="3"/>
     </row>
     <row r="30" spans="1:37" ht="12" customHeight="1">
-      <c r="A30" s="87">
+      <c r="A30" s="147">
         <v>14</v>
       </c>
       <c r="B30" s="35"/>
-      <c r="C30" s="172" t="s">
+      <c r="C30" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="173"/>
-      <c r="E30" s="175" t="s">
+      <c r="D30" s="184"/>
+      <c r="E30" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="176"/>
+      <c r="F30" s="179"/>
       <c r="G30" s="54"/>
       <c r="H30" s="8"/>
       <c r="I30" s="14"/>
@@ -9546,17 +9544,17 @@
       <c r="AF30" s="8"/>
       <c r="AG30" s="8"/>
       <c r="AH30" s="8"/>
-      <c r="AI30" s="139"/>
-      <c r="AJ30" s="139"/>
+      <c r="AI30" s="213"/>
+      <c r="AJ30" s="213"/>
       <c r="AK30" s="3"/>
     </row>
     <row r="31" spans="1:37" ht="12" customHeight="1">
-      <c r="A31" s="88"/>
+      <c r="A31" s="148"/>
       <c r="B31" s="39"/>
-      <c r="C31" s="177"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="102"/>
+      <c r="C31" s="185"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="132"/>
       <c r="G31" s="57"/>
       <c r="H31" s="9"/>
       <c r="I31" s="18"/>
@@ -9585,25 +9583,25 @@
       <c r="AF31" s="9"/>
       <c r="AG31" s="9"/>
       <c r="AH31" s="9"/>
-      <c r="AI31" s="139"/>
-      <c r="AJ31" s="139"/>
+      <c r="AI31" s="213"/>
+      <c r="AJ31" s="213"/>
       <c r="AK31" s="3"/>
     </row>
     <row r="32" spans="1:37" ht="12" customHeight="1">
-      <c r="A32" s="87">
+      <c r="A32" s="147">
         <v>15</v>
       </c>
-      <c r="B32" s="181" t="s">
+      <c r="B32" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="133" t="s">
+      <c r="C32" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="134"/>
-      <c r="E32" s="181" t="s">
+      <c r="D32" s="150"/>
+      <c r="E32" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="97"/>
+      <c r="F32" s="177"/>
       <c r="G32" s="40"/>
       <c r="H32" s="7"/>
       <c r="I32" s="16"/>
@@ -9632,17 +9630,17 @@
       <c r="AF32" s="42"/>
       <c r="AG32" s="42"/>
       <c r="AH32" s="42"/>
-      <c r="AI32" s="139"/>
-      <c r="AJ32" s="139"/>
+      <c r="AI32" s="213"/>
+      <c r="AJ32" s="213"/>
       <c r="AK32" s="3"/>
     </row>
     <row r="33" spans="1:37" ht="12" customHeight="1" thickBot="1">
-      <c r="A33" s="180"/>
-      <c r="B33" s="182"/>
-      <c r="C33" s="183"/>
-      <c r="D33" s="184"/>
-      <c r="E33" s="182"/>
-      <c r="F33" s="185"/>
+      <c r="A33" s="189"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="192"/>
+      <c r="D33" s="193"/>
+      <c r="E33" s="191"/>
+      <c r="F33" s="194"/>
       <c r="G33" s="41"/>
       <c r="H33" s="12"/>
       <c r="I33" s="15"/>
@@ -9671,8 +9669,8 @@
       <c r="AF33" s="12"/>
       <c r="AG33" s="12"/>
       <c r="AH33" s="12"/>
-      <c r="AI33" s="140"/>
-      <c r="AJ33" s="140"/>
+      <c r="AI33" s="214"/>
+      <c r="AJ33" s="214"/>
       <c r="AK33" s="3"/>
     </row>
     <row r="34" spans="1:37">
@@ -9693,53 +9691,12 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="AJ4:AJ33"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -9756,12 +9713,53 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS_木村優摩.xlsx
+++ b/000-要件定義/003-WBS_木村優摩.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\disstrg\業務処理\戦略本部\01_一般用\Ｊａｖａ選抜研修\新人・強化研修_2025\参加メンバー\強化要員\木村優摩\99_レビュー依頼\000_要件定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\演習プロジェクト\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF42A5E-CF65-4C05-B804-DE7728E21514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CF4B71-323C-42DF-A57A-647AD35F86E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-975" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="78">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -665,14 +665,6 @@
   <si>
     <t>指導員Rv
 100%</t>
-    <rPh sb="0" eb="3">
-      <t>シドウイン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>指導員Rv
-50%</t>
     <rPh sb="0" eb="3">
       <t>シドウイン</t>
     </rPh>
@@ -2044,6 +2036,159 @@
     <xf numFmtId="49" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2071,18 +2216,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2101,93 +2237,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2197,64 +2249,112 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2263,15 +2363,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2292,117 +2395,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3109,10 +3101,10 @@
   <dimension ref="A1:BP67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
+      <selection pane="bottomRight" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3128,94 +3120,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="10.5" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="113"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="166" t="s">
+      <c r="D1" s="164"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="139">
+      <c r="G1" s="153">
         <v>45901</v>
       </c>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="140"/>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140"/>
-      <c r="V1" s="140"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="140"/>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="140"/>
-      <c r="AA1" s="140"/>
-      <c r="AB1" s="140"/>
-      <c r="AC1" s="140"/>
-      <c r="AD1" s="140"/>
-      <c r="AE1" s="140"/>
-      <c r="AF1" s="140"/>
-      <c r="AG1" s="140"/>
-      <c r="AH1" s="140"/>
-      <c r="AI1" s="140"/>
-      <c r="AJ1" s="158"/>
-      <c r="AK1" s="139">
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="154"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="154"/>
+      <c r="S1" s="154"/>
+      <c r="T1" s="154"/>
+      <c r="U1" s="154"/>
+      <c r="V1" s="154"/>
+      <c r="W1" s="154"/>
+      <c r="X1" s="154"/>
+      <c r="Y1" s="154"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="154"/>
+      <c r="AB1" s="154"/>
+      <c r="AC1" s="154"/>
+      <c r="AD1" s="154"/>
+      <c r="AE1" s="154"/>
+      <c r="AF1" s="154"/>
+      <c r="AG1" s="154"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="154"/>
+      <c r="AJ1" s="162"/>
+      <c r="AK1" s="153">
         <v>45931</v>
       </c>
-      <c r="AL1" s="140"/>
-      <c r="AM1" s="140"/>
-      <c r="AN1" s="140"/>
-      <c r="AO1" s="140"/>
-      <c r="AP1" s="140"/>
-      <c r="AQ1" s="140"/>
-      <c r="AR1" s="140"/>
-      <c r="AS1" s="140"/>
-      <c r="AT1" s="140"/>
-      <c r="AU1" s="140"/>
-      <c r="AV1" s="140"/>
-      <c r="AW1" s="140"/>
-      <c r="AX1" s="140"/>
-      <c r="AY1" s="140"/>
-      <c r="AZ1" s="140"/>
-      <c r="BA1" s="140"/>
-      <c r="BB1" s="140"/>
-      <c r="BC1" s="140"/>
-      <c r="BD1" s="140"/>
-      <c r="BE1" s="140"/>
-      <c r="BF1" s="140"/>
-      <c r="BG1" s="140"/>
-      <c r="BH1" s="140"/>
-      <c r="BI1" s="140"/>
-      <c r="BJ1" s="140"/>
-      <c r="BK1" s="140"/>
-      <c r="BL1" s="140"/>
-      <c r="BM1" s="140"/>
-      <c r="BN1" s="140"/>
+      <c r="AL1" s="154"/>
+      <c r="AM1" s="154"/>
+      <c r="AN1" s="154"/>
+      <c r="AO1" s="154"/>
+      <c r="AP1" s="154"/>
+      <c r="AQ1" s="154"/>
+      <c r="AR1" s="154"/>
+      <c r="AS1" s="154"/>
+      <c r="AT1" s="154"/>
+      <c r="AU1" s="154"/>
+      <c r="AV1" s="154"/>
+      <c r="AW1" s="154"/>
+      <c r="AX1" s="154"/>
+      <c r="AY1" s="154"/>
+      <c r="AZ1" s="154"/>
+      <c r="BA1" s="154"/>
+      <c r="BB1" s="154"/>
+      <c r="BC1" s="154"/>
+      <c r="BD1" s="154"/>
+      <c r="BE1" s="154"/>
+      <c r="BF1" s="154"/>
+      <c r="BG1" s="154"/>
+      <c r="BH1" s="154"/>
+      <c r="BI1" s="154"/>
+      <c r="BJ1" s="154"/>
+      <c r="BK1" s="154"/>
+      <c r="BL1" s="154"/>
+      <c r="BM1" s="154"/>
+      <c r="BN1" s="154"/>
       <c r="BO1" s="68"/>
       <c r="BP1" s="3"/>
     </row>
     <row r="2" spans="1:68" ht="10.5" customHeight="1">
-      <c r="A2" s="161"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="167"/>
+      <c r="A2" s="181"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="150"/>
       <c r="G2" s="49">
         <v>42156</v>
       </c>
@@ -3402,12 +3394,12 @@
       <c r="BP2" s="3"/>
     </row>
     <row r="3" spans="1:68" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A3" s="162"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="168"/>
+      <c r="A3" s="182"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="151"/>
       <c r="G3" s="51" t="s">
         <v>43</v>
       </c>
@@ -3594,18 +3586,18 @@
       <c r="BP3" s="48"/>
     </row>
     <row r="4" spans="1:68" s="3" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A4" s="147">
+      <c r="A4" s="122">
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="152" t="s">
+      <c r="C4" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="153"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="231" t="s">
+      <c r="D4" s="158"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="139" t="s">
         <v>77</v>
       </c>
       <c r="G4" s="95"/>
@@ -3673,12 +3665,12 @@
       <c r="BO4" s="63"/>
     </row>
     <row r="5" spans="1:68" s="3" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A5" s="148"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="35"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="124"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="140"/>
       <c r="G5" s="96"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
@@ -3742,7 +3734,7 @@
       <c r="BO5" s="64"/>
     </row>
     <row r="6" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="147">
+      <c r="A6" s="122">
         <v>2</v>
       </c>
       <c r="B6" s="36" t="s">
@@ -3753,8 +3745,8 @@
       </c>
       <c r="D6" s="134"/>
       <c r="E6" s="135"/>
-      <c r="F6" s="159" t="s">
-        <v>78</v>
+      <c r="F6" s="152" t="s">
+        <v>77</v>
       </c>
       <c r="G6" s="40"/>
       <c r="H6" s="7"/>
@@ -3821,12 +3813,12 @@
       <c r="BO6" s="65"/>
     </row>
     <row r="7" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="148"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="38"/>
       <c r="C7" s="136"/>
       <c r="D7" s="137"/>
       <c r="E7" s="138"/>
-      <c r="F7" s="157"/>
+      <c r="F7" s="132"/>
       <c r="G7" s="56"/>
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
@@ -3837,8 +3829,8 @@
       <c r="N7" s="73"/>
       <c r="O7" s="73"/>
       <c r="P7" s="73"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
       <c r="S7" s="46"/>
       <c r="T7" s="47"/>
       <c r="U7" s="71"/>
@@ -3890,7 +3882,7 @@
       <c r="BO7" s="66"/>
     </row>
     <row r="8" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="147">
+      <c r="A8" s="122">
         <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
@@ -3901,7 +3893,7 @@
       </c>
       <c r="D8" s="134"/>
       <c r="E8" s="135"/>
-      <c r="F8" s="231" t="s">
+      <c r="F8" s="139" t="s">
         <v>77</v>
       </c>
       <c r="G8" s="40"/>
@@ -3969,12 +3961,12 @@
       <c r="BO8" s="65"/>
     </row>
     <row r="9" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="148"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="38"/>
       <c r="C9" s="136"/>
       <c r="D9" s="137"/>
       <c r="E9" s="138"/>
-      <c r="F9" s="124"/>
+      <c r="F9" s="140"/>
       <c r="G9" s="56"/>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
@@ -4038,7 +4030,7 @@
       <c r="BO9" s="66"/>
     </row>
     <row r="10" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A10" s="147">
+      <c r="A10" s="122">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
@@ -4049,7 +4041,7 @@
       </c>
       <c r="D10" s="134"/>
       <c r="E10" s="135"/>
-      <c r="F10" s="231" t="s">
+      <c r="F10" s="139" t="s">
         <v>77</v>
       </c>
       <c r="G10" s="40"/>
@@ -4117,12 +4109,12 @@
       <c r="BO10" s="65"/>
     </row>
     <row r="11" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A11" s="148"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="38"/>
       <c r="C11" s="136"/>
       <c r="D11" s="137"/>
       <c r="E11" s="138"/>
-      <c r="F11" s="124"/>
+      <c r="F11" s="140"/>
       <c r="G11" s="56"/>
       <c r="H11" s="83"/>
       <c r="I11" s="83"/>
@@ -4186,7 +4178,7 @@
       <c r="BO11" s="66"/>
     </row>
     <row r="12" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A12" s="147">
+      <c r="A12" s="122">
         <v>5</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -4197,7 +4189,7 @@
       </c>
       <c r="D12" s="134"/>
       <c r="E12" s="135"/>
-      <c r="F12" s="231" t="s">
+      <c r="F12" s="139" t="s">
         <v>77</v>
       </c>
       <c r="G12" s="40"/>
@@ -4265,12 +4257,12 @@
       <c r="BO12" s="65"/>
     </row>
     <row r="13" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A13" s="148"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="38"/>
       <c r="C13" s="136"/>
       <c r="D13" s="137"/>
       <c r="E13" s="138"/>
-      <c r="F13" s="124"/>
+      <c r="F13" s="140"/>
       <c r="G13" s="56"/>
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
@@ -4334,7 +4326,7 @@
       <c r="BO13" s="66"/>
     </row>
     <row r="14" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A14" s="147">
+      <c r="A14" s="122">
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
@@ -4345,7 +4337,7 @@
       </c>
       <c r="D14" s="134"/>
       <c r="E14" s="135"/>
-      <c r="F14" s="151" t="s">
+      <c r="F14" s="131" t="s">
         <v>76</v>
       </c>
       <c r="G14" s="40"/>
@@ -4413,12 +4405,12 @@
       <c r="BO14" s="65"/>
     </row>
     <row r="15" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A15" s="148"/>
+      <c r="A15" s="123"/>
       <c r="B15" s="38"/>
       <c r="C15" s="136"/>
       <c r="D15" s="137"/>
       <c r="E15" s="138"/>
-      <c r="F15" s="157"/>
+      <c r="F15" s="132"/>
       <c r="G15" s="56"/>
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
@@ -4482,20 +4474,20 @@
       <c r="BO15" s="66"/>
     </row>
     <row r="16" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="147">
+      <c r="A16" s="122">
         <v>7</v>
       </c>
-      <c r="B16" s="181" t="s">
+      <c r="B16" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="143" t="s">
+      <c r="C16" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="144"/>
+      <c r="D16" s="125"/>
       <c r="E16" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="151"/>
+      <c r="F16" s="131"/>
       <c r="G16" s="40"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -4561,12 +4553,12 @@
       <c r="BO16" s="65"/>
     </row>
     <row r="17" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="148"/>
-      <c r="B17" s="181"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="146"/>
+      <c r="A17" s="123"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="127"/>
       <c r="E17" s="90"/>
-      <c r="F17" s="142"/>
+      <c r="F17" s="113"/>
       <c r="G17" s="54"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -4630,18 +4622,18 @@
       <c r="BO17" s="64"/>
     </row>
     <row r="18" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="147">
+      <c r="A18" s="122">
         <v>8</v>
       </c>
-      <c r="B18" s="181"/>
-      <c r="C18" s="143" t="s">
+      <c r="B18" s="114"/>
+      <c r="C18" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="144"/>
+      <c r="D18" s="125"/>
       <c r="E18" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="141"/>
+      <c r="F18" s="143"/>
       <c r="G18" s="53"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -4707,12 +4699,12 @@
       <c r="BO18" s="67"/>
     </row>
     <row r="19" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="148"/>
-      <c r="B19" s="181"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="146"/>
+      <c r="A19" s="123"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="127"/>
       <c r="E19" s="90"/>
-      <c r="F19" s="142"/>
+      <c r="F19" s="113"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -4776,18 +4768,18 @@
       <c r="BO19" s="64"/>
     </row>
     <row r="20" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="147">
+      <c r="A20" s="122">
         <v>9</v>
       </c>
-      <c r="B20" s="181"/>
-      <c r="C20" s="143" t="s">
+      <c r="B20" s="114"/>
+      <c r="C20" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="144"/>
+      <c r="D20" s="125"/>
       <c r="E20" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="141"/>
+      <c r="F20" s="143"/>
       <c r="G20" s="53"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -4853,12 +4845,12 @@
       <c r="BO20" s="67"/>
     </row>
     <row r="21" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="148"/>
-      <c r="B21" s="181"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="127"/>
       <c r="E21" s="90"/>
-      <c r="F21" s="142"/>
+      <c r="F21" s="113"/>
       <c r="G21" s="54"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -4922,18 +4914,18 @@
       <c r="BO21" s="64"/>
     </row>
     <row r="22" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="147">
+      <c r="A22" s="122">
         <v>10</v>
       </c>
-      <c r="B22" s="181"/>
-      <c r="C22" s="143" t="s">
+      <c r="B22" s="114"/>
+      <c r="C22" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="144"/>
+      <c r="D22" s="125"/>
       <c r="E22" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="172"/>
+      <c r="F22" s="112"/>
       <c r="G22" s="53"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -4999,12 +4991,12 @@
       <c r="BO22" s="67"/>
     </row>
     <row r="23" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="148"/>
-      <c r="B23" s="181"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="146"/>
+      <c r="A23" s="123"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="127"/>
       <c r="E23" s="90"/>
-      <c r="F23" s="172"/>
+      <c r="F23" s="112"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5068,18 +5060,18 @@
       <c r="BO23" s="67"/>
     </row>
     <row r="24" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="147">
+      <c r="A24" s="122">
         <v>11</v>
       </c>
-      <c r="B24" s="181"/>
-      <c r="C24" s="143" t="s">
+      <c r="B24" s="114"/>
+      <c r="C24" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="144"/>
+      <c r="D24" s="125"/>
       <c r="E24" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="141"/>
+      <c r="F24" s="143"/>
       <c r="G24" s="53"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -5145,12 +5137,12 @@
       <c r="BO24" s="63"/>
     </row>
     <row r="25" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A25" s="148"/>
-      <c r="B25" s="181"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="146"/>
+      <c r="A25" s="123"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="127"/>
       <c r="E25" s="90"/>
-      <c r="F25" s="142"/>
+      <c r="F25" s="113"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -5214,18 +5206,18 @@
       <c r="BO25" s="67"/>
     </row>
     <row r="26" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A26" s="147">
+      <c r="A26" s="122">
         <v>12</v>
       </c>
-      <c r="B26" s="181"/>
-      <c r="C26" s="143" t="s">
+      <c r="B26" s="114"/>
+      <c r="C26" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="144"/>
+      <c r="D26" s="125"/>
       <c r="E26" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="172"/>
+      <c r="F26" s="112"/>
       <c r="G26" s="53"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -5291,12 +5283,12 @@
       <c r="BO26" s="63"/>
     </row>
     <row r="27" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="148"/>
-      <c r="B27" s="182"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="146"/>
+      <c r="A27" s="123"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="127"/>
       <c r="E27" s="90"/>
-      <c r="F27" s="142"/>
+      <c r="F27" s="113"/>
       <c r="G27" s="55"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
@@ -5360,20 +5352,20 @@
       <c r="BO27" s="64"/>
     </row>
     <row r="28" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A28" s="147">
+      <c r="A28" s="122">
         <v>13</v>
       </c>
       <c r="B28" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="149" t="s">
+      <c r="C28" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="150"/>
+      <c r="D28" s="156"/>
       <c r="E28" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="151"/>
+      <c r="F28" s="131"/>
       <c r="G28" s="40"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -5437,12 +5429,12 @@
       <c r="BO28" s="65"/>
     </row>
     <row r="29" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A29" s="148"/>
+      <c r="A29" s="123"/>
       <c r="B29" s="37"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="146"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="127"/>
       <c r="E29" s="84"/>
-      <c r="F29" s="142"/>
+      <c r="F29" s="113"/>
       <c r="G29" s="54"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -5506,18 +5498,18 @@
       <c r="BO29" s="67"/>
     </row>
     <row r="30" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A30" s="147">
+      <c r="A30" s="122">
         <v>14</v>
       </c>
       <c r="B30" s="37"/>
-      <c r="C30" s="143" t="s">
+      <c r="C30" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="144"/>
+      <c r="D30" s="125"/>
       <c r="E30" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="141"/>
+      <c r="F30" s="143"/>
       <c r="G30" s="54"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -5581,12 +5573,12 @@
       <c r="BO30" s="67"/>
     </row>
     <row r="31" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A31" s="148"/>
-      <c r="B31" s="173"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="146"/>
+      <c r="A31" s="123"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="127"/>
       <c r="E31" s="84"/>
-      <c r="F31" s="142"/>
+      <c r="F31" s="113"/>
       <c r="G31" s="54"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -5650,18 +5642,18 @@
       <c r="BO31" s="67"/>
     </row>
     <row r="32" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A32" s="147">
+      <c r="A32" s="122">
         <v>15</v>
       </c>
-      <c r="B32" s="173"/>
-      <c r="C32" s="143" t="s">
+      <c r="B32" s="144"/>
+      <c r="C32" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="144"/>
+      <c r="D32" s="125"/>
       <c r="E32" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="141"/>
+      <c r="F32" s="143"/>
       <c r="G32" s="55"/>
       <c r="H32" s="76"/>
       <c r="I32" s="76"/>
@@ -5725,12 +5717,12 @@
       <c r="BO32" s="64"/>
     </row>
     <row r="33" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A33" s="148"/>
-      <c r="B33" s="173"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="146"/>
+      <c r="A33" s="123"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="127"/>
       <c r="E33" s="84"/>
-      <c r="F33" s="142"/>
+      <c r="F33" s="113"/>
       <c r="G33" s="54"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -5794,18 +5786,18 @@
       <c r="BO33" s="67"/>
     </row>
     <row r="34" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A34" s="147">
+      <c r="A34" s="122">
         <v>16</v>
       </c>
-      <c r="B34" s="173"/>
-      <c r="C34" s="143" t="s">
+      <c r="B34" s="144"/>
+      <c r="C34" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="144"/>
+      <c r="D34" s="125"/>
       <c r="E34" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="141"/>
+      <c r="F34" s="143"/>
       <c r="G34" s="93"/>
       <c r="H34" s="76"/>
       <c r="I34" s="76"/>
@@ -5869,12 +5861,12 @@
       <c r="BO34" s="104"/>
     </row>
     <row r="35" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A35" s="148"/>
-      <c r="B35" s="173"/>
-      <c r="C35" s="145"/>
-      <c r="D35" s="146"/>
+      <c r="A35" s="123"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="127"/>
       <c r="E35" s="110"/>
-      <c r="F35" s="142"/>
+      <c r="F35" s="113"/>
       <c r="G35" s="54"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -5938,18 +5930,18 @@
       <c r="BO35" s="67"/>
     </row>
     <row r="36" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A36" s="147">
+      <c r="A36" s="122">
         <v>17</v>
       </c>
-      <c r="B36" s="173"/>
-      <c r="C36" s="143" t="s">
+      <c r="B36" s="144"/>
+      <c r="C36" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="144"/>
+      <c r="D36" s="125"/>
       <c r="E36" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="172"/>
+      <c r="F36" s="112"/>
       <c r="G36" s="93"/>
       <c r="H36" s="76"/>
       <c r="I36" s="76"/>
@@ -6013,12 +6005,12 @@
       <c r="BO36" s="104"/>
     </row>
     <row r="37" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A37" s="148"/>
-      <c r="B37" s="173"/>
-      <c r="C37" s="145"/>
-      <c r="D37" s="146"/>
+      <c r="A37" s="123"/>
+      <c r="B37" s="144"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="127"/>
       <c r="E37" s="110"/>
-      <c r="F37" s="142"/>
+      <c r="F37" s="113"/>
       <c r="G37" s="54"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -6082,18 +6074,18 @@
       <c r="BO37" s="67"/>
     </row>
     <row r="38" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A38" s="147">
+      <c r="A38" s="122">
         <v>18</v>
       </c>
-      <c r="B38" s="173"/>
-      <c r="C38" s="143" t="s">
+      <c r="B38" s="144"/>
+      <c r="C38" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="144"/>
+      <c r="D38" s="125"/>
       <c r="E38" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="141"/>
+      <c r="F38" s="143"/>
       <c r="G38" s="93"/>
       <c r="H38" s="76"/>
       <c r="I38" s="76"/>
@@ -6157,12 +6149,12 @@
       <c r="BO38" s="104"/>
     </row>
     <row r="39" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A39" s="148"/>
-      <c r="B39" s="173"/>
-      <c r="C39" s="145"/>
-      <c r="D39" s="146"/>
+      <c r="A39" s="123"/>
+      <c r="B39" s="144"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="127"/>
       <c r="E39" s="84"/>
-      <c r="F39" s="142"/>
+      <c r="F39" s="113"/>
       <c r="G39" s="54"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -6226,18 +6218,18 @@
       <c r="BO39" s="67"/>
     </row>
     <row r="40" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="147">
+      <c r="A40" s="122">
         <v>19</v>
       </c>
-      <c r="B40" s="173"/>
-      <c r="C40" s="143" t="s">
+      <c r="B40" s="144"/>
+      <c r="C40" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="144"/>
+      <c r="D40" s="125"/>
       <c r="E40" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="172"/>
+      <c r="F40" s="112"/>
       <c r="G40" s="53"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -6301,12 +6293,12 @@
       <c r="BO40" s="63"/>
     </row>
     <row r="41" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="148"/>
-      <c r="B41" s="174"/>
-      <c r="C41" s="170"/>
-      <c r="D41" s="171"/>
+      <c r="A41" s="123"/>
+      <c r="B41" s="145"/>
+      <c r="C41" s="141"/>
+      <c r="D41" s="142"/>
       <c r="E41" s="86"/>
-      <c r="F41" s="142"/>
+      <c r="F41" s="113"/>
       <c r="G41" s="54"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
@@ -6370,20 +6362,20 @@
       <c r="BO41" s="67"/>
     </row>
     <row r="42" spans="1:68" ht="12" customHeight="1">
-      <c r="A42" s="121">
+      <c r="A42" s="116">
         <v>20</v>
       </c>
       <c r="B42" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="129" t="s">
+      <c r="C42" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="130"/>
+      <c r="D42" s="178"/>
       <c r="E42" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="178"/>
+      <c r="F42" s="120"/>
       <c r="G42" s="40"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -6450,12 +6442,12 @@
       <c r="BP42" s="3"/>
     </row>
     <row r="43" spans="1:68" ht="12" customHeight="1">
-      <c r="A43" s="122"/>
+      <c r="A43" s="117"/>
       <c r="B43" s="87"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="126"/>
+      <c r="C43" s="173"/>
+      <c r="D43" s="174"/>
       <c r="E43" s="85"/>
-      <c r="F43" s="179"/>
+      <c r="F43" s="121"/>
       <c r="G43" s="54"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -6520,16 +6512,16 @@
       <c r="BP43" s="3"/>
     </row>
     <row r="44" spans="1:68" ht="12" customHeight="1">
-      <c r="A44" s="121">
+      <c r="A44" s="116">
         <v>20</v>
       </c>
       <c r="B44" s="87"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="126"/>
+      <c r="C44" s="173"/>
+      <c r="D44" s="174"/>
       <c r="E44" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="F44" s="131"/>
+      <c r="F44" s="119"/>
       <c r="G44" s="53"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -6596,12 +6588,12 @@
       <c r="BP44" s="3"/>
     </row>
     <row r="45" spans="1:68" ht="12" customHeight="1">
-      <c r="A45" s="122"/>
+      <c r="A45" s="117"/>
       <c r="B45" s="87"/>
-      <c r="C45" s="125"/>
-      <c r="D45" s="126"/>
+      <c r="C45" s="173"/>
+      <c r="D45" s="174"/>
       <c r="E45" s="86"/>
-      <c r="F45" s="132"/>
+      <c r="F45" s="179"/>
       <c r="G45" s="57"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -6666,18 +6658,18 @@
       <c r="BP45" s="3"/>
     </row>
     <row r="46" spans="1:68" ht="12" customHeight="1">
-      <c r="A46" s="121">
+      <c r="A46" s="116">
         <v>21</v>
       </c>
       <c r="B46" s="87"/>
-      <c r="C46" s="129" t="s">
+      <c r="C46" s="177" t="s">
         <v>64</v>
       </c>
-      <c r="D46" s="130"/>
+      <c r="D46" s="178"/>
       <c r="E46" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="178"/>
+      <c r="F46" s="120"/>
       <c r="G46" s="40"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -6744,12 +6736,12 @@
       <c r="BP46" s="3"/>
     </row>
     <row r="47" spans="1:68" ht="12" customHeight="1">
-      <c r="A47" s="122"/>
+      <c r="A47" s="117"/>
       <c r="B47" s="87"/>
-      <c r="C47" s="125"/>
-      <c r="D47" s="126"/>
+      <c r="C47" s="173"/>
+      <c r="D47" s="174"/>
       <c r="E47" s="85"/>
-      <c r="F47" s="179"/>
+      <c r="F47" s="121"/>
       <c r="G47" s="54"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -6814,16 +6806,16 @@
       <c r="BP47" s="3"/>
     </row>
     <row r="48" spans="1:68" ht="12" customHeight="1">
-      <c r="A48" s="121">
+      <c r="A48" s="116">
         <v>21</v>
       </c>
       <c r="B48" s="87"/>
-      <c r="C48" s="125"/>
-      <c r="D48" s="126"/>
+      <c r="C48" s="173"/>
+      <c r="D48" s="174"/>
       <c r="E48" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="F48" s="131"/>
+      <c r="F48" s="119"/>
       <c r="G48" s="53"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
@@ -6890,12 +6882,12 @@
       <c r="BP48" s="3"/>
     </row>
     <row r="49" spans="1:68" ht="12" customHeight="1">
-      <c r="A49" s="122"/>
+      <c r="A49" s="117"/>
       <c r="B49" s="87"/>
-      <c r="C49" s="125"/>
-      <c r="D49" s="126"/>
+      <c r="C49" s="173"/>
+      <c r="D49" s="174"/>
       <c r="E49" s="84"/>
-      <c r="F49" s="132"/>
+      <c r="F49" s="179"/>
       <c r="G49" s="57"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -6960,18 +6952,18 @@
       <c r="BP49" s="3"/>
     </row>
     <row r="50" spans="1:68" ht="12" customHeight="1">
-      <c r="A50" s="121">
+      <c r="A50" s="116">
         <v>22</v>
       </c>
       <c r="B50" s="87"/>
-      <c r="C50" s="129" t="s">
+      <c r="C50" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="130"/>
+      <c r="D50" s="178"/>
       <c r="E50" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="F50" s="178"/>
+      <c r="F50" s="120"/>
       <c r="G50" s="40"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -7038,12 +7030,12 @@
       <c r="BP50" s="3"/>
     </row>
     <row r="51" spans="1:68" ht="12" customHeight="1">
-      <c r="A51" s="122"/>
+      <c r="A51" s="117"/>
       <c r="B51" s="87"/>
-      <c r="C51" s="125"/>
-      <c r="D51" s="126"/>
+      <c r="C51" s="173"/>
+      <c r="D51" s="174"/>
       <c r="E51" s="110"/>
-      <c r="F51" s="179"/>
+      <c r="F51" s="121"/>
       <c r="G51" s="54"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -7108,16 +7100,16 @@
       <c r="BP51" s="3"/>
     </row>
     <row r="52" spans="1:68" ht="12" customHeight="1">
-      <c r="A52" s="121">
+      <c r="A52" s="116">
         <v>22</v>
       </c>
       <c r="B52" s="87"/>
-      <c r="C52" s="125"/>
-      <c r="D52" s="126"/>
+      <c r="C52" s="173"/>
+      <c r="D52" s="174"/>
       <c r="E52" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="F52" s="131"/>
+      <c r="F52" s="119"/>
       <c r="G52" s="53"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
@@ -7184,12 +7176,12 @@
       <c r="BP52" s="3"/>
     </row>
     <row r="53" spans="1:68" ht="12" customHeight="1">
-      <c r="A53" s="122"/>
+      <c r="A53" s="117"/>
       <c r="B53" s="87"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="128"/>
+      <c r="C53" s="175"/>
+      <c r="D53" s="176"/>
       <c r="E53" s="86"/>
-      <c r="F53" s="132"/>
+      <c r="F53" s="179"/>
       <c r="G53" s="57"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -7254,18 +7246,18 @@
       <c r="BP53" s="3"/>
     </row>
     <row r="54" spans="1:68" ht="12" customHeight="1">
-      <c r="A54" s="121">
+      <c r="A54" s="116">
         <v>24</v>
       </c>
       <c r="B54" s="87"/>
-      <c r="C54" s="129" t="s">
+      <c r="C54" s="177" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="130"/>
+      <c r="D54" s="178"/>
       <c r="E54" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="F54" s="177"/>
+      <c r="F54" s="118"/>
       <c r="G54" s="40"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
@@ -7332,12 +7324,12 @@
       <c r="BP54" s="3"/>
     </row>
     <row r="55" spans="1:68" ht="12" customHeight="1">
-      <c r="A55" s="122"/>
+      <c r="A55" s="117"/>
       <c r="B55" s="87"/>
-      <c r="C55" s="125"/>
-      <c r="D55" s="126"/>
+      <c r="C55" s="173"/>
+      <c r="D55" s="174"/>
       <c r="E55" s="110"/>
-      <c r="F55" s="131"/>
+      <c r="F55" s="119"/>
       <c r="G55" s="54"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
@@ -7402,16 +7394,16 @@
       <c r="BP55" s="3"/>
     </row>
     <row r="56" spans="1:68" ht="12" customHeight="1">
-      <c r="A56" s="121">
+      <c r="A56" s="116">
         <v>24</v>
       </c>
       <c r="B56" s="87"/>
-      <c r="C56" s="125"/>
-      <c r="D56" s="126"/>
+      <c r="C56" s="173"/>
+      <c r="D56" s="174"/>
       <c r="E56" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="F56" s="123"/>
+      <c r="F56" s="172"/>
       <c r="G56" s="53"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
@@ -7478,12 +7470,12 @@
       <c r="BP56" s="3"/>
     </row>
     <row r="57" spans="1:68" ht="12" customHeight="1">
-      <c r="A57" s="122"/>
+      <c r="A57" s="117"/>
       <c r="B57" s="87"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="128"/>
+      <c r="C57" s="175"/>
+      <c r="D57" s="176"/>
       <c r="E57" s="84"/>
-      <c r="F57" s="124"/>
+      <c r="F57" s="140"/>
       <c r="G57" s="57"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
@@ -7548,18 +7540,18 @@
       <c r="BP57" s="3"/>
     </row>
     <row r="58" spans="1:68" ht="12" customHeight="1">
-      <c r="A58" s="121">
+      <c r="A58" s="116">
         <v>25</v>
       </c>
       <c r="B58" s="87"/>
-      <c r="C58" s="125" t="s">
+      <c r="C58" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="126"/>
+      <c r="D58" s="174"/>
       <c r="E58" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="F58" s="177"/>
+      <c r="F58" s="118"/>
       <c r="G58" s="40"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -7626,12 +7618,12 @@
       <c r="BP58" s="3"/>
     </row>
     <row r="59" spans="1:68" ht="12" customHeight="1">
-      <c r="A59" s="122"/>
+      <c r="A59" s="117"/>
       <c r="B59" s="87"/>
-      <c r="C59" s="125"/>
-      <c r="D59" s="126"/>
+      <c r="C59" s="173"/>
+      <c r="D59" s="174"/>
       <c r="E59" s="110"/>
-      <c r="F59" s="131"/>
+      <c r="F59" s="119"/>
       <c r="G59" s="54"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -7696,16 +7688,16 @@
       <c r="BP59" s="3"/>
     </row>
     <row r="60" spans="1:68" ht="12" customHeight="1">
-      <c r="A60" s="121">
+      <c r="A60" s="116">
         <v>25</v>
       </c>
       <c r="B60" s="87"/>
-      <c r="C60" s="125"/>
-      <c r="D60" s="126"/>
+      <c r="C60" s="173"/>
+      <c r="D60" s="174"/>
       <c r="E60" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="F60" s="123"/>
+      <c r="F60" s="172"/>
       <c r="G60" s="53"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
@@ -7772,12 +7764,12 @@
       <c r="BP60" s="3"/>
     </row>
     <row r="61" spans="1:68" ht="12" customHeight="1">
-      <c r="A61" s="122"/>
+      <c r="A61" s="117"/>
       <c r="B61" s="88"/>
-      <c r="C61" s="127"/>
-      <c r="D61" s="128"/>
+      <c r="C61" s="175"/>
+      <c r="D61" s="176"/>
       <c r="E61" s="84"/>
-      <c r="F61" s="124"/>
+      <c r="F61" s="140"/>
       <c r="G61" s="57"/>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
@@ -7842,7 +7834,7 @@
       <c r="BP61" s="3"/>
     </row>
     <row r="62" spans="1:68" s="3" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A62" s="180">
+      <c r="A62" s="130">
         <v>26</v>
       </c>
       <c r="B62" s="87" t="s">
@@ -7851,7 +7843,7 @@
       <c r="C62" s="133"/>
       <c r="D62" s="134"/>
       <c r="E62" s="135"/>
-      <c r="F62" s="151"/>
+      <c r="F62" s="131"/>
       <c r="G62" s="40"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
@@ -7915,12 +7907,12 @@
       <c r="BO62" s="89"/>
     </row>
     <row r="63" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A63" s="148"/>
+      <c r="A63" s="123"/>
       <c r="B63" s="88"/>
       <c r="C63" s="136"/>
       <c r="D63" s="137"/>
       <c r="E63" s="138"/>
-      <c r="F63" s="157"/>
+      <c r="F63" s="132"/>
       <c r="G63" s="56"/>
       <c r="H63" s="45"/>
       <c r="I63" s="45"/>
@@ -7984,8 +7976,8 @@
       <c r="BO63" s="66"/>
     </row>
     <row r="64" spans="1:68">
-      <c r="C64" s="175"/>
-      <c r="D64" s="176"/>
+      <c r="C64" s="128"/>
+      <c r="D64" s="129"/>
       <c r="E64" s="84"/>
       <c r="AD64" s="6"/>
       <c r="AE64" s="6"/>
@@ -8004,8 +7996,8 @@
       <c r="B65" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="176"/>
-      <c r="D65" s="176"/>
+      <c r="C65" s="129"/>
+      <c r="D65" s="129"/>
       <c r="E65" s="84"/>
     </row>
     <row r="66" spans="1:5">
@@ -8027,25 +8019,49 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B16:B27"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="C1:E3"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="C40:D41"/>
@@ -8070,41 +8086,15 @@
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="C26:D27"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="C1:E3"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
     <mergeCell ref="A60:A61"/>
     <mergeCell ref="F60:F61"/>
     <mergeCell ref="C58:D61"/>
@@ -8114,20 +8104,22 @@
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="F52:F53"/>
     <mergeCell ref="C50:D53"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B16:B27"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="F44:F45"/>
     <mergeCell ref="C42:D45"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="F48:F49"/>
     <mergeCell ref="C46:D49"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A1:A3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -8171,63 +8163,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="10.5" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="114"/>
-      <c r="E1" s="228" t="s">
+      <c r="D1" s="165"/>
+      <c r="E1" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="166" t="s">
+      <c r="F1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="139">
+      <c r="G1" s="153">
         <v>45078</v>
       </c>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="140"/>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140"/>
-      <c r="V1" s="140"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="140"/>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="140"/>
-      <c r="AA1" s="140"/>
-      <c r="AB1" s="140"/>
-      <c r="AC1" s="140"/>
-      <c r="AD1" s="140"/>
-      <c r="AE1" s="140"/>
-      <c r="AF1" s="140"/>
-      <c r="AG1" s="140"/>
-      <c r="AH1" s="140"/>
-      <c r="AI1" s="140"/>
-      <c r="AJ1" s="158"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="154"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="154"/>
+      <c r="S1" s="154"/>
+      <c r="T1" s="154"/>
+      <c r="U1" s="154"/>
+      <c r="V1" s="154"/>
+      <c r="W1" s="154"/>
+      <c r="X1" s="154"/>
+      <c r="Y1" s="154"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="154"/>
+      <c r="AB1" s="154"/>
+      <c r="AC1" s="154"/>
+      <c r="AD1" s="154"/>
+      <c r="AE1" s="154"/>
+      <c r="AF1" s="154"/>
+      <c r="AG1" s="154"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="154"/>
+      <c r="AJ1" s="162"/>
       <c r="AK1" s="3"/>
     </row>
     <row r="2" spans="1:37" ht="10.5" customHeight="1">
-      <c r="A2" s="161"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="167"/>
+      <c r="A2" s="181"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="150"/>
       <c r="G2" s="49">
         <v>42156</v>
       </c>
@@ -8321,12 +8313,12 @@
       <c r="AK2" s="3"/>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="162"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="168"/>
+      <c r="A3" s="182"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="151"/>
       <c r="G3" s="51" t="s">
         <v>37</v>
       </c>
@@ -8420,20 +8412,20 @@
       <c r="AK3" s="48"/>
     </row>
     <row r="4" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="217">
+      <c r="A4" s="194">
         <v>1</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="218" t="s">
+      <c r="C4" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="219"/>
-      <c r="E4" s="220" t="s">
+      <c r="D4" s="196"/>
+      <c r="E4" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="222"/>
+      <c r="F4" s="199"/>
       <c r="G4" s="52"/>
       <c r="H4" s="11"/>
       <c r="I4" s="13"/>
@@ -8462,20 +8454,20 @@
       <c r="AF4" s="11"/>
       <c r="AG4" s="11"/>
       <c r="AH4" s="11"/>
-      <c r="AI4" s="212" t="s">
+      <c r="AI4" s="188" t="s">
         <v>39</v>
       </c>
-      <c r="AJ4" s="212" t="s">
+      <c r="AJ4" s="188" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A5" s="148"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="35"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="131"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="119"/>
       <c r="G5" s="53"/>
       <c r="H5" s="10"/>
       <c r="I5" s="17"/>
@@ -8504,22 +8496,22 @@
       <c r="AF5" s="10"/>
       <c r="AG5" s="10"/>
       <c r="AH5" s="10"/>
-      <c r="AI5" s="213"/>
-      <c r="AJ5" s="213"/>
+      <c r="AI5" s="189"/>
+      <c r="AJ5" s="189"/>
     </row>
     <row r="6" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="147">
+      <c r="A6" s="122">
         <v>2</v>
       </c>
       <c r="B6" s="35"/>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="144"/>
-      <c r="E6" s="215" t="s">
+      <c r="D6" s="125"/>
+      <c r="E6" s="191" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="169"/>
+      <c r="F6" s="193"/>
       <c r="G6" s="54"/>
       <c r="H6" s="8"/>
       <c r="I6" s="14"/>
@@ -8548,16 +8540,16 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
-      <c r="AI6" s="213"/>
-      <c r="AJ6" s="213"/>
+      <c r="AI6" s="189"/>
+      <c r="AJ6" s="189"/>
     </row>
     <row r="7" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="148"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="124"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="140"/>
       <c r="G7" s="55"/>
       <c r="H7" s="25"/>
       <c r="I7" s="26"/>
@@ -8586,11 +8578,11 @@
       <c r="AF7" s="25"/>
       <c r="AG7" s="25"/>
       <c r="AH7" s="25"/>
-      <c r="AI7" s="213"/>
-      <c r="AJ7" s="213"/>
+      <c r="AI7" s="189"/>
+      <c r="AJ7" s="189"/>
     </row>
     <row r="8" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="195">
+      <c r="A8" s="200">
         <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
@@ -8600,10 +8592,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="135"/>
-      <c r="E8" s="223" t="s">
+      <c r="E8" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="151"/>
+      <c r="F8" s="131"/>
       <c r="G8" s="40"/>
       <c r="H8" s="7"/>
       <c r="I8" s="16"/>
@@ -8632,16 +8624,16 @@
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
-      <c r="AI8" s="213"/>
-      <c r="AJ8" s="213"/>
+      <c r="AI8" s="189"/>
+      <c r="AJ8" s="189"/>
     </row>
     <row r="9" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="196"/>
+      <c r="A9" s="201"/>
       <c r="B9" s="38"/>
       <c r="C9" s="136"/>
       <c r="D9" s="138"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="157"/>
+      <c r="E9" s="203"/>
+      <c r="F9" s="132"/>
       <c r="G9" s="56"/>
       <c r="H9" s="45"/>
       <c r="I9" s="46"/>
@@ -8670,24 +8662,24 @@
       <c r="AF9" s="45"/>
       <c r="AG9" s="45"/>
       <c r="AH9" s="45"/>
-      <c r="AI9" s="213"/>
-      <c r="AJ9" s="213"/>
+      <c r="AI9" s="189"/>
+      <c r="AJ9" s="189"/>
     </row>
     <row r="10" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="205">
+      <c r="A10" s="204">
         <v>4</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="224" t="s">
+      <c r="C10" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="225"/>
-      <c r="E10" s="207" t="s">
+      <c r="D10" s="206"/>
+      <c r="E10" s="209" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="172"/>
+      <c r="F10" s="112"/>
       <c r="G10" s="53"/>
       <c r="H10" s="10"/>
       <c r="I10" s="17"/>
@@ -8716,16 +8708,16 @@
       <c r="AF10" s="10"/>
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
-      <c r="AI10" s="213"/>
-      <c r="AJ10" s="213"/>
+      <c r="AI10" s="189"/>
+      <c r="AJ10" s="189"/>
     </row>
     <row r="11" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A11" s="196"/>
+      <c r="A11" s="201"/>
       <c r="B11" s="37"/>
-      <c r="C11" s="210"/>
-      <c r="D11" s="211"/>
-      <c r="E11" s="198"/>
-      <c r="F11" s="142"/>
+      <c r="C11" s="207"/>
+      <c r="D11" s="208"/>
+      <c r="E11" s="210"/>
+      <c r="F11" s="113"/>
       <c r="G11" s="53"/>
       <c r="H11" s="10"/>
       <c r="I11" s="17"/>
@@ -8754,22 +8746,22 @@
       <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
-      <c r="AI11" s="213"/>
-      <c r="AJ11" s="213"/>
+      <c r="AI11" s="189"/>
+      <c r="AJ11" s="189"/>
     </row>
     <row r="12" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A12" s="195">
+      <c r="A12" s="200">
         <v>5</v>
       </c>
       <c r="B12" s="37"/>
-      <c r="C12" s="208" t="s">
+      <c r="C12" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="209"/>
-      <c r="E12" s="197" t="s">
+      <c r="D12" s="212"/>
+      <c r="E12" s="213" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="141"/>
+      <c r="F12" s="143"/>
       <c r="G12" s="54"/>
       <c r="H12" s="8"/>
       <c r="I12" s="14"/>
@@ -8798,16 +8790,16 @@
       <c r="AF12" s="8"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
-      <c r="AI12" s="213"/>
-      <c r="AJ12" s="213"/>
+      <c r="AI12" s="189"/>
+      <c r="AJ12" s="189"/>
     </row>
     <row r="13" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A13" s="196"/>
+      <c r="A13" s="201"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="211"/>
-      <c r="E13" s="198"/>
-      <c r="F13" s="142"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="208"/>
+      <c r="E13" s="210"/>
+      <c r="F13" s="113"/>
       <c r="G13" s="54"/>
       <c r="H13" s="8"/>
       <c r="I13" s="14"/>
@@ -8836,22 +8828,22 @@
       <c r="AF13" s="8"/>
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="213"/>
-      <c r="AJ13" s="213"/>
+      <c r="AI13" s="189"/>
+      <c r="AJ13" s="189"/>
     </row>
     <row r="14" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A14" s="195">
+      <c r="A14" s="200">
         <v>6</v>
       </c>
       <c r="B14" s="37"/>
-      <c r="C14" s="152" t="s">
+      <c r="C14" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="144"/>
-      <c r="E14" s="206" t="s">
+      <c r="D14" s="125"/>
+      <c r="E14" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="141"/>
+      <c r="F14" s="143"/>
       <c r="G14" s="54"/>
       <c r="H14" s="8"/>
       <c r="I14" s="14"/>
@@ -8880,16 +8872,16 @@
       <c r="AF14" s="8"/>
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
-      <c r="AI14" s="213"/>
-      <c r="AJ14" s="213"/>
+      <c r="AI14" s="189"/>
+      <c r="AJ14" s="189"/>
     </row>
     <row r="15" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A15" s="205"/>
+      <c r="A15" s="204"/>
       <c r="B15" s="37"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="172"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="209"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="55"/>
       <c r="H15" s="25"/>
       <c r="I15" s="26"/>
@@ -8918,24 +8910,24 @@
       <c r="AF15" s="25"/>
       <c r="AG15" s="25"/>
       <c r="AH15" s="25"/>
-      <c r="AI15" s="213"/>
-      <c r="AJ15" s="213"/>
+      <c r="AI15" s="189"/>
+      <c r="AJ15" s="189"/>
     </row>
     <row r="16" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="203">
+      <c r="A16" s="215">
         <v>7</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="149" t="s">
+      <c r="C16" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="150"/>
-      <c r="E16" s="202" t="s">
+      <c r="D16" s="156"/>
+      <c r="E16" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="151"/>
+      <c r="F16" s="131"/>
       <c r="G16" s="40"/>
       <c r="H16" s="7"/>
       <c r="I16" s="16"/>
@@ -8964,16 +8956,16 @@
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
-      <c r="AI16" s="213"/>
-      <c r="AJ16" s="213"/>
+      <c r="AI16" s="189"/>
+      <c r="AJ16" s="189"/>
     </row>
     <row r="17" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="203"/>
+      <c r="A17" s="215"/>
       <c r="B17" s="37"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="142"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="113"/>
       <c r="G17" s="55"/>
       <c r="H17" s="25"/>
       <c r="I17" s="26"/>
@@ -9002,22 +8994,22 @@
       <c r="AF17" s="25"/>
       <c r="AG17" s="25"/>
       <c r="AH17" s="25"/>
-      <c r="AI17" s="213"/>
-      <c r="AJ17" s="213"/>
+      <c r="AI17" s="189"/>
+      <c r="AJ17" s="189"/>
     </row>
     <row r="18" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="203">
+      <c r="A18" s="215">
         <v>7</v>
       </c>
       <c r="B18" s="37"/>
-      <c r="C18" s="152" t="s">
+      <c r="C18" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="144"/>
-      <c r="E18" s="197" t="s">
+      <c r="D18" s="125"/>
+      <c r="E18" s="213" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="141"/>
+      <c r="F18" s="143"/>
       <c r="G18" s="54"/>
       <c r="H18" s="8"/>
       <c r="I18" s="14"/>
@@ -9046,16 +9038,16 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
-      <c r="AI18" s="213"/>
-      <c r="AJ18" s="213"/>
+      <c r="AI18" s="189"/>
+      <c r="AJ18" s="189"/>
     </row>
     <row r="19" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="203"/>
+      <c r="A19" s="215"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="142"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="113"/>
       <c r="G19" s="55"/>
       <c r="H19" s="25"/>
       <c r="I19" s="26"/>
@@ -9084,22 +9076,22 @@
       <c r="AF19" s="25"/>
       <c r="AG19" s="25"/>
       <c r="AH19" s="25"/>
-      <c r="AI19" s="213"/>
-      <c r="AJ19" s="213"/>
+      <c r="AI19" s="189"/>
+      <c r="AJ19" s="189"/>
     </row>
     <row r="20" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="203">
+      <c r="A20" s="215">
         <v>8</v>
       </c>
       <c r="B20" s="37"/>
-      <c r="C20" s="152" t="s">
+      <c r="C20" s="157" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="144"/>
-      <c r="E20" s="197" t="s">
+      <c r="D20" s="125"/>
+      <c r="E20" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="141"/>
+      <c r="F20" s="143"/>
       <c r="G20" s="55"/>
       <c r="H20" s="25"/>
       <c r="I20" s="26"/>
@@ -9128,16 +9120,16 @@
       <c r="AF20" s="25"/>
       <c r="AG20" s="25"/>
       <c r="AH20" s="25"/>
-      <c r="AI20" s="213"/>
-      <c r="AJ20" s="213"/>
+      <c r="AI20" s="189"/>
+      <c r="AJ20" s="189"/>
     </row>
     <row r="21" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="203"/>
+      <c r="A21" s="215"/>
       <c r="B21" s="38"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="204"/>
-      <c r="F21" s="157"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="132"/>
       <c r="G21" s="57"/>
       <c r="H21" s="9"/>
       <c r="I21" s="18"/>
@@ -9166,24 +9158,24 @@
       <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
       <c r="AH21" s="9"/>
-      <c r="AI21" s="213"/>
-      <c r="AJ21" s="213"/>
+      <c r="AI21" s="189"/>
+      <c r="AJ21" s="189"/>
     </row>
     <row r="22" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="195">
+      <c r="A22" s="200">
         <v>9</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="149" t="s">
+      <c r="C22" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="150"/>
-      <c r="E22" s="202" t="s">
+      <c r="D22" s="156"/>
+      <c r="E22" s="216" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="151"/>
+      <c r="F22" s="131"/>
       <c r="G22" s="40"/>
       <c r="H22" s="7"/>
       <c r="I22" s="16"/>
@@ -9212,16 +9204,16 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
-      <c r="AI22" s="213"/>
-      <c r="AJ22" s="213"/>
+      <c r="AI22" s="189"/>
+      <c r="AJ22" s="189"/>
     </row>
     <row r="23" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="196"/>
+      <c r="A23" s="201"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="198"/>
-      <c r="F23" s="142"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="210"/>
+      <c r="F23" s="113"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="14"/>
@@ -9250,22 +9242,22 @@
       <c r="AF23" s="8"/>
       <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="213"/>
-      <c r="AJ23" s="213"/>
+      <c r="AI23" s="189"/>
+      <c r="AJ23" s="189"/>
     </row>
     <row r="24" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="195">
+      <c r="A24" s="200">
         <v>10</v>
       </c>
       <c r="B24" s="37"/>
-      <c r="C24" s="143" t="s">
+      <c r="C24" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="144"/>
-      <c r="E24" s="197" t="s">
+      <c r="D24" s="125"/>
+      <c r="E24" s="213" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="141"/>
+      <c r="F24" s="143"/>
       <c r="G24" s="54"/>
       <c r="H24" s="8"/>
       <c r="I24" s="14"/>
@@ -9294,16 +9286,16 @@
       <c r="AF24" s="8"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
-      <c r="AI24" s="213"/>
-      <c r="AJ24" s="213"/>
+      <c r="AI24" s="189"/>
+      <c r="AJ24" s="189"/>
     </row>
     <row r="25" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A25" s="196"/>
+      <c r="A25" s="201"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="198"/>
-      <c r="F25" s="142"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="210"/>
+      <c r="F25" s="113"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="14"/>
@@ -9332,22 +9324,22 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
-      <c r="AI25" s="213"/>
-      <c r="AJ25" s="213"/>
+      <c r="AI25" s="189"/>
+      <c r="AJ25" s="189"/>
     </row>
     <row r="26" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A26" s="195">
+      <c r="A26" s="200">
         <v>12</v>
       </c>
       <c r="B26" s="37"/>
-      <c r="C26" s="143" t="s">
+      <c r="C26" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="144"/>
-      <c r="E26" s="197" t="s">
+      <c r="D26" s="125"/>
+      <c r="E26" s="213" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="141"/>
+      <c r="F26" s="143"/>
       <c r="G26" s="55"/>
       <c r="H26" s="25"/>
       <c r="I26" s="26"/>
@@ -9376,16 +9368,16 @@
       <c r="AF26" s="25"/>
       <c r="AG26" s="25"/>
       <c r="AH26" s="25"/>
-      <c r="AI26" s="213"/>
-      <c r="AJ26" s="213"/>
+      <c r="AI26" s="189"/>
+      <c r="AJ26" s="189"/>
     </row>
     <row r="27" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="196"/>
+      <c r="A27" s="201"/>
       <c r="B27" s="38"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="198"/>
-      <c r="F27" s="157"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="210"/>
+      <c r="F27" s="132"/>
       <c r="G27" s="57"/>
       <c r="H27" s="9"/>
       <c r="I27" s="18"/>
@@ -9414,24 +9406,24 @@
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
       <c r="AH27" s="9"/>
-      <c r="AI27" s="213"/>
-      <c r="AJ27" s="213"/>
+      <c r="AI27" s="189"/>
+      <c r="AJ27" s="189"/>
     </row>
     <row r="28" spans="1:37" ht="12" customHeight="1">
-      <c r="A28" s="147">
+      <c r="A28" s="122">
         <v>13</v>
       </c>
       <c r="B28" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="199" t="s">
+      <c r="C28" s="217" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="200"/>
-      <c r="E28" s="201" t="s">
+      <c r="D28" s="218"/>
+      <c r="E28" s="221" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="178"/>
+      <c r="F28" s="120"/>
       <c r="G28" s="40"/>
       <c r="H28" s="7"/>
       <c r="I28" s="16"/>
@@ -9460,17 +9452,17 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
-      <c r="AI28" s="213"/>
-      <c r="AJ28" s="213"/>
+      <c r="AI28" s="189"/>
+      <c r="AJ28" s="189"/>
       <c r="AK28" s="3"/>
     </row>
     <row r="29" spans="1:37" ht="12" customHeight="1">
-      <c r="A29" s="148"/>
+      <c r="A29" s="123"/>
       <c r="B29" s="35"/>
-      <c r="C29" s="183"/>
-      <c r="D29" s="184"/>
-      <c r="E29" s="187"/>
-      <c r="F29" s="179"/>
+      <c r="C29" s="219"/>
+      <c r="D29" s="220"/>
+      <c r="E29" s="222"/>
+      <c r="F29" s="121"/>
       <c r="G29" s="54"/>
       <c r="H29" s="8"/>
       <c r="I29" s="14"/>
@@ -9499,23 +9491,23 @@
       <c r="AF29" s="8"/>
       <c r="AG29" s="8"/>
       <c r="AH29" s="8"/>
-      <c r="AI29" s="213"/>
-      <c r="AJ29" s="213"/>
+      <c r="AI29" s="189"/>
+      <c r="AJ29" s="189"/>
       <c r="AK29" s="3"/>
     </row>
     <row r="30" spans="1:37" ht="12" customHeight="1">
-      <c r="A30" s="147">
+      <c r="A30" s="122">
         <v>14</v>
       </c>
       <c r="B30" s="35"/>
-      <c r="C30" s="183" t="s">
+      <c r="C30" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="184"/>
-      <c r="E30" s="187" t="s">
+      <c r="D30" s="220"/>
+      <c r="E30" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="179"/>
+      <c r="F30" s="121"/>
       <c r="G30" s="54"/>
       <c r="H30" s="8"/>
       <c r="I30" s="14"/>
@@ -9544,17 +9536,17 @@
       <c r="AF30" s="8"/>
       <c r="AG30" s="8"/>
       <c r="AH30" s="8"/>
-      <c r="AI30" s="213"/>
-      <c r="AJ30" s="213"/>
+      <c r="AI30" s="189"/>
+      <c r="AJ30" s="189"/>
       <c r="AK30" s="3"/>
     </row>
     <row r="31" spans="1:37" ht="12" customHeight="1">
-      <c r="A31" s="148"/>
+      <c r="A31" s="123"/>
       <c r="B31" s="39"/>
-      <c r="C31" s="185"/>
-      <c r="D31" s="186"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="132"/>
+      <c r="C31" s="223"/>
+      <c r="D31" s="224"/>
+      <c r="E31" s="225"/>
+      <c r="F31" s="179"/>
       <c r="G31" s="57"/>
       <c r="H31" s="9"/>
       <c r="I31" s="18"/>
@@ -9583,25 +9575,25 @@
       <c r="AF31" s="9"/>
       <c r="AG31" s="9"/>
       <c r="AH31" s="9"/>
-      <c r="AI31" s="213"/>
-      <c r="AJ31" s="213"/>
+      <c r="AI31" s="189"/>
+      <c r="AJ31" s="189"/>
       <c r="AK31" s="3"/>
     </row>
     <row r="32" spans="1:37" ht="12" customHeight="1">
-      <c r="A32" s="147">
+      <c r="A32" s="122">
         <v>15</v>
       </c>
-      <c r="B32" s="190" t="s">
+      <c r="B32" s="227" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="149" t="s">
+      <c r="C32" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="150"/>
-      <c r="E32" s="190" t="s">
+      <c r="D32" s="156"/>
+      <c r="E32" s="227" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="177"/>
+      <c r="F32" s="118"/>
       <c r="G32" s="40"/>
       <c r="H32" s="7"/>
       <c r="I32" s="16"/>
@@ -9630,17 +9622,17 @@
       <c r="AF32" s="42"/>
       <c r="AG32" s="42"/>
       <c r="AH32" s="42"/>
-      <c r="AI32" s="213"/>
-      <c r="AJ32" s="213"/>
+      <c r="AI32" s="189"/>
+      <c r="AJ32" s="189"/>
       <c r="AK32" s="3"/>
     </row>
     <row r="33" spans="1:37" ht="12" customHeight="1" thickBot="1">
-      <c r="A33" s="189"/>
-      <c r="B33" s="191"/>
-      <c r="C33" s="192"/>
-      <c r="D33" s="193"/>
-      <c r="E33" s="191"/>
-      <c r="F33" s="194"/>
+      <c r="A33" s="226"/>
+      <c r="B33" s="228"/>
+      <c r="C33" s="229"/>
+      <c r="D33" s="230"/>
+      <c r="E33" s="228"/>
+      <c r="F33" s="231"/>
       <c r="G33" s="41"/>
       <c r="H33" s="12"/>
       <c r="I33" s="15"/>
@@ -9669,8 +9661,8 @@
       <c r="AF33" s="12"/>
       <c r="AG33" s="12"/>
       <c r="AH33" s="12"/>
-      <c r="AI33" s="214"/>
-      <c r="AJ33" s="214"/>
+      <c r="AI33" s="190"/>
+      <c r="AJ33" s="190"/>
       <c r="AK33" s="3"/>
     </row>
     <row r="34" spans="1:37">
@@ -9691,12 +9683,53 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="AJ4:AJ33"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -9713,53 +9746,12 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS_木村優摩.xlsx
+++ b/000-要件定義/003-WBS_木村優摩.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\演習プロジェクト\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CF4B71-323C-42DF-A57A-647AD35F86E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5010CD-F0A1-49DB-B556-817461382E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-975" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2036,10 +2036,211 @@
     <xf numFmtId="49" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2048,206 +2249,137 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2263,138 +2395,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3104,7 +3104,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:A3"/>
+      <selection pane="bottomRight" activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3120,94 +3120,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="10.5" customHeight="1">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="163" t="s">
+      <c r="C1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="164"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="149" t="s">
+      <c r="D1" s="151"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="153">
+      <c r="G1" s="122">
         <v>45901</v>
       </c>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
-      <c r="X1" s="154"/>
-      <c r="Y1" s="154"/>
-      <c r="Z1" s="154"/>
-      <c r="AA1" s="154"/>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="154"/>
-      <c r="AD1" s="154"/>
-      <c r="AE1" s="154"/>
-      <c r="AF1" s="154"/>
-      <c r="AG1" s="154"/>
-      <c r="AH1" s="154"/>
-      <c r="AI1" s="154"/>
-      <c r="AJ1" s="162"/>
-      <c r="AK1" s="153">
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="123"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="123"/>
+      <c r="AJ1" s="142"/>
+      <c r="AK1" s="122">
         <v>45931</v>
       </c>
-      <c r="AL1" s="154"/>
-      <c r="AM1" s="154"/>
-      <c r="AN1" s="154"/>
-      <c r="AO1" s="154"/>
-      <c r="AP1" s="154"/>
-      <c r="AQ1" s="154"/>
-      <c r="AR1" s="154"/>
-      <c r="AS1" s="154"/>
-      <c r="AT1" s="154"/>
-      <c r="AU1" s="154"/>
-      <c r="AV1" s="154"/>
-      <c r="AW1" s="154"/>
-      <c r="AX1" s="154"/>
-      <c r="AY1" s="154"/>
-      <c r="AZ1" s="154"/>
-      <c r="BA1" s="154"/>
-      <c r="BB1" s="154"/>
-      <c r="BC1" s="154"/>
-      <c r="BD1" s="154"/>
-      <c r="BE1" s="154"/>
-      <c r="BF1" s="154"/>
-      <c r="BG1" s="154"/>
-      <c r="BH1" s="154"/>
-      <c r="BI1" s="154"/>
-      <c r="BJ1" s="154"/>
-      <c r="BK1" s="154"/>
-      <c r="BL1" s="154"/>
-      <c r="BM1" s="154"/>
-      <c r="BN1" s="154"/>
+      <c r="AL1" s="123"/>
+      <c r="AM1" s="123"/>
+      <c r="AN1" s="123"/>
+      <c r="AO1" s="123"/>
+      <c r="AP1" s="123"/>
+      <c r="AQ1" s="123"/>
+      <c r="AR1" s="123"/>
+      <c r="AS1" s="123"/>
+      <c r="AT1" s="123"/>
+      <c r="AU1" s="123"/>
+      <c r="AV1" s="123"/>
+      <c r="AW1" s="123"/>
+      <c r="AX1" s="123"/>
+      <c r="AY1" s="123"/>
+      <c r="AZ1" s="123"/>
+      <c r="BA1" s="123"/>
+      <c r="BB1" s="123"/>
+      <c r="BC1" s="123"/>
+      <c r="BD1" s="123"/>
+      <c r="BE1" s="123"/>
+      <c r="BF1" s="123"/>
+      <c r="BG1" s="123"/>
+      <c r="BH1" s="123"/>
+      <c r="BI1" s="123"/>
+      <c r="BJ1" s="123"/>
+      <c r="BK1" s="123"/>
+      <c r="BL1" s="123"/>
+      <c r="BM1" s="123"/>
+      <c r="BN1" s="123"/>
       <c r="BO1" s="68"/>
       <c r="BP1" s="3"/>
     </row>
     <row r="2" spans="1:68" ht="10.5" customHeight="1">
-      <c r="A2" s="181"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="150"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="147"/>
       <c r="G2" s="49">
         <v>42156</v>
       </c>
@@ -3394,12 +3394,12 @@
       <c r="BP2" s="3"/>
     </row>
     <row r="3" spans="1:68" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A3" s="182"/>
-      <c r="B3" s="148"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="151"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="148"/>
       <c r="G3" s="51" t="s">
         <v>43</v>
       </c>
@@ -3586,18 +3586,18 @@
       <c r="BP3" s="48"/>
     </row>
     <row r="4" spans="1:68" s="3" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A4" s="122">
+      <c r="A4" s="115">
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="158"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="139" t="s">
+      <c r="D4" s="134"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="117" t="s">
         <v>77</v>
       </c>
       <c r="G4" s="95"/>
@@ -3665,12 +3665,12 @@
       <c r="BO4" s="63"/>
     </row>
     <row r="5" spans="1:68" s="3" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A5" s="123"/>
+      <c r="A5" s="116"/>
       <c r="B5" s="35"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="140"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="96"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
@@ -3734,18 +3734,18 @@
       <c r="BO5" s="64"/>
     </row>
     <row r="6" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="122">
+      <c r="A6" s="115">
         <v>2</v>
       </c>
       <c r="B6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="133" t="s">
+      <c r="C6" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="134"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="152" t="s">
+      <c r="D6" s="113"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="149" t="s">
         <v>77</v>
       </c>
       <c r="G6" s="40"/>
@@ -3813,12 +3813,12 @@
       <c r="BO6" s="65"/>
     </row>
     <row r="7" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="123"/>
+      <c r="A7" s="116"/>
       <c r="B7" s="38"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="132"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="138"/>
       <c r="G7" s="56"/>
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
@@ -3835,7 +3835,7 @@
       <c r="T7" s="47"/>
       <c r="U7" s="71"/>
       <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
+      <c r="W7" s="83"/>
       <c r="X7" s="45"/>
       <c r="Y7" s="45"/>
       <c r="Z7" s="46"/>
@@ -3882,18 +3882,18 @@
       <c r="BO7" s="66"/>
     </row>
     <row r="8" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="122">
+      <c r="A8" s="115">
         <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="133" t="s">
+      <c r="C8" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="134"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="139" t="s">
+      <c r="D8" s="113"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="117" t="s">
         <v>77</v>
       </c>
       <c r="G8" s="40"/>
@@ -3961,12 +3961,12 @@
       <c r="BO8" s="65"/>
     </row>
     <row r="9" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="123"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="38"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="140"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="118"/>
       <c r="G9" s="56"/>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
@@ -3983,7 +3983,7 @@
       <c r="T9" s="47"/>
       <c r="U9" s="107"/>
       <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
+      <c r="W9" s="83"/>
       <c r="X9" s="45"/>
       <c r="Y9" s="45"/>
       <c r="Z9" s="46"/>
@@ -4030,18 +4030,18 @@
       <c r="BO9" s="66"/>
     </row>
     <row r="10" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A10" s="122">
+      <c r="A10" s="115">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="133" t="s">
+      <c r="C10" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="134"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="139" t="s">
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="117" t="s">
         <v>77</v>
       </c>
       <c r="G10" s="40"/>
@@ -4109,12 +4109,12 @@
       <c r="BO10" s="65"/>
     </row>
     <row r="11" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A11" s="123"/>
+      <c r="A11" s="116"/>
       <c r="B11" s="38"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="140"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="118"/>
       <c r="G11" s="56"/>
       <c r="H11" s="83"/>
       <c r="I11" s="83"/>
@@ -4131,7 +4131,7 @@
       <c r="T11" s="47"/>
       <c r="U11" s="71"/>
       <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
+      <c r="W11" s="83"/>
       <c r="X11" s="45"/>
       <c r="Y11" s="45"/>
       <c r="Z11" s="46"/>
@@ -4178,18 +4178,18 @@
       <c r="BO11" s="66"/>
     </row>
     <row r="12" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A12" s="122">
+      <c r="A12" s="115">
         <v>5</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="133" t="s">
+      <c r="C12" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="134"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="139" t="s">
+      <c r="D12" s="113"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="117" t="s">
         <v>77</v>
       </c>
       <c r="G12" s="40"/>
@@ -4257,12 +4257,12 @@
       <c r="BO12" s="65"/>
     </row>
     <row r="13" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A13" s="123"/>
+      <c r="A13" s="116"/>
       <c r="B13" s="38"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="140"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="118"/>
       <c r="G13" s="56"/>
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
@@ -4279,7 +4279,7 @@
       <c r="T13" s="47"/>
       <c r="U13" s="71"/>
       <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
+      <c r="W13" s="83"/>
       <c r="X13" s="45"/>
       <c r="Y13" s="45"/>
       <c r="Z13" s="46"/>
@@ -4326,18 +4326,18 @@
       <c r="BO13" s="66"/>
     </row>
     <row r="14" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A14" s="122">
+      <c r="A14" s="115">
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="134"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="131" t="s">
+      <c r="D14" s="113"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="132" t="s">
         <v>76</v>
       </c>
       <c r="G14" s="40"/>
@@ -4405,12 +4405,12 @@
       <c r="BO14" s="65"/>
     </row>
     <row r="15" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A15" s="123"/>
+      <c r="A15" s="116"/>
       <c r="B15" s="38"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="132"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="138"/>
       <c r="G15" s="56"/>
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
@@ -4428,8 +4428,8 @@
       <c r="U15" s="71"/>
       <c r="V15" s="45"/>
       <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="83"/>
       <c r="Z15" s="46"/>
       <c r="AA15" s="47"/>
       <c r="AB15" s="45"/>
@@ -4474,20 +4474,20 @@
       <c r="BO15" s="66"/>
     </row>
     <row r="16" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="122">
+      <c r="A16" s="115">
         <v>7</v>
       </c>
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="181" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="124" t="s">
+      <c r="C16" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="125"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="131"/>
+      <c r="F16" s="132"/>
       <c r="G16" s="40"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -4553,12 +4553,12 @@
       <c r="BO16" s="65"/>
     </row>
     <row r="17" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="123"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="127"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="181"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="129"/>
       <c r="E17" s="90"/>
-      <c r="F17" s="113"/>
+      <c r="F17" s="125"/>
       <c r="G17" s="54"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -4622,18 +4622,18 @@
       <c r="BO17" s="64"/>
     </row>
     <row r="18" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="122">
+      <c r="A18" s="115">
         <v>8</v>
       </c>
-      <c r="B18" s="114"/>
-      <c r="C18" s="124" t="s">
+      <c r="B18" s="181"/>
+      <c r="C18" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="125"/>
+      <c r="D18" s="127"/>
       <c r="E18" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="143"/>
+      <c r="F18" s="124"/>
       <c r="G18" s="53"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -4699,12 +4699,12 @@
       <c r="BO18" s="67"/>
     </row>
     <row r="19" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="123"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="127"/>
+      <c r="A19" s="116"/>
+      <c r="B19" s="181"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="129"/>
       <c r="E19" s="90"/>
-      <c r="F19" s="113"/>
+      <c r="F19" s="125"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -4768,18 +4768,18 @@
       <c r="BO19" s="64"/>
     </row>
     <row r="20" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="122">
+      <c r="A20" s="115">
         <v>9</v>
       </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="124" t="s">
+      <c r="B20" s="181"/>
+      <c r="C20" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="125"/>
+      <c r="D20" s="127"/>
       <c r="E20" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="143"/>
+      <c r="F20" s="124"/>
       <c r="G20" s="53"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -4845,12 +4845,12 @@
       <c r="BO20" s="67"/>
     </row>
     <row r="21" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="123"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="127"/>
+      <c r="A21" s="116"/>
+      <c r="B21" s="181"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="129"/>
       <c r="E21" s="90"/>
-      <c r="F21" s="113"/>
+      <c r="F21" s="125"/>
       <c r="G21" s="54"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -4914,18 +4914,18 @@
       <c r="BO21" s="64"/>
     </row>
     <row r="22" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="122">
+      <c r="A22" s="115">
         <v>10</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="124" t="s">
+      <c r="B22" s="181"/>
+      <c r="C22" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="125"/>
+      <c r="D22" s="127"/>
       <c r="E22" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="112"/>
+      <c r="F22" s="161"/>
       <c r="G22" s="53"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -4991,12 +4991,12 @@
       <c r="BO22" s="67"/>
     </row>
     <row r="23" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="123"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="127"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="129"/>
       <c r="E23" s="90"/>
-      <c r="F23" s="112"/>
+      <c r="F23" s="161"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5060,18 +5060,18 @@
       <c r="BO23" s="67"/>
     </row>
     <row r="24" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="122">
+      <c r="A24" s="115">
         <v>11</v>
       </c>
-      <c r="B24" s="114"/>
-      <c r="C24" s="124" t="s">
+      <c r="B24" s="181"/>
+      <c r="C24" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="125"/>
+      <c r="D24" s="127"/>
       <c r="E24" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="143"/>
+      <c r="F24" s="124"/>
       <c r="G24" s="53"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -5137,12 +5137,12 @@
       <c r="BO24" s="63"/>
     </row>
     <row r="25" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A25" s="123"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="127"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="129"/>
       <c r="E25" s="90"/>
-      <c r="F25" s="113"/>
+      <c r="F25" s="125"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -5206,18 +5206,18 @@
       <c r="BO25" s="67"/>
     </row>
     <row r="26" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A26" s="122">
+      <c r="A26" s="115">
         <v>12</v>
       </c>
-      <c r="B26" s="114"/>
-      <c r="C26" s="124" t="s">
+      <c r="B26" s="181"/>
+      <c r="C26" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="125"/>
+      <c r="D26" s="127"/>
       <c r="E26" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="112"/>
+      <c r="F26" s="161"/>
       <c r="G26" s="53"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -5283,12 +5283,12 @@
       <c r="BO26" s="63"/>
     </row>
     <row r="27" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="123"/>
-      <c r="B27" s="115"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="127"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="182"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="129"/>
       <c r="E27" s="90"/>
-      <c r="F27" s="113"/>
+      <c r="F27" s="125"/>
       <c r="G27" s="55"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
@@ -5352,20 +5352,20 @@
       <c r="BO27" s="64"/>
     </row>
     <row r="28" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A28" s="122">
+      <c r="A28" s="115">
         <v>13</v>
       </c>
       <c r="B28" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="155" t="s">
+      <c r="C28" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="156"/>
+      <c r="D28" s="131"/>
       <c r="E28" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="131"/>
+      <c r="F28" s="132"/>
       <c r="G28" s="40"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -5429,12 +5429,12 @@
       <c r="BO28" s="65"/>
     </row>
     <row r="29" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A29" s="123"/>
+      <c r="A29" s="116"/>
       <c r="B29" s="37"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="127"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="129"/>
       <c r="E29" s="84"/>
-      <c r="F29" s="113"/>
+      <c r="F29" s="125"/>
       <c r="G29" s="54"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -5498,18 +5498,18 @@
       <c r="BO29" s="67"/>
     </row>
     <row r="30" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A30" s="122">
+      <c r="A30" s="115">
         <v>14</v>
       </c>
       <c r="B30" s="37"/>
-      <c r="C30" s="124" t="s">
+      <c r="C30" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="125"/>
+      <c r="D30" s="127"/>
       <c r="E30" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="143"/>
+      <c r="F30" s="124"/>
       <c r="G30" s="54"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -5573,12 +5573,12 @@
       <c r="BO30" s="67"/>
     </row>
     <row r="31" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A31" s="123"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="127"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="129"/>
       <c r="E31" s="84"/>
-      <c r="F31" s="113"/>
+      <c r="F31" s="125"/>
       <c r="G31" s="54"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -5642,18 +5642,18 @@
       <c r="BO31" s="67"/>
     </row>
     <row r="32" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A32" s="122">
+      <c r="A32" s="115">
         <v>15</v>
       </c>
-      <c r="B32" s="144"/>
-      <c r="C32" s="124" t="s">
+      <c r="B32" s="162"/>
+      <c r="C32" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="125"/>
+      <c r="D32" s="127"/>
       <c r="E32" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="143"/>
+      <c r="F32" s="124"/>
       <c r="G32" s="55"/>
       <c r="H32" s="76"/>
       <c r="I32" s="76"/>
@@ -5717,12 +5717,12 @@
       <c r="BO32" s="64"/>
     </row>
     <row r="33" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A33" s="123"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="127"/>
+      <c r="A33" s="116"/>
+      <c r="B33" s="162"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="129"/>
       <c r="E33" s="84"/>
-      <c r="F33" s="113"/>
+      <c r="F33" s="125"/>
       <c r="G33" s="54"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -5786,18 +5786,18 @@
       <c r="BO33" s="67"/>
     </row>
     <row r="34" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A34" s="122">
+      <c r="A34" s="115">
         <v>16</v>
       </c>
-      <c r="B34" s="144"/>
-      <c r="C34" s="124" t="s">
+      <c r="B34" s="162"/>
+      <c r="C34" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="125"/>
+      <c r="D34" s="127"/>
       <c r="E34" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="143"/>
+      <c r="F34" s="124"/>
       <c r="G34" s="93"/>
       <c r="H34" s="76"/>
       <c r="I34" s="76"/>
@@ -5861,12 +5861,12 @@
       <c r="BO34" s="104"/>
     </row>
     <row r="35" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A35" s="123"/>
-      <c r="B35" s="144"/>
-      <c r="C35" s="126"/>
-      <c r="D35" s="127"/>
+      <c r="A35" s="116"/>
+      <c r="B35" s="162"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="129"/>
       <c r="E35" s="110"/>
-      <c r="F35" s="113"/>
+      <c r="F35" s="125"/>
       <c r="G35" s="54"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -5930,18 +5930,18 @@
       <c r="BO35" s="67"/>
     </row>
     <row r="36" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A36" s="122">
+      <c r="A36" s="115">
         <v>17</v>
       </c>
-      <c r="B36" s="144"/>
-      <c r="C36" s="124" t="s">
+      <c r="B36" s="162"/>
+      <c r="C36" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="125"/>
+      <c r="D36" s="127"/>
       <c r="E36" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="112"/>
+      <c r="F36" s="161"/>
       <c r="G36" s="93"/>
       <c r="H36" s="76"/>
       <c r="I36" s="76"/>
@@ -6005,12 +6005,12 @@
       <c r="BO36" s="104"/>
     </row>
     <row r="37" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A37" s="123"/>
-      <c r="B37" s="144"/>
-      <c r="C37" s="126"/>
-      <c r="D37" s="127"/>
+      <c r="A37" s="116"/>
+      <c r="B37" s="162"/>
+      <c r="C37" s="128"/>
+      <c r="D37" s="129"/>
       <c r="E37" s="110"/>
-      <c r="F37" s="113"/>
+      <c r="F37" s="125"/>
       <c r="G37" s="54"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -6074,18 +6074,18 @@
       <c r="BO37" s="67"/>
     </row>
     <row r="38" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A38" s="122">
+      <c r="A38" s="115">
         <v>18</v>
       </c>
-      <c r="B38" s="144"/>
-      <c r="C38" s="124" t="s">
+      <c r="B38" s="162"/>
+      <c r="C38" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="125"/>
+      <c r="D38" s="127"/>
       <c r="E38" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="143"/>
+      <c r="F38" s="124"/>
       <c r="G38" s="93"/>
       <c r="H38" s="76"/>
       <c r="I38" s="76"/>
@@ -6149,12 +6149,12 @@
       <c r="BO38" s="104"/>
     </row>
     <row r="39" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A39" s="123"/>
-      <c r="B39" s="144"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="127"/>
+      <c r="A39" s="116"/>
+      <c r="B39" s="162"/>
+      <c r="C39" s="128"/>
+      <c r="D39" s="129"/>
       <c r="E39" s="84"/>
-      <c r="F39" s="113"/>
+      <c r="F39" s="125"/>
       <c r="G39" s="54"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -6218,18 +6218,18 @@
       <c r="BO39" s="67"/>
     </row>
     <row r="40" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="122">
+      <c r="A40" s="115">
         <v>19</v>
       </c>
-      <c r="B40" s="144"/>
-      <c r="C40" s="124" t="s">
+      <c r="B40" s="162"/>
+      <c r="C40" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="125"/>
+      <c r="D40" s="127"/>
       <c r="E40" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="112"/>
+      <c r="F40" s="161"/>
       <c r="G40" s="53"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -6293,12 +6293,12 @@
       <c r="BO40" s="63"/>
     </row>
     <row r="41" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="123"/>
-      <c r="B41" s="145"/>
-      <c r="C41" s="141"/>
-      <c r="D41" s="142"/>
+      <c r="A41" s="116"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="159"/>
+      <c r="D41" s="160"/>
       <c r="E41" s="86"/>
-      <c r="F41" s="113"/>
+      <c r="F41" s="125"/>
       <c r="G41" s="54"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
@@ -6362,20 +6362,20 @@
       <c r="BO41" s="67"/>
     </row>
     <row r="42" spans="1:68" ht="12" customHeight="1">
-      <c r="A42" s="116">
+      <c r="A42" s="166">
         <v>20</v>
       </c>
       <c r="B42" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="177" t="s">
+      <c r="C42" s="178" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="178"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="120"/>
+      <c r="F42" s="170"/>
       <c r="G42" s="40"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -6442,12 +6442,12 @@
       <c r="BP42" s="3"/>
     </row>
     <row r="43" spans="1:68" ht="12" customHeight="1">
-      <c r="A43" s="117"/>
+      <c r="A43" s="167"/>
       <c r="B43" s="87"/>
-      <c r="C43" s="173"/>
-      <c r="D43" s="174"/>
+      <c r="C43" s="174"/>
+      <c r="D43" s="175"/>
       <c r="E43" s="85"/>
-      <c r="F43" s="121"/>
+      <c r="F43" s="171"/>
       <c r="G43" s="54"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -6512,16 +6512,16 @@
       <c r="BP43" s="3"/>
     </row>
     <row r="44" spans="1:68" ht="12" customHeight="1">
-      <c r="A44" s="116">
+      <c r="A44" s="166">
         <v>20</v>
       </c>
       <c r="B44" s="87"/>
-      <c r="C44" s="173"/>
-      <c r="D44" s="174"/>
+      <c r="C44" s="174"/>
+      <c r="D44" s="175"/>
       <c r="E44" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="F44" s="119"/>
+      <c r="F44" s="169"/>
       <c r="G44" s="53"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -6588,12 +6588,12 @@
       <c r="BP44" s="3"/>
     </row>
     <row r="45" spans="1:68" ht="12" customHeight="1">
-      <c r="A45" s="117"/>
+      <c r="A45" s="167"/>
       <c r="B45" s="87"/>
-      <c r="C45" s="173"/>
-      <c r="D45" s="174"/>
+      <c r="C45" s="174"/>
+      <c r="D45" s="175"/>
       <c r="E45" s="86"/>
-      <c r="F45" s="179"/>
+      <c r="F45" s="180"/>
       <c r="G45" s="57"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -6658,18 +6658,18 @@
       <c r="BP45" s="3"/>
     </row>
     <row r="46" spans="1:68" ht="12" customHeight="1">
-      <c r="A46" s="116">
+      <c r="A46" s="166">
         <v>21</v>
       </c>
       <c r="B46" s="87"/>
-      <c r="C46" s="177" t="s">
+      <c r="C46" s="178" t="s">
         <v>64</v>
       </c>
-      <c r="D46" s="178"/>
+      <c r="D46" s="179"/>
       <c r="E46" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="120"/>
+      <c r="F46" s="170"/>
       <c r="G46" s="40"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -6736,12 +6736,12 @@
       <c r="BP46" s="3"/>
     </row>
     <row r="47" spans="1:68" ht="12" customHeight="1">
-      <c r="A47" s="117"/>
+      <c r="A47" s="167"/>
       <c r="B47" s="87"/>
-      <c r="C47" s="173"/>
-      <c r="D47" s="174"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="175"/>
       <c r="E47" s="85"/>
-      <c r="F47" s="121"/>
+      <c r="F47" s="171"/>
       <c r="G47" s="54"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -6806,16 +6806,16 @@
       <c r="BP47" s="3"/>
     </row>
     <row r="48" spans="1:68" ht="12" customHeight="1">
-      <c r="A48" s="116">
+      <c r="A48" s="166">
         <v>21</v>
       </c>
       <c r="B48" s="87"/>
-      <c r="C48" s="173"/>
-      <c r="D48" s="174"/>
+      <c r="C48" s="174"/>
+      <c r="D48" s="175"/>
       <c r="E48" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="F48" s="119"/>
+      <c r="F48" s="169"/>
       <c r="G48" s="53"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
@@ -6882,12 +6882,12 @@
       <c r="BP48" s="3"/>
     </row>
     <row r="49" spans="1:68" ht="12" customHeight="1">
-      <c r="A49" s="117"/>
+      <c r="A49" s="167"/>
       <c r="B49" s="87"/>
-      <c r="C49" s="173"/>
-      <c r="D49" s="174"/>
+      <c r="C49" s="174"/>
+      <c r="D49" s="175"/>
       <c r="E49" s="84"/>
-      <c r="F49" s="179"/>
+      <c r="F49" s="180"/>
       <c r="G49" s="57"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -6952,18 +6952,18 @@
       <c r="BP49" s="3"/>
     </row>
     <row r="50" spans="1:68" ht="12" customHeight="1">
-      <c r="A50" s="116">
+      <c r="A50" s="166">
         <v>22</v>
       </c>
       <c r="B50" s="87"/>
-      <c r="C50" s="177" t="s">
+      <c r="C50" s="178" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="178"/>
+      <c r="D50" s="179"/>
       <c r="E50" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="F50" s="120"/>
+      <c r="F50" s="170"/>
       <c r="G50" s="40"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -7030,12 +7030,12 @@
       <c r="BP50" s="3"/>
     </row>
     <row r="51" spans="1:68" ht="12" customHeight="1">
-      <c r="A51" s="117"/>
+      <c r="A51" s="167"/>
       <c r="B51" s="87"/>
-      <c r="C51" s="173"/>
-      <c r="D51" s="174"/>
+      <c r="C51" s="174"/>
+      <c r="D51" s="175"/>
       <c r="E51" s="110"/>
-      <c r="F51" s="121"/>
+      <c r="F51" s="171"/>
       <c r="G51" s="54"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -7100,16 +7100,16 @@
       <c r="BP51" s="3"/>
     </row>
     <row r="52" spans="1:68" ht="12" customHeight="1">
-      <c r="A52" s="116">
+      <c r="A52" s="166">
         <v>22</v>
       </c>
       <c r="B52" s="87"/>
-      <c r="C52" s="173"/>
-      <c r="D52" s="174"/>
+      <c r="C52" s="174"/>
+      <c r="D52" s="175"/>
       <c r="E52" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="F52" s="119"/>
+      <c r="F52" s="169"/>
       <c r="G52" s="53"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
@@ -7176,12 +7176,12 @@
       <c r="BP52" s="3"/>
     </row>
     <row r="53" spans="1:68" ht="12" customHeight="1">
-      <c r="A53" s="117"/>
+      <c r="A53" s="167"/>
       <c r="B53" s="87"/>
-      <c r="C53" s="175"/>
-      <c r="D53" s="176"/>
+      <c r="C53" s="176"/>
+      <c r="D53" s="177"/>
       <c r="E53" s="86"/>
-      <c r="F53" s="179"/>
+      <c r="F53" s="180"/>
       <c r="G53" s="57"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -7246,18 +7246,18 @@
       <c r="BP53" s="3"/>
     </row>
     <row r="54" spans="1:68" ht="12" customHeight="1">
-      <c r="A54" s="116">
+      <c r="A54" s="166">
         <v>24</v>
       </c>
       <c r="B54" s="87"/>
-      <c r="C54" s="177" t="s">
+      <c r="C54" s="178" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="178"/>
+      <c r="D54" s="179"/>
       <c r="E54" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="F54" s="118"/>
+      <c r="F54" s="168"/>
       <c r="G54" s="40"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
@@ -7324,12 +7324,12 @@
       <c r="BP54" s="3"/>
     </row>
     <row r="55" spans="1:68" ht="12" customHeight="1">
-      <c r="A55" s="117"/>
+      <c r="A55" s="167"/>
       <c r="B55" s="87"/>
-      <c r="C55" s="173"/>
-      <c r="D55" s="174"/>
+      <c r="C55" s="174"/>
+      <c r="D55" s="175"/>
       <c r="E55" s="110"/>
-      <c r="F55" s="119"/>
+      <c r="F55" s="169"/>
       <c r="G55" s="54"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
@@ -7394,16 +7394,16 @@
       <c r="BP55" s="3"/>
     </row>
     <row r="56" spans="1:68" ht="12" customHeight="1">
-      <c r="A56" s="116">
+      <c r="A56" s="166">
         <v>24</v>
       </c>
       <c r="B56" s="87"/>
-      <c r="C56" s="173"/>
-      <c r="D56" s="174"/>
+      <c r="C56" s="174"/>
+      <c r="D56" s="175"/>
       <c r="E56" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="F56" s="172"/>
+      <c r="F56" s="173"/>
       <c r="G56" s="53"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
@@ -7470,12 +7470,12 @@
       <c r="BP56" s="3"/>
     </row>
     <row r="57" spans="1:68" ht="12" customHeight="1">
-      <c r="A57" s="117"/>
+      <c r="A57" s="167"/>
       <c r="B57" s="87"/>
-      <c r="C57" s="175"/>
-      <c r="D57" s="176"/>
+      <c r="C57" s="176"/>
+      <c r="D57" s="177"/>
       <c r="E57" s="84"/>
-      <c r="F57" s="140"/>
+      <c r="F57" s="118"/>
       <c r="G57" s="57"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
@@ -7540,18 +7540,18 @@
       <c r="BP57" s="3"/>
     </row>
     <row r="58" spans="1:68" ht="12" customHeight="1">
-      <c r="A58" s="116">
+      <c r="A58" s="166">
         <v>25</v>
       </c>
       <c r="B58" s="87"/>
-      <c r="C58" s="173" t="s">
+      <c r="C58" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="174"/>
+      <c r="D58" s="175"/>
       <c r="E58" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="F58" s="118"/>
+      <c r="F58" s="168"/>
       <c r="G58" s="40"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -7618,12 +7618,12 @@
       <c r="BP58" s="3"/>
     </row>
     <row r="59" spans="1:68" ht="12" customHeight="1">
-      <c r="A59" s="117"/>
+      <c r="A59" s="167"/>
       <c r="B59" s="87"/>
-      <c r="C59" s="173"/>
-      <c r="D59" s="174"/>
+      <c r="C59" s="174"/>
+      <c r="D59" s="175"/>
       <c r="E59" s="110"/>
-      <c r="F59" s="119"/>
+      <c r="F59" s="169"/>
       <c r="G59" s="54"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -7688,16 +7688,16 @@
       <c r="BP59" s="3"/>
     </row>
     <row r="60" spans="1:68" ht="12" customHeight="1">
-      <c r="A60" s="116">
+      <c r="A60" s="166">
         <v>25</v>
       </c>
       <c r="B60" s="87"/>
-      <c r="C60" s="173"/>
-      <c r="D60" s="174"/>
+      <c r="C60" s="174"/>
+      <c r="D60" s="175"/>
       <c r="E60" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="F60" s="172"/>
+      <c r="F60" s="173"/>
       <c r="G60" s="53"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
@@ -7764,12 +7764,12 @@
       <c r="BP60" s="3"/>
     </row>
     <row r="61" spans="1:68" ht="12" customHeight="1">
-      <c r="A61" s="117"/>
+      <c r="A61" s="167"/>
       <c r="B61" s="88"/>
-      <c r="C61" s="175"/>
-      <c r="D61" s="176"/>
+      <c r="C61" s="176"/>
+      <c r="D61" s="177"/>
       <c r="E61" s="84"/>
-      <c r="F61" s="140"/>
+      <c r="F61" s="118"/>
       <c r="G61" s="57"/>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
@@ -7834,16 +7834,16 @@
       <c r="BP61" s="3"/>
     </row>
     <row r="62" spans="1:68" s="3" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A62" s="130">
+      <c r="A62" s="172">
         <v>26</v>
       </c>
       <c r="B62" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="133"/>
-      <c r="D62" s="134"/>
-      <c r="E62" s="135"/>
-      <c r="F62" s="131"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="113"/>
+      <c r="E62" s="114"/>
+      <c r="F62" s="132"/>
       <c r="G62" s="40"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
@@ -7907,12 +7907,12 @@
       <c r="BO62" s="89"/>
     </row>
     <row r="63" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A63" s="123"/>
+      <c r="A63" s="116"/>
       <c r="B63" s="88"/>
-      <c r="C63" s="136"/>
-      <c r="D63" s="137"/>
-      <c r="E63" s="138"/>
-      <c r="F63" s="132"/>
+      <c r="C63" s="139"/>
+      <c r="D63" s="140"/>
+      <c r="E63" s="141"/>
+      <c r="F63" s="138"/>
       <c r="G63" s="56"/>
       <c r="H63" s="45"/>
       <c r="I63" s="45"/>
@@ -7976,8 +7976,8 @@
       <c r="BO63" s="66"/>
     </row>
     <row r="64" spans="1:68">
-      <c r="C64" s="128"/>
-      <c r="D64" s="129"/>
+      <c r="C64" s="164"/>
+      <c r="D64" s="165"/>
       <c r="E64" s="84"/>
       <c r="AD64" s="6"/>
       <c r="AE64" s="6"/>
@@ -7996,8 +7996,8 @@
       <c r="B65" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="129"/>
-      <c r="D65" s="129"/>
+      <c r="C65" s="165"/>
+      <c r="D65" s="165"/>
       <c r="E65" s="84"/>
     </row>
     <row r="66" spans="1:5">
@@ -8019,6 +8019,83 @@
     </row>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="C46:D49"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="C42:D45"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="C58:D61"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="C54:D57"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="C50:D53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B16:B27"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="C1:E3"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="F8:F9"/>
@@ -8043,83 +8120,6 @@
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="C1:E3"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="C58:D61"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="C54:D57"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="C50:D53"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B16:B27"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="C42:D45"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="C46:D49"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -8163,63 +8163,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="10.5" customHeight="1">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="163" t="s">
+      <c r="C1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="165"/>
-      <c r="E1" s="185" t="s">
+      <c r="D1" s="152"/>
+      <c r="E1" s="229" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="149" t="s">
+      <c r="F1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="153">
+      <c r="G1" s="122">
         <v>45078</v>
       </c>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
-      <c r="X1" s="154"/>
-      <c r="Y1" s="154"/>
-      <c r="Z1" s="154"/>
-      <c r="AA1" s="154"/>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="154"/>
-      <c r="AD1" s="154"/>
-      <c r="AE1" s="154"/>
-      <c r="AF1" s="154"/>
-      <c r="AG1" s="154"/>
-      <c r="AH1" s="154"/>
-      <c r="AI1" s="154"/>
-      <c r="AJ1" s="162"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="123"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="123"/>
+      <c r="AJ1" s="142"/>
       <c r="AK1" s="3"/>
     </row>
     <row r="2" spans="1:37" ht="10.5" customHeight="1">
-      <c r="A2" s="181"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="150"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="147"/>
       <c r="G2" s="49">
         <v>42156</v>
       </c>
@@ -8313,12 +8313,12 @@
       <c r="AK2" s="3"/>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="182"/>
-      <c r="B3" s="148"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="151"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="231"/>
+      <c r="F3" s="148"/>
       <c r="G3" s="51" t="s">
         <v>37</v>
       </c>
@@ -8412,20 +8412,20 @@
       <c r="AK3" s="48"/>
     </row>
     <row r="4" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="194">
+      <c r="A4" s="218">
         <v>1</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="195" t="s">
+      <c r="C4" s="219" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="196"/>
-      <c r="E4" s="197" t="s">
+      <c r="D4" s="220"/>
+      <c r="E4" s="221" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="199"/>
+      <c r="F4" s="223"/>
       <c r="G4" s="52"/>
       <c r="H4" s="11"/>
       <c r="I4" s="13"/>
@@ -8454,20 +8454,20 @@
       <c r="AF4" s="11"/>
       <c r="AG4" s="11"/>
       <c r="AH4" s="11"/>
-      <c r="AI4" s="188" t="s">
+      <c r="AI4" s="212" t="s">
         <v>39</v>
       </c>
-      <c r="AJ4" s="188" t="s">
+      <c r="AJ4" s="212" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A5" s="123"/>
+      <c r="A5" s="116"/>
       <c r="B5" s="35"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="198"/>
-      <c r="F5" s="119"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="222"/>
+      <c r="F5" s="169"/>
       <c r="G5" s="53"/>
       <c r="H5" s="10"/>
       <c r="I5" s="17"/>
@@ -8496,22 +8496,22 @@
       <c r="AF5" s="10"/>
       <c r="AG5" s="10"/>
       <c r="AH5" s="10"/>
-      <c r="AI5" s="189"/>
-      <c r="AJ5" s="189"/>
+      <c r="AI5" s="213"/>
+      <c r="AJ5" s="213"/>
     </row>
     <row r="6" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="122">
+      <c r="A6" s="115">
         <v>2</v>
       </c>
       <c r="B6" s="35"/>
-      <c r="C6" s="157" t="s">
+      <c r="C6" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="125"/>
-      <c r="E6" s="191" t="s">
+      <c r="D6" s="127"/>
+      <c r="E6" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="193"/>
+      <c r="F6" s="217"/>
       <c r="G6" s="54"/>
       <c r="H6" s="8"/>
       <c r="I6" s="14"/>
@@ -8540,16 +8540,16 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
-      <c r="AI6" s="189"/>
-      <c r="AJ6" s="189"/>
+      <c r="AI6" s="213"/>
+      <c r="AJ6" s="213"/>
     </row>
     <row r="7" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="123"/>
+      <c r="A7" s="116"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="140"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="118"/>
       <c r="G7" s="55"/>
       <c r="H7" s="25"/>
       <c r="I7" s="26"/>
@@ -8578,24 +8578,24 @@
       <c r="AF7" s="25"/>
       <c r="AG7" s="25"/>
       <c r="AH7" s="25"/>
-      <c r="AI7" s="189"/>
-      <c r="AJ7" s="189"/>
+      <c r="AI7" s="213"/>
+      <c r="AJ7" s="213"/>
     </row>
     <row r="8" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="200">
+      <c r="A8" s="195">
         <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="133" t="s">
+      <c r="C8" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="135"/>
-      <c r="E8" s="202" t="s">
+      <c r="D8" s="114"/>
+      <c r="E8" s="224" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="131"/>
+      <c r="F8" s="132"/>
       <c r="G8" s="40"/>
       <c r="H8" s="7"/>
       <c r="I8" s="16"/>
@@ -8624,16 +8624,16 @@
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
-      <c r="AI8" s="189"/>
-      <c r="AJ8" s="189"/>
+      <c r="AI8" s="213"/>
+      <c r="AJ8" s="213"/>
     </row>
     <row r="9" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="201"/>
+      <c r="A9" s="196"/>
       <c r="B9" s="38"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="203"/>
-      <c r="F9" s="132"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="138"/>
       <c r="G9" s="56"/>
       <c r="H9" s="45"/>
       <c r="I9" s="46"/>
@@ -8662,24 +8662,24 @@
       <c r="AF9" s="45"/>
       <c r="AG9" s="45"/>
       <c r="AH9" s="45"/>
-      <c r="AI9" s="189"/>
-      <c r="AJ9" s="189"/>
+      <c r="AI9" s="213"/>
+      <c r="AJ9" s="213"/>
     </row>
     <row r="10" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="204">
+      <c r="A10" s="205">
         <v>4</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="205" t="s">
+      <c r="C10" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="206"/>
-      <c r="E10" s="209" t="s">
+      <c r="D10" s="226"/>
+      <c r="E10" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="112"/>
+      <c r="F10" s="161"/>
       <c r="G10" s="53"/>
       <c r="H10" s="10"/>
       <c r="I10" s="17"/>
@@ -8708,16 +8708,16 @@
       <c r="AF10" s="10"/>
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
-      <c r="AI10" s="189"/>
-      <c r="AJ10" s="189"/>
+      <c r="AI10" s="213"/>
+      <c r="AJ10" s="213"/>
     </row>
     <row r="11" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A11" s="201"/>
+      <c r="A11" s="196"/>
       <c r="B11" s="37"/>
-      <c r="C11" s="207"/>
-      <c r="D11" s="208"/>
-      <c r="E11" s="210"/>
-      <c r="F11" s="113"/>
+      <c r="C11" s="210"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="198"/>
+      <c r="F11" s="125"/>
       <c r="G11" s="53"/>
       <c r="H11" s="10"/>
       <c r="I11" s="17"/>
@@ -8746,22 +8746,22 @@
       <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
-      <c r="AI11" s="189"/>
-      <c r="AJ11" s="189"/>
+      <c r="AI11" s="213"/>
+      <c r="AJ11" s="213"/>
     </row>
     <row r="12" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A12" s="200">
+      <c r="A12" s="195">
         <v>5</v>
       </c>
       <c r="B12" s="37"/>
-      <c r="C12" s="211" t="s">
+      <c r="C12" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="212"/>
-      <c r="E12" s="213" t="s">
+      <c r="D12" s="209"/>
+      <c r="E12" s="197" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="143"/>
+      <c r="F12" s="124"/>
       <c r="G12" s="54"/>
       <c r="H12" s="8"/>
       <c r="I12" s="14"/>
@@ -8790,16 +8790,16 @@
       <c r="AF12" s="8"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
-      <c r="AI12" s="189"/>
-      <c r="AJ12" s="189"/>
+      <c r="AI12" s="213"/>
+      <c r="AJ12" s="213"/>
     </row>
     <row r="13" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A13" s="201"/>
+      <c r="A13" s="196"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="207"/>
-      <c r="D13" s="208"/>
-      <c r="E13" s="210"/>
-      <c r="F13" s="113"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="211"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="125"/>
       <c r="G13" s="54"/>
       <c r="H13" s="8"/>
       <c r="I13" s="14"/>
@@ -8828,22 +8828,22 @@
       <c r="AF13" s="8"/>
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="189"/>
-      <c r="AJ13" s="189"/>
+      <c r="AI13" s="213"/>
+      <c r="AJ13" s="213"/>
     </row>
     <row r="14" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A14" s="200">
+      <c r="A14" s="195">
         <v>6</v>
       </c>
       <c r="B14" s="37"/>
-      <c r="C14" s="157" t="s">
+      <c r="C14" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="125"/>
-      <c r="E14" s="214" t="s">
+      <c r="D14" s="127"/>
+      <c r="E14" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="143"/>
+      <c r="F14" s="124"/>
       <c r="G14" s="54"/>
       <c r="H14" s="8"/>
       <c r="I14" s="14"/>
@@ -8872,16 +8872,16 @@
       <c r="AF14" s="8"/>
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
-      <c r="AI14" s="189"/>
-      <c r="AJ14" s="189"/>
+      <c r="AI14" s="213"/>
+      <c r="AJ14" s="213"/>
     </row>
     <row r="15" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A15" s="204"/>
+      <c r="A15" s="205"/>
       <c r="B15" s="37"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="209"/>
-      <c r="F15" s="112"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="161"/>
       <c r="G15" s="55"/>
       <c r="H15" s="25"/>
       <c r="I15" s="26"/>
@@ -8910,24 +8910,24 @@
       <c r="AF15" s="25"/>
       <c r="AG15" s="25"/>
       <c r="AH15" s="25"/>
-      <c r="AI15" s="189"/>
-      <c r="AJ15" s="189"/>
+      <c r="AI15" s="213"/>
+      <c r="AJ15" s="213"/>
     </row>
     <row r="16" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="215">
+      <c r="A16" s="203">
         <v>7</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="155" t="s">
+      <c r="C16" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="156"/>
-      <c r="E16" s="216" t="s">
+      <c r="D16" s="131"/>
+      <c r="E16" s="202" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="131"/>
+      <c r="F16" s="132"/>
       <c r="G16" s="40"/>
       <c r="H16" s="7"/>
       <c r="I16" s="16"/>
@@ -8956,16 +8956,16 @@
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
-      <c r="AI16" s="189"/>
-      <c r="AJ16" s="189"/>
+      <c r="AI16" s="213"/>
+      <c r="AJ16" s="213"/>
     </row>
     <row r="17" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="215"/>
+      <c r="A17" s="203"/>
       <c r="B17" s="37"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="210"/>
-      <c r="F17" s="113"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="125"/>
       <c r="G17" s="55"/>
       <c r="H17" s="25"/>
       <c r="I17" s="26"/>
@@ -8994,22 +8994,22 @@
       <c r="AF17" s="25"/>
       <c r="AG17" s="25"/>
       <c r="AH17" s="25"/>
-      <c r="AI17" s="189"/>
-      <c r="AJ17" s="189"/>
+      <c r="AI17" s="213"/>
+      <c r="AJ17" s="213"/>
     </row>
     <row r="18" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="215">
+      <c r="A18" s="203">
         <v>7</v>
       </c>
       <c r="B18" s="37"/>
-      <c r="C18" s="157" t="s">
+      <c r="C18" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="125"/>
-      <c r="E18" s="213" t="s">
+      <c r="D18" s="127"/>
+      <c r="E18" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="143"/>
+      <c r="F18" s="124"/>
       <c r="G18" s="54"/>
       <c r="H18" s="8"/>
       <c r="I18" s="14"/>
@@ -9038,16 +9038,16 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
-      <c r="AI18" s="189"/>
-      <c r="AJ18" s="189"/>
+      <c r="AI18" s="213"/>
+      <c r="AJ18" s="213"/>
     </row>
     <row r="19" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="215"/>
+      <c r="A19" s="203"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="113"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="125"/>
       <c r="G19" s="55"/>
       <c r="H19" s="25"/>
       <c r="I19" s="26"/>
@@ -9076,22 +9076,22 @@
       <c r="AF19" s="25"/>
       <c r="AG19" s="25"/>
       <c r="AH19" s="25"/>
-      <c r="AI19" s="189"/>
-      <c r="AJ19" s="189"/>
+      <c r="AI19" s="213"/>
+      <c r="AJ19" s="213"/>
     </row>
     <row r="20" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="215">
+      <c r="A20" s="203">
         <v>8</v>
       </c>
       <c r="B20" s="37"/>
-      <c r="C20" s="157" t="s">
+      <c r="C20" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="125"/>
-      <c r="E20" s="213" t="s">
+      <c r="D20" s="127"/>
+      <c r="E20" s="197" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="143"/>
+      <c r="F20" s="124"/>
       <c r="G20" s="55"/>
       <c r="H20" s="25"/>
       <c r="I20" s="26"/>
@@ -9120,16 +9120,16 @@
       <c r="AF20" s="25"/>
       <c r="AG20" s="25"/>
       <c r="AH20" s="25"/>
-      <c r="AI20" s="189"/>
-      <c r="AJ20" s="189"/>
+      <c r="AI20" s="213"/>
+      <c r="AJ20" s="213"/>
     </row>
     <row r="21" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="215"/>
+      <c r="A21" s="203"/>
       <c r="B21" s="38"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="132"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="204"/>
+      <c r="F21" s="138"/>
       <c r="G21" s="57"/>
       <c r="H21" s="9"/>
       <c r="I21" s="18"/>
@@ -9158,24 +9158,24 @@
       <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
       <c r="AH21" s="9"/>
-      <c r="AI21" s="189"/>
-      <c r="AJ21" s="189"/>
+      <c r="AI21" s="213"/>
+      <c r="AJ21" s="213"/>
     </row>
     <row r="22" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="200">
+      <c r="A22" s="195">
         <v>9</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="155" t="s">
+      <c r="C22" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="156"/>
-      <c r="E22" s="216" t="s">
+      <c r="D22" s="131"/>
+      <c r="E22" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="131"/>
+      <c r="F22" s="132"/>
       <c r="G22" s="40"/>
       <c r="H22" s="7"/>
       <c r="I22" s="16"/>
@@ -9204,16 +9204,16 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
-      <c r="AI22" s="189"/>
-      <c r="AJ22" s="189"/>
+      <c r="AI22" s="213"/>
+      <c r="AJ22" s="213"/>
     </row>
     <row r="23" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="201"/>
+      <c r="A23" s="196"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="210"/>
-      <c r="F23" s="113"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="125"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="14"/>
@@ -9242,22 +9242,22 @@
       <c r="AF23" s="8"/>
       <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="189"/>
-      <c r="AJ23" s="189"/>
+      <c r="AI23" s="213"/>
+      <c r="AJ23" s="213"/>
     </row>
     <row r="24" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="200">
+      <c r="A24" s="195">
         <v>10</v>
       </c>
       <c r="B24" s="37"/>
-      <c r="C24" s="124" t="s">
+      <c r="C24" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="125"/>
-      <c r="E24" s="213" t="s">
+      <c r="D24" s="127"/>
+      <c r="E24" s="197" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="143"/>
+      <c r="F24" s="124"/>
       <c r="G24" s="54"/>
       <c r="H24" s="8"/>
       <c r="I24" s="14"/>
@@ -9286,16 +9286,16 @@
       <c r="AF24" s="8"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
-      <c r="AI24" s="189"/>
-      <c r="AJ24" s="189"/>
+      <c r="AI24" s="213"/>
+      <c r="AJ24" s="213"/>
     </row>
     <row r="25" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A25" s="201"/>
+      <c r="A25" s="196"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="210"/>
-      <c r="F25" s="113"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="198"/>
+      <c r="F25" s="125"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="14"/>
@@ -9324,22 +9324,22 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
-      <c r="AI25" s="189"/>
-      <c r="AJ25" s="189"/>
+      <c r="AI25" s="213"/>
+      <c r="AJ25" s="213"/>
     </row>
     <row r="26" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A26" s="200">
+      <c r="A26" s="195">
         <v>12</v>
       </c>
       <c r="B26" s="37"/>
-      <c r="C26" s="124" t="s">
+      <c r="C26" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="125"/>
-      <c r="E26" s="213" t="s">
+      <c r="D26" s="127"/>
+      <c r="E26" s="197" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="143"/>
+      <c r="F26" s="124"/>
       <c r="G26" s="55"/>
       <c r="H26" s="25"/>
       <c r="I26" s="26"/>
@@ -9368,16 +9368,16 @@
       <c r="AF26" s="25"/>
       <c r="AG26" s="25"/>
       <c r="AH26" s="25"/>
-      <c r="AI26" s="189"/>
-      <c r="AJ26" s="189"/>
+      <c r="AI26" s="213"/>
+      <c r="AJ26" s="213"/>
     </row>
     <row r="27" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="201"/>
+      <c r="A27" s="196"/>
       <c r="B27" s="38"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="210"/>
-      <c r="F27" s="132"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="198"/>
+      <c r="F27" s="138"/>
       <c r="G27" s="57"/>
       <c r="H27" s="9"/>
       <c r="I27" s="18"/>
@@ -9406,24 +9406,24 @@
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
       <c r="AH27" s="9"/>
-      <c r="AI27" s="189"/>
-      <c r="AJ27" s="189"/>
+      <c r="AI27" s="213"/>
+      <c r="AJ27" s="213"/>
     </row>
     <row r="28" spans="1:37" ht="12" customHeight="1">
-      <c r="A28" s="122">
+      <c r="A28" s="115">
         <v>13</v>
       </c>
       <c r="B28" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="217" t="s">
+      <c r="C28" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="218"/>
-      <c r="E28" s="221" t="s">
+      <c r="D28" s="200"/>
+      <c r="E28" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="120"/>
+      <c r="F28" s="170"/>
       <c r="G28" s="40"/>
       <c r="H28" s="7"/>
       <c r="I28" s="16"/>
@@ -9452,17 +9452,17 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
-      <c r="AI28" s="189"/>
-      <c r="AJ28" s="189"/>
+      <c r="AI28" s="213"/>
+      <c r="AJ28" s="213"/>
       <c r="AK28" s="3"/>
     </row>
     <row r="29" spans="1:37" ht="12" customHeight="1">
-      <c r="A29" s="123"/>
+      <c r="A29" s="116"/>
       <c r="B29" s="35"/>
-      <c r="C29" s="219"/>
-      <c r="D29" s="220"/>
-      <c r="E29" s="222"/>
-      <c r="F29" s="121"/>
+      <c r="C29" s="183"/>
+      <c r="D29" s="184"/>
+      <c r="E29" s="187"/>
+      <c r="F29" s="171"/>
       <c r="G29" s="54"/>
       <c r="H29" s="8"/>
       <c r="I29" s="14"/>
@@ -9491,23 +9491,23 @@
       <c r="AF29" s="8"/>
       <c r="AG29" s="8"/>
       <c r="AH29" s="8"/>
-      <c r="AI29" s="189"/>
-      <c r="AJ29" s="189"/>
+      <c r="AI29" s="213"/>
+      <c r="AJ29" s="213"/>
       <c r="AK29" s="3"/>
     </row>
     <row r="30" spans="1:37" ht="12" customHeight="1">
-      <c r="A30" s="122">
+      <c r="A30" s="115">
         <v>14</v>
       </c>
       <c r="B30" s="35"/>
-      <c r="C30" s="219" t="s">
+      <c r="C30" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="220"/>
-      <c r="E30" s="222" t="s">
+      <c r="D30" s="184"/>
+      <c r="E30" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="121"/>
+      <c r="F30" s="171"/>
       <c r="G30" s="54"/>
       <c r="H30" s="8"/>
       <c r="I30" s="14"/>
@@ -9536,17 +9536,17 @@
       <c r="AF30" s="8"/>
       <c r="AG30" s="8"/>
       <c r="AH30" s="8"/>
-      <c r="AI30" s="189"/>
-      <c r="AJ30" s="189"/>
+      <c r="AI30" s="213"/>
+      <c r="AJ30" s="213"/>
       <c r="AK30" s="3"/>
     </row>
     <row r="31" spans="1:37" ht="12" customHeight="1">
-      <c r="A31" s="123"/>
+      <c r="A31" s="116"/>
       <c r="B31" s="39"/>
-      <c r="C31" s="223"/>
-      <c r="D31" s="224"/>
-      <c r="E31" s="225"/>
-      <c r="F31" s="179"/>
+      <c r="C31" s="185"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="180"/>
       <c r="G31" s="57"/>
       <c r="H31" s="9"/>
       <c r="I31" s="18"/>
@@ -9575,25 +9575,25 @@
       <c r="AF31" s="9"/>
       <c r="AG31" s="9"/>
       <c r="AH31" s="9"/>
-      <c r="AI31" s="189"/>
-      <c r="AJ31" s="189"/>
+      <c r="AI31" s="213"/>
+      <c r="AJ31" s="213"/>
       <c r="AK31" s="3"/>
     </row>
     <row r="32" spans="1:37" ht="12" customHeight="1">
-      <c r="A32" s="122">
+      <c r="A32" s="115">
         <v>15</v>
       </c>
-      <c r="B32" s="227" t="s">
+      <c r="B32" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="155" t="s">
+      <c r="C32" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="156"/>
-      <c r="E32" s="227" t="s">
+      <c r="D32" s="131"/>
+      <c r="E32" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="118"/>
+      <c r="F32" s="168"/>
       <c r="G32" s="40"/>
       <c r="H32" s="7"/>
       <c r="I32" s="16"/>
@@ -9622,17 +9622,17 @@
       <c r="AF32" s="42"/>
       <c r="AG32" s="42"/>
       <c r="AH32" s="42"/>
-      <c r="AI32" s="189"/>
-      <c r="AJ32" s="189"/>
+      <c r="AI32" s="213"/>
+      <c r="AJ32" s="213"/>
       <c r="AK32" s="3"/>
     </row>
     <row r="33" spans="1:37" ht="12" customHeight="1" thickBot="1">
-      <c r="A33" s="226"/>
-      <c r="B33" s="228"/>
-      <c r="C33" s="229"/>
-      <c r="D33" s="230"/>
-      <c r="E33" s="228"/>
-      <c r="F33" s="231"/>
+      <c r="A33" s="189"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="192"/>
+      <c r="D33" s="193"/>
+      <c r="E33" s="191"/>
+      <c r="F33" s="194"/>
       <c r="G33" s="41"/>
       <c r="H33" s="12"/>
       <c r="I33" s="15"/>
@@ -9661,8 +9661,8 @@
       <c r="AF33" s="12"/>
       <c r="AG33" s="12"/>
       <c r="AH33" s="12"/>
-      <c r="AI33" s="190"/>
-      <c r="AJ33" s="190"/>
+      <c r="AI33" s="214"/>
+      <c r="AJ33" s="214"/>
       <c r="AK33" s="3"/>
     </row>
     <row r="34" spans="1:37">
@@ -9683,53 +9683,12 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="AJ4:AJ33"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -9746,12 +9705,53 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS_木村優摩.xlsx
+++ b/000-要件定義/003-WBS_木村優摩.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\演習プロジェクト\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5010CD-F0A1-49DB-B556-817461382E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF19EFE-A82C-4BB0-B2E2-9CF94FD5DAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-975" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="78">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -2036,6 +2036,72 @@
     <xf numFmtId="49" fontId="2" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2045,17 +2111,113 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2066,39 +2228,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2114,139 +2249,112 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2255,15 +2363,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2284,117 +2395,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3104,7 +3104,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AB15" sqref="AB15"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3120,94 +3120,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="10.5" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="150" t="s">
+      <c r="C1" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="151"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="146" t="s">
+      <c r="D1" s="165"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="122">
+      <c r="G1" s="153">
         <v>45901</v>
       </c>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="142"/>
-      <c r="AK1" s="122">
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="154"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="154"/>
+      <c r="S1" s="154"/>
+      <c r="T1" s="154"/>
+      <c r="U1" s="154"/>
+      <c r="V1" s="154"/>
+      <c r="W1" s="154"/>
+      <c r="X1" s="154"/>
+      <c r="Y1" s="154"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="154"/>
+      <c r="AB1" s="154"/>
+      <c r="AC1" s="154"/>
+      <c r="AD1" s="154"/>
+      <c r="AE1" s="154"/>
+      <c r="AF1" s="154"/>
+      <c r="AG1" s="154"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="154"/>
+      <c r="AJ1" s="155"/>
+      <c r="AK1" s="153">
         <v>45931</v>
       </c>
-      <c r="AL1" s="123"/>
-      <c r="AM1" s="123"/>
-      <c r="AN1" s="123"/>
-      <c r="AO1" s="123"/>
-      <c r="AP1" s="123"/>
-      <c r="AQ1" s="123"/>
-      <c r="AR1" s="123"/>
-      <c r="AS1" s="123"/>
-      <c r="AT1" s="123"/>
-      <c r="AU1" s="123"/>
-      <c r="AV1" s="123"/>
-      <c r="AW1" s="123"/>
-      <c r="AX1" s="123"/>
-      <c r="AY1" s="123"/>
-      <c r="AZ1" s="123"/>
-      <c r="BA1" s="123"/>
-      <c r="BB1" s="123"/>
-      <c r="BC1" s="123"/>
-      <c r="BD1" s="123"/>
-      <c r="BE1" s="123"/>
-      <c r="BF1" s="123"/>
-      <c r="BG1" s="123"/>
-      <c r="BH1" s="123"/>
-      <c r="BI1" s="123"/>
-      <c r="BJ1" s="123"/>
-      <c r="BK1" s="123"/>
-      <c r="BL1" s="123"/>
-      <c r="BM1" s="123"/>
-      <c r="BN1" s="123"/>
+      <c r="AL1" s="154"/>
+      <c r="AM1" s="154"/>
+      <c r="AN1" s="154"/>
+      <c r="AO1" s="154"/>
+      <c r="AP1" s="154"/>
+      <c r="AQ1" s="154"/>
+      <c r="AR1" s="154"/>
+      <c r="AS1" s="154"/>
+      <c r="AT1" s="154"/>
+      <c r="AU1" s="154"/>
+      <c r="AV1" s="154"/>
+      <c r="AW1" s="154"/>
+      <c r="AX1" s="154"/>
+      <c r="AY1" s="154"/>
+      <c r="AZ1" s="154"/>
+      <c r="BA1" s="154"/>
+      <c r="BB1" s="154"/>
+      <c r="BC1" s="154"/>
+      <c r="BD1" s="154"/>
+      <c r="BE1" s="154"/>
+      <c r="BF1" s="154"/>
+      <c r="BG1" s="154"/>
+      <c r="BH1" s="154"/>
+      <c r="BI1" s="154"/>
+      <c r="BJ1" s="154"/>
+      <c r="BK1" s="154"/>
+      <c r="BL1" s="154"/>
+      <c r="BM1" s="154"/>
+      <c r="BN1" s="154"/>
       <c r="BO1" s="68"/>
       <c r="BP1" s="3"/>
     </row>
     <row r="2" spans="1:68" ht="10.5" customHeight="1">
-      <c r="A2" s="120"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="147"/>
+      <c r="A2" s="174"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="160"/>
       <c r="G2" s="49">
         <v>42156</v>
       </c>
@@ -3394,12 +3394,12 @@
       <c r="BP2" s="3"/>
     </row>
     <row r="3" spans="1:68" s="2" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A3" s="121"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="148"/>
+      <c r="A3" s="175"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="161"/>
       <c r="G3" s="51" t="s">
         <v>43</v>
       </c>
@@ -3586,18 +3586,18 @@
       <c r="BP3" s="48"/>
     </row>
     <row r="4" spans="1:68" s="3" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A4" s="115">
+      <c r="A4" s="122">
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="134"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="117" t="s">
+      <c r="D4" s="179"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="162" t="s">
         <v>77</v>
       </c>
       <c r="G4" s="95"/>
@@ -3665,12 +3665,12 @@
       <c r="BO4" s="63"/>
     </row>
     <row r="5" spans="1:68" s="3" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A5" s="116"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="35"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="118"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="141"/>
       <c r="G5" s="96"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
@@ -3734,18 +3734,18 @@
       <c r="BO5" s="64"/>
     </row>
     <row r="6" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="115">
+      <c r="A6" s="122">
         <v>2</v>
       </c>
       <c r="B6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="149" t="s">
+      <c r="D6" s="135"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="163" t="s">
         <v>77</v>
       </c>
       <c r="G6" s="40"/>
@@ -3813,12 +3813,12 @@
       <c r="BO6" s="65"/>
     </row>
     <row r="7" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="116"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="38"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="138"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="133"/>
       <c r="G7" s="56"/>
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
@@ -3835,7 +3835,7 @@
       <c r="T7" s="47"/>
       <c r="U7" s="71"/>
       <c r="V7" s="45"/>
-      <c r="W7" s="83"/>
+      <c r="W7" s="45"/>
       <c r="X7" s="45"/>
       <c r="Y7" s="45"/>
       <c r="Z7" s="46"/>
@@ -3882,18 +3882,18 @@
       <c r="BO7" s="66"/>
     </row>
     <row r="8" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="115">
+      <c r="A8" s="122">
         <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="113"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="117" t="s">
+      <c r="D8" s="135"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="162" t="s">
         <v>77</v>
       </c>
       <c r="G8" s="40"/>
@@ -3961,12 +3961,12 @@
       <c r="BO8" s="65"/>
     </row>
     <row r="9" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="116"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="38"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="118"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="141"/>
       <c r="G9" s="56"/>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
@@ -4030,18 +4030,18 @@
       <c r="BO9" s="66"/>
     </row>
     <row r="10" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A10" s="115">
+      <c r="A10" s="122">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="117" t="s">
+      <c r="D10" s="135"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="162" t="s">
         <v>77</v>
       </c>
       <c r="G10" s="40"/>
@@ -4109,12 +4109,12 @@
       <c r="BO10" s="65"/>
     </row>
     <row r="11" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A11" s="116"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="38"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="118"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="141"/>
       <c r="G11" s="56"/>
       <c r="H11" s="83"/>
       <c r="I11" s="83"/>
@@ -4178,18 +4178,18 @@
       <c r="BO11" s="66"/>
     </row>
     <row r="12" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A12" s="115">
+      <c r="A12" s="122">
         <v>5</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="117" t="s">
+      <c r="D12" s="135"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="162" t="s">
         <v>77</v>
       </c>
       <c r="G12" s="40"/>
@@ -4257,12 +4257,12 @@
       <c r="BO12" s="65"/>
     </row>
     <row r="13" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A13" s="116"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="38"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="118"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="141"/>
       <c r="G13" s="56"/>
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
@@ -4326,17 +4326,17 @@
       <c r="BO13" s="66"/>
     </row>
     <row r="14" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A14" s="115">
+      <c r="A14" s="122">
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="112" t="s">
+      <c r="C14" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="136"/>
       <c r="F14" s="132" t="s">
         <v>76</v>
       </c>
@@ -4377,7 +4377,9 @@
       <c r="AM14" s="72"/>
       <c r="AN14" s="16"/>
       <c r="AO14" s="22"/>
-      <c r="AP14" s="7"/>
+      <c r="AP14" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="AQ14" s="7"/>
       <c r="AR14" s="7"/>
       <c r="AS14" s="7"/>
@@ -4405,12 +4407,12 @@
       <c r="BO14" s="65"/>
     </row>
     <row r="15" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A15" s="116"/>
+      <c r="A15" s="123"/>
       <c r="B15" s="38"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="138"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="133"/>
       <c r="G15" s="56"/>
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
@@ -4474,16 +4476,16 @@
       <c r="BO15" s="66"/>
     </row>
     <row r="16" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="115">
+      <c r="A16" s="122">
         <v>7</v>
       </c>
-      <c r="B16" s="181" t="s">
+      <c r="B16" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="126" t="s">
+      <c r="C16" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="127"/>
+      <c r="D16" s="125"/>
       <c r="E16" s="84" t="s">
         <v>72</v>
       </c>
@@ -4553,12 +4555,12 @@
       <c r="BO16" s="65"/>
     </row>
     <row r="17" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="116"/>
-      <c r="B17" s="181"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="129"/>
+      <c r="A17" s="123"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="127"/>
       <c r="E17" s="90"/>
-      <c r="F17" s="125"/>
+      <c r="F17" s="145"/>
       <c r="G17" s="54"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -4622,18 +4624,18 @@
       <c r="BO17" s="64"/>
     </row>
     <row r="18" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="115">
+      <c r="A18" s="122">
         <v>8</v>
       </c>
-      <c r="B18" s="181"/>
-      <c r="C18" s="126" t="s">
+      <c r="B18" s="147"/>
+      <c r="C18" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="127"/>
+      <c r="D18" s="125"/>
       <c r="E18" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="124"/>
+      <c r="F18" s="144"/>
       <c r="G18" s="53"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -4699,12 +4701,12 @@
       <c r="BO18" s="67"/>
     </row>
     <row r="19" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="116"/>
-      <c r="B19" s="181"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="129"/>
+      <c r="A19" s="123"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="127"/>
       <c r="E19" s="90"/>
-      <c r="F19" s="125"/>
+      <c r="F19" s="145"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -4768,18 +4770,18 @@
       <c r="BO19" s="64"/>
     </row>
     <row r="20" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="115">
+      <c r="A20" s="122">
         <v>9</v>
       </c>
-      <c r="B20" s="181"/>
-      <c r="C20" s="126" t="s">
+      <c r="B20" s="147"/>
+      <c r="C20" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="127"/>
+      <c r="D20" s="125"/>
       <c r="E20" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="124"/>
+      <c r="F20" s="144"/>
       <c r="G20" s="53"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -4845,12 +4847,12 @@
       <c r="BO20" s="67"/>
     </row>
     <row r="21" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="116"/>
-      <c r="B21" s="181"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="129"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="127"/>
       <c r="E21" s="90"/>
-      <c r="F21" s="125"/>
+      <c r="F21" s="145"/>
       <c r="G21" s="54"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -4914,18 +4916,18 @@
       <c r="BO21" s="64"/>
     </row>
     <row r="22" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="115">
+      <c r="A22" s="122">
         <v>10</v>
       </c>
-      <c r="B22" s="181"/>
-      <c r="C22" s="126" t="s">
+      <c r="B22" s="147"/>
+      <c r="C22" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="127"/>
+      <c r="D22" s="125"/>
       <c r="E22" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="161"/>
+      <c r="F22" s="146"/>
       <c r="G22" s="53"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -4991,12 +4993,12 @@
       <c r="BO22" s="67"/>
     </row>
     <row r="23" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="116"/>
-      <c r="B23" s="181"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="129"/>
+      <c r="A23" s="123"/>
+      <c r="B23" s="147"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="127"/>
       <c r="E23" s="90"/>
-      <c r="F23" s="161"/>
+      <c r="F23" s="146"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5060,18 +5062,18 @@
       <c r="BO23" s="67"/>
     </row>
     <row r="24" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="115">
+      <c r="A24" s="122">
         <v>11</v>
       </c>
-      <c r="B24" s="181"/>
-      <c r="C24" s="126" t="s">
+      <c r="B24" s="147"/>
+      <c r="C24" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="127"/>
+      <c r="D24" s="125"/>
       <c r="E24" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="124"/>
+      <c r="F24" s="144"/>
       <c r="G24" s="53"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -5137,12 +5139,12 @@
       <c r="BO24" s="63"/>
     </row>
     <row r="25" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A25" s="116"/>
-      <c r="B25" s="181"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="129"/>
+      <c r="A25" s="123"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="127"/>
       <c r="E25" s="90"/>
-      <c r="F25" s="125"/>
+      <c r="F25" s="145"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -5206,18 +5208,18 @@
       <c r="BO25" s="67"/>
     </row>
     <row r="26" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A26" s="115">
+      <c r="A26" s="122">
         <v>12</v>
       </c>
-      <c r="B26" s="181"/>
-      <c r="C26" s="126" t="s">
+      <c r="B26" s="147"/>
+      <c r="C26" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="127"/>
+      <c r="D26" s="125"/>
       <c r="E26" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="161"/>
+      <c r="F26" s="146"/>
       <c r="G26" s="53"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -5283,12 +5285,12 @@
       <c r="BO26" s="63"/>
     </row>
     <row r="27" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="116"/>
-      <c r="B27" s="182"/>
-      <c r="C27" s="128"/>
-      <c r="D27" s="129"/>
+      <c r="A27" s="123"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="127"/>
       <c r="E27" s="90"/>
-      <c r="F27" s="125"/>
+      <c r="F27" s="145"/>
       <c r="G27" s="55"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
@@ -5352,16 +5354,16 @@
       <c r="BO27" s="64"/>
     </row>
     <row r="28" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A28" s="115">
+      <c r="A28" s="122">
         <v>13</v>
       </c>
       <c r="B28" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="130" t="s">
+      <c r="C28" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="131"/>
+      <c r="D28" s="177"/>
       <c r="E28" s="91" t="s">
         <v>71</v>
       </c>
@@ -5429,12 +5431,12 @@
       <c r="BO28" s="65"/>
     </row>
     <row r="29" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A29" s="116"/>
+      <c r="A29" s="123"/>
       <c r="B29" s="37"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="129"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="127"/>
       <c r="E29" s="84"/>
-      <c r="F29" s="125"/>
+      <c r="F29" s="145"/>
       <c r="G29" s="54"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -5498,18 +5500,18 @@
       <c r="BO29" s="67"/>
     </row>
     <row r="30" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A30" s="115">
+      <c r="A30" s="122">
         <v>14</v>
       </c>
       <c r="B30" s="37"/>
-      <c r="C30" s="126" t="s">
+      <c r="C30" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="127"/>
+      <c r="D30" s="125"/>
       <c r="E30" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="124"/>
+      <c r="F30" s="144"/>
       <c r="G30" s="54"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -5573,12 +5575,12 @@
       <c r="BO30" s="67"/>
     </row>
     <row r="31" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A31" s="116"/>
-      <c r="B31" s="162"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="129"/>
+      <c r="A31" s="123"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="127"/>
       <c r="E31" s="84"/>
-      <c r="F31" s="125"/>
+      <c r="F31" s="145"/>
       <c r="G31" s="54"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -5642,18 +5644,18 @@
       <c r="BO31" s="67"/>
     </row>
     <row r="32" spans="1:67" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A32" s="115">
+      <c r="A32" s="122">
         <v>15</v>
       </c>
-      <c r="B32" s="162"/>
-      <c r="C32" s="126" t="s">
+      <c r="B32" s="151"/>
+      <c r="C32" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="127"/>
+      <c r="D32" s="125"/>
       <c r="E32" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="124"/>
+      <c r="F32" s="144"/>
       <c r="G32" s="55"/>
       <c r="H32" s="76"/>
       <c r="I32" s="76"/>
@@ -5717,12 +5719,12 @@
       <c r="BO32" s="64"/>
     </row>
     <row r="33" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A33" s="116"/>
-      <c r="B33" s="162"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="129"/>
+      <c r="A33" s="123"/>
+      <c r="B33" s="151"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="127"/>
       <c r="E33" s="84"/>
-      <c r="F33" s="125"/>
+      <c r="F33" s="145"/>
       <c r="G33" s="54"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -5786,18 +5788,18 @@
       <c r="BO33" s="67"/>
     </row>
     <row r="34" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A34" s="115">
+      <c r="A34" s="122">
         <v>16</v>
       </c>
-      <c r="B34" s="162"/>
-      <c r="C34" s="126" t="s">
+      <c r="B34" s="151"/>
+      <c r="C34" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="127"/>
+      <c r="D34" s="125"/>
       <c r="E34" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="124"/>
+      <c r="F34" s="144"/>
       <c r="G34" s="93"/>
       <c r="H34" s="76"/>
       <c r="I34" s="76"/>
@@ -5861,12 +5863,12 @@
       <c r="BO34" s="104"/>
     </row>
     <row r="35" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A35" s="116"/>
-      <c r="B35" s="162"/>
-      <c r="C35" s="128"/>
-      <c r="D35" s="129"/>
+      <c r="A35" s="123"/>
+      <c r="B35" s="151"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="127"/>
       <c r="E35" s="110"/>
-      <c r="F35" s="125"/>
+      <c r="F35" s="145"/>
       <c r="G35" s="54"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
@@ -5930,18 +5932,18 @@
       <c r="BO35" s="67"/>
     </row>
     <row r="36" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A36" s="115">
+      <c r="A36" s="122">
         <v>17</v>
       </c>
-      <c r="B36" s="162"/>
-      <c r="C36" s="126" t="s">
+      <c r="B36" s="151"/>
+      <c r="C36" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="127"/>
+      <c r="D36" s="125"/>
       <c r="E36" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="161"/>
+      <c r="F36" s="146"/>
       <c r="G36" s="93"/>
       <c r="H36" s="76"/>
       <c r="I36" s="76"/>
@@ -6005,12 +6007,12 @@
       <c r="BO36" s="104"/>
     </row>
     <row r="37" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A37" s="116"/>
-      <c r="B37" s="162"/>
-      <c r="C37" s="128"/>
-      <c r="D37" s="129"/>
+      <c r="A37" s="123"/>
+      <c r="B37" s="151"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="127"/>
       <c r="E37" s="110"/>
-      <c r="F37" s="125"/>
+      <c r="F37" s="145"/>
       <c r="G37" s="54"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -6074,18 +6076,18 @@
       <c r="BO37" s="67"/>
     </row>
     <row r="38" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A38" s="115">
+      <c r="A38" s="122">
         <v>18</v>
       </c>
-      <c r="B38" s="162"/>
-      <c r="C38" s="126" t="s">
+      <c r="B38" s="151"/>
+      <c r="C38" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="127"/>
+      <c r="D38" s="125"/>
       <c r="E38" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="124"/>
+      <c r="F38" s="144"/>
       <c r="G38" s="93"/>
       <c r="H38" s="76"/>
       <c r="I38" s="76"/>
@@ -6149,12 +6151,12 @@
       <c r="BO38" s="104"/>
     </row>
     <row r="39" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A39" s="116"/>
-      <c r="B39" s="162"/>
-      <c r="C39" s="128"/>
-      <c r="D39" s="129"/>
+      <c r="A39" s="123"/>
+      <c r="B39" s="151"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="127"/>
       <c r="E39" s="84"/>
-      <c r="F39" s="125"/>
+      <c r="F39" s="145"/>
       <c r="G39" s="54"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -6218,18 +6220,18 @@
       <c r="BO39" s="67"/>
     </row>
     <row r="40" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="115">
+      <c r="A40" s="122">
         <v>19</v>
       </c>
-      <c r="B40" s="162"/>
-      <c r="C40" s="126" t="s">
+      <c r="B40" s="151"/>
+      <c r="C40" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="127"/>
+      <c r="D40" s="125"/>
       <c r="E40" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="161"/>
+      <c r="F40" s="146"/>
       <c r="G40" s="53"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -6293,12 +6295,12 @@
       <c r="BO40" s="63"/>
     </row>
     <row r="41" spans="1:68" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="116"/>
-      <c r="B41" s="163"/>
-      <c r="C41" s="159"/>
-      <c r="D41" s="160"/>
+      <c r="A41" s="123"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="149"/>
+      <c r="D41" s="150"/>
       <c r="E41" s="86"/>
-      <c r="F41" s="125"/>
+      <c r="F41" s="145"/>
       <c r="G41" s="54"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
@@ -6362,20 +6364,20 @@
       <c r="BO41" s="67"/>
     </row>
     <row r="42" spans="1:68" ht="12" customHeight="1">
-      <c r="A42" s="166">
+      <c r="A42" s="112">
         <v>20</v>
       </c>
       <c r="B42" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="178" t="s">
+      <c r="C42" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="179"/>
+      <c r="D42" s="117"/>
       <c r="E42" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="170"/>
+      <c r="F42" s="120"/>
       <c r="G42" s="40"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -6442,12 +6444,12 @@
       <c r="BP42" s="3"/>
     </row>
     <row r="43" spans="1:68" ht="12" customHeight="1">
-      <c r="A43" s="167"/>
+      <c r="A43" s="113"/>
       <c r="B43" s="87"/>
-      <c r="C43" s="174"/>
-      <c r="D43" s="175"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="119"/>
       <c r="E43" s="85"/>
-      <c r="F43" s="171"/>
+      <c r="F43" s="121"/>
       <c r="G43" s="54"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -6512,16 +6514,16 @@
       <c r="BP43" s="3"/>
     </row>
     <row r="44" spans="1:68" ht="12" customHeight="1">
-      <c r="A44" s="166">
+      <c r="A44" s="112">
         <v>20</v>
       </c>
       <c r="B44" s="87"/>
-      <c r="C44" s="174"/>
-      <c r="D44" s="175"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="119"/>
       <c r="E44" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="F44" s="169"/>
+      <c r="F44" s="114"/>
       <c r="G44" s="53"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -6588,12 +6590,12 @@
       <c r="BP44" s="3"/>
     </row>
     <row r="45" spans="1:68" ht="12" customHeight="1">
-      <c r="A45" s="167"/>
+      <c r="A45" s="113"/>
       <c r="B45" s="87"/>
-      <c r="C45" s="174"/>
-      <c r="D45" s="175"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="119"/>
       <c r="E45" s="86"/>
-      <c r="F45" s="180"/>
+      <c r="F45" s="115"/>
       <c r="G45" s="57"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -6658,18 +6660,18 @@
       <c r="BP45" s="3"/>
     </row>
     <row r="46" spans="1:68" ht="12" customHeight="1">
-      <c r="A46" s="166">
+      <c r="A46" s="112">
         <v>21</v>
       </c>
       <c r="B46" s="87"/>
-      <c r="C46" s="178" t="s">
+      <c r="C46" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="D46" s="179"/>
+      <c r="D46" s="117"/>
       <c r="E46" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="170"/>
+      <c r="F46" s="120"/>
       <c r="G46" s="40"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -6736,12 +6738,12 @@
       <c r="BP46" s="3"/>
     </row>
     <row r="47" spans="1:68" ht="12" customHeight="1">
-      <c r="A47" s="167"/>
+      <c r="A47" s="113"/>
       <c r="B47" s="87"/>
-      <c r="C47" s="174"/>
-      <c r="D47" s="175"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="119"/>
       <c r="E47" s="85"/>
-      <c r="F47" s="171"/>
+      <c r="F47" s="121"/>
       <c r="G47" s="54"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -6806,16 +6808,16 @@
       <c r="BP47" s="3"/>
     </row>
     <row r="48" spans="1:68" ht="12" customHeight="1">
-      <c r="A48" s="166">
+      <c r="A48" s="112">
         <v>21</v>
       </c>
       <c r="B48" s="87"/>
-      <c r="C48" s="174"/>
-      <c r="D48" s="175"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="119"/>
       <c r="E48" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="F48" s="169"/>
+      <c r="F48" s="114"/>
       <c r="G48" s="53"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
@@ -6882,12 +6884,12 @@
       <c r="BP48" s="3"/>
     </row>
     <row r="49" spans="1:68" ht="12" customHeight="1">
-      <c r="A49" s="167"/>
+      <c r="A49" s="113"/>
       <c r="B49" s="87"/>
-      <c r="C49" s="174"/>
-      <c r="D49" s="175"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="119"/>
       <c r="E49" s="84"/>
-      <c r="F49" s="180"/>
+      <c r="F49" s="115"/>
       <c r="G49" s="57"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -6952,18 +6954,18 @@
       <c r="BP49" s="3"/>
     </row>
     <row r="50" spans="1:68" ht="12" customHeight="1">
-      <c r="A50" s="166">
+      <c r="A50" s="112">
         <v>22</v>
       </c>
       <c r="B50" s="87"/>
-      <c r="C50" s="178" t="s">
+      <c r="C50" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="179"/>
+      <c r="D50" s="117"/>
       <c r="E50" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="F50" s="170"/>
+      <c r="F50" s="120"/>
       <c r="G50" s="40"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -7030,12 +7032,12 @@
       <c r="BP50" s="3"/>
     </row>
     <row r="51" spans="1:68" ht="12" customHeight="1">
-      <c r="A51" s="167"/>
+      <c r="A51" s="113"/>
       <c r="B51" s="87"/>
-      <c r="C51" s="174"/>
-      <c r="D51" s="175"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="119"/>
       <c r="E51" s="110"/>
-      <c r="F51" s="171"/>
+      <c r="F51" s="121"/>
       <c r="G51" s="54"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -7100,16 +7102,16 @@
       <c r="BP51" s="3"/>
     </row>
     <row r="52" spans="1:68" ht="12" customHeight="1">
-      <c r="A52" s="166">
+      <c r="A52" s="112">
         <v>22</v>
       </c>
       <c r="B52" s="87"/>
-      <c r="C52" s="174"/>
-      <c r="D52" s="175"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="119"/>
       <c r="E52" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="F52" s="169"/>
+      <c r="F52" s="114"/>
       <c r="G52" s="53"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
@@ -7176,12 +7178,12 @@
       <c r="BP52" s="3"/>
     </row>
     <row r="53" spans="1:68" ht="12" customHeight="1">
-      <c r="A53" s="167"/>
+      <c r="A53" s="113"/>
       <c r="B53" s="87"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="177"/>
+      <c r="C53" s="142"/>
+      <c r="D53" s="143"/>
       <c r="E53" s="86"/>
-      <c r="F53" s="180"/>
+      <c r="F53" s="115"/>
       <c r="G53" s="57"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -7246,18 +7248,18 @@
       <c r="BP53" s="3"/>
     </row>
     <row r="54" spans="1:68" ht="12" customHeight="1">
-      <c r="A54" s="166">
+      <c r="A54" s="112">
         <v>24</v>
       </c>
       <c r="B54" s="87"/>
-      <c r="C54" s="178" t="s">
+      <c r="C54" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="179"/>
+      <c r="D54" s="117"/>
       <c r="E54" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="F54" s="168"/>
+      <c r="F54" s="130"/>
       <c r="G54" s="40"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
@@ -7324,12 +7326,12 @@
       <c r="BP54" s="3"/>
     </row>
     <row r="55" spans="1:68" ht="12" customHeight="1">
-      <c r="A55" s="167"/>
+      <c r="A55" s="113"/>
       <c r="B55" s="87"/>
-      <c r="C55" s="174"/>
-      <c r="D55" s="175"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="119"/>
       <c r="E55" s="110"/>
-      <c r="F55" s="169"/>
+      <c r="F55" s="114"/>
       <c r="G55" s="54"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
@@ -7394,16 +7396,16 @@
       <c r="BP55" s="3"/>
     </row>
     <row r="56" spans="1:68" ht="12" customHeight="1">
-      <c r="A56" s="166">
+      <c r="A56" s="112">
         <v>24</v>
       </c>
       <c r="B56" s="87"/>
-      <c r="C56" s="174"/>
-      <c r="D56" s="175"/>
+      <c r="C56" s="118"/>
+      <c r="D56" s="119"/>
       <c r="E56" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="F56" s="173"/>
+      <c r="F56" s="140"/>
       <c r="G56" s="53"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
@@ -7470,12 +7472,12 @@
       <c r="BP56" s="3"/>
     </row>
     <row r="57" spans="1:68" ht="12" customHeight="1">
-      <c r="A57" s="167"/>
+      <c r="A57" s="113"/>
       <c r="B57" s="87"/>
-      <c r="C57" s="176"/>
-      <c r="D57" s="177"/>
+      <c r="C57" s="142"/>
+      <c r="D57" s="143"/>
       <c r="E57" s="84"/>
-      <c r="F57" s="118"/>
+      <c r="F57" s="141"/>
       <c r="G57" s="57"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
@@ -7540,18 +7542,18 @@
       <c r="BP57" s="3"/>
     </row>
     <row r="58" spans="1:68" ht="12" customHeight="1">
-      <c r="A58" s="166">
+      <c r="A58" s="112">
         <v>25</v>
       </c>
       <c r="B58" s="87"/>
-      <c r="C58" s="174" t="s">
+      <c r="C58" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="175"/>
+      <c r="D58" s="119"/>
       <c r="E58" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="F58" s="168"/>
+      <c r="F58" s="130"/>
       <c r="G58" s="40"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -7618,12 +7620,12 @@
       <c r="BP58" s="3"/>
     </row>
     <row r="59" spans="1:68" ht="12" customHeight="1">
-      <c r="A59" s="167"/>
+      <c r="A59" s="113"/>
       <c r="B59" s="87"/>
-      <c r="C59" s="174"/>
-      <c r="D59" s="175"/>
+      <c r="C59" s="118"/>
+      <c r="D59" s="119"/>
       <c r="E59" s="110"/>
-      <c r="F59" s="169"/>
+      <c r="F59" s="114"/>
       <c r="G59" s="54"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -7688,16 +7690,16 @@
       <c r="BP59" s="3"/>
     </row>
     <row r="60" spans="1:68" ht="12" customHeight="1">
-      <c r="A60" s="166">
+      <c r="A60" s="112">
         <v>25</v>
       </c>
       <c r="B60" s="87"/>
-      <c r="C60" s="174"/>
-      <c r="D60" s="175"/>
+      <c r="C60" s="118"/>
+      <c r="D60" s="119"/>
       <c r="E60" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="F60" s="173"/>
+      <c r="F60" s="140"/>
       <c r="G60" s="53"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
@@ -7764,12 +7766,12 @@
       <c r="BP60" s="3"/>
     </row>
     <row r="61" spans="1:68" ht="12" customHeight="1">
-      <c r="A61" s="167"/>
+      <c r="A61" s="113"/>
       <c r="B61" s="88"/>
-      <c r="C61" s="176"/>
-      <c r="D61" s="177"/>
+      <c r="C61" s="142"/>
+      <c r="D61" s="143"/>
       <c r="E61" s="84"/>
-      <c r="F61" s="118"/>
+      <c r="F61" s="141"/>
       <c r="G61" s="57"/>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
@@ -7834,15 +7836,15 @@
       <c r="BP61" s="3"/>
     </row>
     <row r="62" spans="1:68" s="3" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A62" s="172">
+      <c r="A62" s="131">
         <v>26</v>
       </c>
       <c r="B62" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="112"/>
-      <c r="D62" s="113"/>
-      <c r="E62" s="114"/>
+      <c r="C62" s="134"/>
+      <c r="D62" s="135"/>
+      <c r="E62" s="136"/>
       <c r="F62" s="132"/>
       <c r="G62" s="40"/>
       <c r="H62" s="7"/>
@@ -7907,12 +7909,12 @@
       <c r="BO62" s="89"/>
     </row>
     <row r="63" spans="1:68" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A63" s="116"/>
+      <c r="A63" s="123"/>
       <c r="B63" s="88"/>
-      <c r="C63" s="139"/>
-      <c r="D63" s="140"/>
-      <c r="E63" s="141"/>
-      <c r="F63" s="138"/>
+      <c r="C63" s="137"/>
+      <c r="D63" s="138"/>
+      <c r="E63" s="139"/>
+      <c r="F63" s="133"/>
       <c r="G63" s="56"/>
       <c r="H63" s="45"/>
       <c r="I63" s="45"/>
@@ -7976,8 +7978,8 @@
       <c r="BO63" s="66"/>
     </row>
     <row r="64" spans="1:68">
-      <c r="C64" s="164"/>
-      <c r="D64" s="165"/>
+      <c r="C64" s="128"/>
+      <c r="D64" s="129"/>
       <c r="E64" s="84"/>
       <c r="AD64" s="6"/>
       <c r="AE64" s="6"/>
@@ -7996,8 +7998,8 @@
       <c r="B65" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="165"/>
-      <c r="D65" s="165"/>
+      <c r="C65" s="129"/>
+      <c r="D65" s="129"/>
       <c r="E65" s="84"/>
     </row>
     <row r="66" spans="1:5">
@@ -8019,18 +8021,63 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="C46:D49"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="C42:D45"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="C1:E3"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B16:B27"/>
     <mergeCell ref="C64:D65"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="F58:F59"/>
@@ -8051,17 +8098,19 @@
     <mergeCell ref="C50:D53"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="F54:F55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="C46:D49"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="C42:D45"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B16:B27"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="C40:D41"/>
     <mergeCell ref="F38:F39"/>
@@ -8073,53 +8122,6 @@
     <mergeCell ref="C36:D37"/>
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="C1:E3"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -8163,63 +8165,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="10.5" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="150" t="s">
+      <c r="C1" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="152"/>
-      <c r="E1" s="229" t="s">
+      <c r="D1" s="166"/>
+      <c r="E1" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="146" t="s">
+      <c r="F1" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="122">
+      <c r="G1" s="153">
         <v>45078</v>
       </c>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="142"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="154"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="154"/>
+      <c r="S1" s="154"/>
+      <c r="T1" s="154"/>
+      <c r="U1" s="154"/>
+      <c r="V1" s="154"/>
+      <c r="W1" s="154"/>
+      <c r="X1" s="154"/>
+      <c r="Y1" s="154"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="154"/>
+      <c r="AB1" s="154"/>
+      <c r="AC1" s="154"/>
+      <c r="AD1" s="154"/>
+      <c r="AE1" s="154"/>
+      <c r="AF1" s="154"/>
+      <c r="AG1" s="154"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="154"/>
+      <c r="AJ1" s="155"/>
       <c r="AK1" s="3"/>
     </row>
     <row r="2" spans="1:37" ht="10.5" customHeight="1">
-      <c r="A2" s="120"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="147"/>
+      <c r="A2" s="174"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="160"/>
       <c r="G2" s="49">
         <v>42156</v>
       </c>
@@ -8313,12 +8315,12 @@
       <c r="AK2" s="3"/>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="121"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="231"/>
-      <c r="F3" s="148"/>
+      <c r="A3" s="175"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="161"/>
       <c r="G3" s="51" t="s">
         <v>37</v>
       </c>
@@ -8412,20 +8414,20 @@
       <c r="AK3" s="48"/>
     </row>
     <row r="4" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="218">
+      <c r="A4" s="194">
         <v>1</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="219" t="s">
+      <c r="C4" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="220"/>
-      <c r="E4" s="221" t="s">
+      <c r="D4" s="196"/>
+      <c r="E4" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="223"/>
+      <c r="F4" s="199"/>
       <c r="G4" s="52"/>
       <c r="H4" s="11"/>
       <c r="I4" s="13"/>
@@ -8454,20 +8456,20 @@
       <c r="AF4" s="11"/>
       <c r="AG4" s="11"/>
       <c r="AH4" s="11"/>
-      <c r="AI4" s="212" t="s">
+      <c r="AI4" s="188" t="s">
         <v>39</v>
       </c>
-      <c r="AJ4" s="212" t="s">
+      <c r="AJ4" s="188" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A5" s="116"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="35"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="222"/>
-      <c r="F5" s="169"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="114"/>
       <c r="G5" s="53"/>
       <c r="H5" s="10"/>
       <c r="I5" s="17"/>
@@ -8496,22 +8498,22 @@
       <c r="AF5" s="10"/>
       <c r="AG5" s="10"/>
       <c r="AH5" s="10"/>
-      <c r="AI5" s="213"/>
-      <c r="AJ5" s="213"/>
+      <c r="AI5" s="189"/>
+      <c r="AJ5" s="189"/>
     </row>
     <row r="6" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="115">
+      <c r="A6" s="122">
         <v>2</v>
       </c>
       <c r="B6" s="35"/>
-      <c r="C6" s="133" t="s">
+      <c r="C6" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="127"/>
-      <c r="E6" s="215" t="s">
+      <c r="D6" s="125"/>
+      <c r="E6" s="191" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="217"/>
+      <c r="F6" s="193"/>
       <c r="G6" s="54"/>
       <c r="H6" s="8"/>
       <c r="I6" s="14"/>
@@ -8540,16 +8542,16 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
-      <c r="AI6" s="213"/>
-      <c r="AJ6" s="213"/>
+      <c r="AI6" s="189"/>
+      <c r="AJ6" s="189"/>
     </row>
     <row r="7" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="116"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="118"/>
+      <c r="C7" s="180"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="141"/>
       <c r="G7" s="55"/>
       <c r="H7" s="25"/>
       <c r="I7" s="26"/>
@@ -8578,21 +8580,21 @@
       <c r="AF7" s="25"/>
       <c r="AG7" s="25"/>
       <c r="AH7" s="25"/>
-      <c r="AI7" s="213"/>
-      <c r="AJ7" s="213"/>
+      <c r="AI7" s="189"/>
+      <c r="AJ7" s="189"/>
     </row>
     <row r="8" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="195">
+      <c r="A8" s="200">
         <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="224" t="s">
+      <c r="D8" s="136"/>
+      <c r="E8" s="202" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="132"/>
@@ -8624,16 +8626,16 @@
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
-      <c r="AI8" s="213"/>
-      <c r="AJ8" s="213"/>
+      <c r="AI8" s="189"/>
+      <c r="AJ8" s="189"/>
     </row>
     <row r="9" spans="1:37" s="3" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="196"/>
+      <c r="A9" s="201"/>
       <c r="B9" s="38"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="138"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="203"/>
+      <c r="F9" s="133"/>
       <c r="G9" s="56"/>
       <c r="H9" s="45"/>
       <c r="I9" s="46"/>
@@ -8662,24 +8664,24 @@
       <c r="AF9" s="45"/>
       <c r="AG9" s="45"/>
       <c r="AH9" s="45"/>
-      <c r="AI9" s="213"/>
-      <c r="AJ9" s="213"/>
+      <c r="AI9" s="189"/>
+      <c r="AJ9" s="189"/>
     </row>
     <row r="10" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="205">
+      <c r="A10" s="204">
         <v>4</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="225" t="s">
+      <c r="C10" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="226"/>
-      <c r="E10" s="207" t="s">
+      <c r="D10" s="206"/>
+      <c r="E10" s="209" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="161"/>
+      <c r="F10" s="146"/>
       <c r="G10" s="53"/>
       <c r="H10" s="10"/>
       <c r="I10" s="17"/>
@@ -8708,16 +8710,16 @@
       <c r="AF10" s="10"/>
       <c r="AG10" s="10"/>
       <c r="AH10" s="10"/>
-      <c r="AI10" s="213"/>
-      <c r="AJ10" s="213"/>
+      <c r="AI10" s="189"/>
+      <c r="AJ10" s="189"/>
     </row>
     <row r="11" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A11" s="196"/>
+      <c r="A11" s="201"/>
       <c r="B11" s="37"/>
-      <c r="C11" s="210"/>
-      <c r="D11" s="211"/>
-      <c r="E11" s="198"/>
-      <c r="F11" s="125"/>
+      <c r="C11" s="207"/>
+      <c r="D11" s="208"/>
+      <c r="E11" s="210"/>
+      <c r="F11" s="145"/>
       <c r="G11" s="53"/>
       <c r="H11" s="10"/>
       <c r="I11" s="17"/>
@@ -8746,22 +8748,22 @@
       <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
-      <c r="AI11" s="213"/>
-      <c r="AJ11" s="213"/>
+      <c r="AI11" s="189"/>
+      <c r="AJ11" s="189"/>
     </row>
     <row r="12" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A12" s="195">
+      <c r="A12" s="200">
         <v>5</v>
       </c>
       <c r="B12" s="37"/>
-      <c r="C12" s="208" t="s">
+      <c r="C12" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="209"/>
-      <c r="E12" s="197" t="s">
+      <c r="D12" s="212"/>
+      <c r="E12" s="213" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="124"/>
+      <c r="F12" s="144"/>
       <c r="G12" s="54"/>
       <c r="H12" s="8"/>
       <c r="I12" s="14"/>
@@ -8790,16 +8792,16 @@
       <c r="AF12" s="8"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
-      <c r="AI12" s="213"/>
-      <c r="AJ12" s="213"/>
+      <c r="AI12" s="189"/>
+      <c r="AJ12" s="189"/>
     </row>
     <row r="13" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A13" s="196"/>
+      <c r="A13" s="201"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="211"/>
-      <c r="E13" s="198"/>
-      <c r="F13" s="125"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="208"/>
+      <c r="E13" s="210"/>
+      <c r="F13" s="145"/>
       <c r="G13" s="54"/>
       <c r="H13" s="8"/>
       <c r="I13" s="14"/>
@@ -8828,22 +8830,22 @@
       <c r="AF13" s="8"/>
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="213"/>
-      <c r="AJ13" s="213"/>
+      <c r="AI13" s="189"/>
+      <c r="AJ13" s="189"/>
     </row>
     <row r="14" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A14" s="195">
+      <c r="A14" s="200">
         <v>6</v>
       </c>
       <c r="B14" s="37"/>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="127"/>
-      <c r="E14" s="206" t="s">
+      <c r="D14" s="125"/>
+      <c r="E14" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="124"/>
+      <c r="F14" s="144"/>
       <c r="G14" s="54"/>
       <c r="H14" s="8"/>
       <c r="I14" s="14"/>
@@ -8872,16 +8874,16 @@
       <c r="AF14" s="8"/>
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
-      <c r="AI14" s="213"/>
-      <c r="AJ14" s="213"/>
+      <c r="AI14" s="189"/>
+      <c r="AJ14" s="189"/>
     </row>
     <row r="15" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A15" s="205"/>
+      <c r="A15" s="204"/>
       <c r="B15" s="37"/>
-      <c r="C15" s="159"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="161"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="209"/>
+      <c r="F15" s="146"/>
       <c r="G15" s="55"/>
       <c r="H15" s="25"/>
       <c r="I15" s="26"/>
@@ -8910,21 +8912,21 @@
       <c r="AF15" s="25"/>
       <c r="AG15" s="25"/>
       <c r="AH15" s="25"/>
-      <c r="AI15" s="213"/>
-      <c r="AJ15" s="213"/>
+      <c r="AI15" s="189"/>
+      <c r="AJ15" s="189"/>
     </row>
     <row r="16" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="203">
+      <c r="A16" s="215">
         <v>7</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="131"/>
-      <c r="E16" s="202" t="s">
+      <c r="D16" s="177"/>
+      <c r="E16" s="216" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="132"/>
@@ -8956,16 +8958,16 @@
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
-      <c r="AI16" s="213"/>
-      <c r="AJ16" s="213"/>
+      <c r="AI16" s="189"/>
+      <c r="AJ16" s="189"/>
     </row>
     <row r="17" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="203"/>
+      <c r="A17" s="215"/>
       <c r="B17" s="37"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="125"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="145"/>
       <c r="G17" s="55"/>
       <c r="H17" s="25"/>
       <c r="I17" s="26"/>
@@ -8994,22 +8996,22 @@
       <c r="AF17" s="25"/>
       <c r="AG17" s="25"/>
       <c r="AH17" s="25"/>
-      <c r="AI17" s="213"/>
-      <c r="AJ17" s="213"/>
+      <c r="AI17" s="189"/>
+      <c r="AJ17" s="189"/>
     </row>
     <row r="18" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="203">
+      <c r="A18" s="215">
         <v>7</v>
       </c>
       <c r="B18" s="37"/>
-      <c r="C18" s="133" t="s">
+      <c r="C18" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="127"/>
-      <c r="E18" s="197" t="s">
+      <c r="D18" s="125"/>
+      <c r="E18" s="213" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="124"/>
+      <c r="F18" s="144"/>
       <c r="G18" s="54"/>
       <c r="H18" s="8"/>
       <c r="I18" s="14"/>
@@ -9038,16 +9040,16 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
-      <c r="AI18" s="213"/>
-      <c r="AJ18" s="213"/>
+      <c r="AI18" s="189"/>
+      <c r="AJ18" s="189"/>
     </row>
     <row r="19" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="203"/>
+      <c r="A19" s="215"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="125"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="145"/>
       <c r="G19" s="55"/>
       <c r="H19" s="25"/>
       <c r="I19" s="26"/>
@@ -9076,22 +9078,22 @@
       <c r="AF19" s="25"/>
       <c r="AG19" s="25"/>
       <c r="AH19" s="25"/>
-      <c r="AI19" s="213"/>
-      <c r="AJ19" s="213"/>
+      <c r="AI19" s="189"/>
+      <c r="AJ19" s="189"/>
     </row>
     <row r="20" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="203">
+      <c r="A20" s="215">
         <v>8</v>
       </c>
       <c r="B20" s="37"/>
-      <c r="C20" s="133" t="s">
+      <c r="C20" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="127"/>
-      <c r="E20" s="197" t="s">
+      <c r="D20" s="125"/>
+      <c r="E20" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="124"/>
+      <c r="F20" s="144"/>
       <c r="G20" s="55"/>
       <c r="H20" s="25"/>
       <c r="I20" s="26"/>
@@ -9120,16 +9122,16 @@
       <c r="AF20" s="25"/>
       <c r="AG20" s="25"/>
       <c r="AH20" s="25"/>
-      <c r="AI20" s="213"/>
-      <c r="AJ20" s="213"/>
+      <c r="AI20" s="189"/>
+      <c r="AJ20" s="189"/>
     </row>
     <row r="21" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="203"/>
+      <c r="A21" s="215"/>
       <c r="B21" s="38"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="204"/>
-      <c r="F21" s="138"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="133"/>
       <c r="G21" s="57"/>
       <c r="H21" s="9"/>
       <c r="I21" s="18"/>
@@ -9158,21 +9160,21 @@
       <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
       <c r="AH21" s="9"/>
-      <c r="AI21" s="213"/>
-      <c r="AJ21" s="213"/>
+      <c r="AI21" s="189"/>
+      <c r="AJ21" s="189"/>
     </row>
     <row r="22" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="195">
+      <c r="A22" s="200">
         <v>9</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="131"/>
-      <c r="E22" s="202" t="s">
+      <c r="D22" s="177"/>
+      <c r="E22" s="216" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="132"/>
@@ -9204,16 +9206,16 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
-      <c r="AI22" s="213"/>
-      <c r="AJ22" s="213"/>
+      <c r="AI22" s="189"/>
+      <c r="AJ22" s="189"/>
     </row>
     <row r="23" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="196"/>
+      <c r="A23" s="201"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="198"/>
-      <c r="F23" s="125"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="210"/>
+      <c r="F23" s="145"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="14"/>
@@ -9242,22 +9244,22 @@
       <c r="AF23" s="8"/>
       <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="213"/>
-      <c r="AJ23" s="213"/>
+      <c r="AI23" s="189"/>
+      <c r="AJ23" s="189"/>
     </row>
     <row r="24" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="195">
+      <c r="A24" s="200">
         <v>10</v>
       </c>
       <c r="B24" s="37"/>
-      <c r="C24" s="126" t="s">
+      <c r="C24" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="127"/>
-      <c r="E24" s="197" t="s">
+      <c r="D24" s="125"/>
+      <c r="E24" s="213" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="124"/>
+      <c r="F24" s="144"/>
       <c r="G24" s="54"/>
       <c r="H24" s="8"/>
       <c r="I24" s="14"/>
@@ -9286,16 +9288,16 @@
       <c r="AF24" s="8"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
-      <c r="AI24" s="213"/>
-      <c r="AJ24" s="213"/>
+      <c r="AI24" s="189"/>
+      <c r="AJ24" s="189"/>
     </row>
     <row r="25" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A25" s="196"/>
+      <c r="A25" s="201"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="198"/>
-      <c r="F25" s="125"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="210"/>
+      <c r="F25" s="145"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="14"/>
@@ -9324,22 +9326,22 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
-      <c r="AI25" s="213"/>
-      <c r="AJ25" s="213"/>
+      <c r="AI25" s="189"/>
+      <c r="AJ25" s="189"/>
     </row>
     <row r="26" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A26" s="195">
+      <c r="A26" s="200">
         <v>12</v>
       </c>
       <c r="B26" s="37"/>
-      <c r="C26" s="126" t="s">
+      <c r="C26" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="127"/>
-      <c r="E26" s="197" t="s">
+      <c r="D26" s="125"/>
+      <c r="E26" s="213" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="124"/>
+      <c r="F26" s="144"/>
       <c r="G26" s="55"/>
       <c r="H26" s="25"/>
       <c r="I26" s="26"/>
@@ -9368,16 +9370,16 @@
       <c r="AF26" s="25"/>
       <c r="AG26" s="25"/>
       <c r="AH26" s="25"/>
-      <c r="AI26" s="213"/>
-      <c r="AJ26" s="213"/>
+      <c r="AI26" s="189"/>
+      <c r="AJ26" s="189"/>
     </row>
     <row r="27" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="196"/>
+      <c r="A27" s="201"/>
       <c r="B27" s="38"/>
-      <c r="C27" s="128"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="198"/>
-      <c r="F27" s="138"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="210"/>
+      <c r="F27" s="133"/>
       <c r="G27" s="57"/>
       <c r="H27" s="9"/>
       <c r="I27" s="18"/>
@@ -9406,24 +9408,24 @@
       <c r="AF27" s="9"/>
       <c r="AG27" s="9"/>
       <c r="AH27" s="9"/>
-      <c r="AI27" s="213"/>
-      <c r="AJ27" s="213"/>
+      <c r="AI27" s="189"/>
+      <c r="AJ27" s="189"/>
     </row>
     <row r="28" spans="1:37" ht="12" customHeight="1">
-      <c r="A28" s="115">
+      <c r="A28" s="122">
         <v>13</v>
       </c>
       <c r="B28" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="199" t="s">
+      <c r="C28" s="217" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="200"/>
-      <c r="E28" s="201" t="s">
+      <c r="D28" s="218"/>
+      <c r="E28" s="221" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="170"/>
+      <c r="F28" s="120"/>
       <c r="G28" s="40"/>
       <c r="H28" s="7"/>
       <c r="I28" s="16"/>
@@ -9452,17 +9454,17 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
-      <c r="AI28" s="213"/>
-      <c r="AJ28" s="213"/>
+      <c r="AI28" s="189"/>
+      <c r="AJ28" s="189"/>
       <c r="AK28" s="3"/>
     </row>
     <row r="29" spans="1:37" ht="12" customHeight="1">
-      <c r="A29" s="116"/>
+      <c r="A29" s="123"/>
       <c r="B29" s="35"/>
-      <c r="C29" s="183"/>
-      <c r="D29" s="184"/>
-      <c r="E29" s="187"/>
-      <c r="F29" s="171"/>
+      <c r="C29" s="219"/>
+      <c r="D29" s="220"/>
+      <c r="E29" s="222"/>
+      <c r="F29" s="121"/>
       <c r="G29" s="54"/>
       <c r="H29" s="8"/>
       <c r="I29" s="14"/>
@@ -9491,23 +9493,23 @@
       <c r="AF29" s="8"/>
       <c r="AG29" s="8"/>
       <c r="AH29" s="8"/>
-      <c r="AI29" s="213"/>
-      <c r="AJ29" s="213"/>
+      <c r="AI29" s="189"/>
+      <c r="AJ29" s="189"/>
       <c r="AK29" s="3"/>
     </row>
     <row r="30" spans="1:37" ht="12" customHeight="1">
-      <c r="A30" s="115">
+      <c r="A30" s="122">
         <v>14</v>
       </c>
       <c r="B30" s="35"/>
-      <c r="C30" s="183" t="s">
+      <c r="C30" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="184"/>
-      <c r="E30" s="187" t="s">
+      <c r="D30" s="220"/>
+      <c r="E30" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="171"/>
+      <c r="F30" s="121"/>
       <c r="G30" s="54"/>
       <c r="H30" s="8"/>
       <c r="I30" s="14"/>
@@ -9536,17 +9538,17 @@
       <c r="AF30" s="8"/>
       <c r="AG30" s="8"/>
       <c r="AH30" s="8"/>
-      <c r="AI30" s="213"/>
-      <c r="AJ30" s="213"/>
+      <c r="AI30" s="189"/>
+      <c r="AJ30" s="189"/>
       <c r="AK30" s="3"/>
     </row>
     <row r="31" spans="1:37" ht="12" customHeight="1">
-      <c r="A31" s="116"/>
+      <c r="A31" s="123"/>
       <c r="B31" s="39"/>
-      <c r="C31" s="185"/>
-      <c r="D31" s="186"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="180"/>
+      <c r="C31" s="223"/>
+      <c r="D31" s="224"/>
+      <c r="E31" s="225"/>
+      <c r="F31" s="115"/>
       <c r="G31" s="57"/>
       <c r="H31" s="9"/>
       <c r="I31" s="18"/>
@@ -9575,25 +9577,25 @@
       <c r="AF31" s="9"/>
       <c r="AG31" s="9"/>
       <c r="AH31" s="9"/>
-      <c r="AI31" s="213"/>
-      <c r="AJ31" s="213"/>
+      <c r="AI31" s="189"/>
+      <c r="AJ31" s="189"/>
       <c r="AK31" s="3"/>
     </row>
     <row r="32" spans="1:37" ht="12" customHeight="1">
-      <c r="A32" s="115">
+      <c r="A32" s="122">
         <v>15</v>
       </c>
-      <c r="B32" s="190" t="s">
+      <c r="B32" s="227" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="130" t="s">
+      <c r="C32" s="176" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="131"/>
-      <c r="E32" s="190" t="s">
+      <c r="D32" s="177"/>
+      <c r="E32" s="227" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="168"/>
+      <c r="F32" s="130"/>
       <c r="G32" s="40"/>
       <c r="H32" s="7"/>
       <c r="I32" s="16"/>
@@ -9622,17 +9624,17 @@
       <c r="AF32" s="42"/>
       <c r="AG32" s="42"/>
       <c r="AH32" s="42"/>
-      <c r="AI32" s="213"/>
-      <c r="AJ32" s="213"/>
+      <c r="AI32" s="189"/>
+      <c r="AJ32" s="189"/>
       <c r="AK32" s="3"/>
     </row>
     <row r="33" spans="1:37" ht="12" customHeight="1" thickBot="1">
-      <c r="A33" s="189"/>
-      <c r="B33" s="191"/>
-      <c r="C33" s="192"/>
-      <c r="D33" s="193"/>
-      <c r="E33" s="191"/>
-      <c r="F33" s="194"/>
+      <c r="A33" s="226"/>
+      <c r="B33" s="228"/>
+      <c r="C33" s="229"/>
+      <c r="D33" s="230"/>
+      <c r="E33" s="228"/>
+      <c r="F33" s="231"/>
       <c r="G33" s="41"/>
       <c r="H33" s="12"/>
       <c r="I33" s="15"/>
@@ -9661,8 +9663,8 @@
       <c r="AF33" s="12"/>
       <c r="AG33" s="12"/>
       <c r="AH33" s="12"/>
-      <c r="AI33" s="214"/>
-      <c r="AJ33" s="214"/>
+      <c r="AI33" s="190"/>
+      <c r="AJ33" s="190"/>
       <c r="AK33" s="3"/>
     </row>
     <row r="34" spans="1:37">
@@ -9683,12 +9685,53 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="AJ4:AJ33"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -9705,53 +9748,12 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
